--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06092407856241663</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.01664249654985295</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01010730139212483</v>
+        <v>0.01539816173837089</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0004761458501659696</v>
+        <v>0.001405301815298639</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000710219062329328</v>
+        <v>0.0007971269667906025</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001495146782021277</v>
+        <v>0.004764851910931373</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007747384198234673</v>
+        <v>0.0007850887105055554</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005645039807147312</v>
+        <v>0.007694293876348568</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007889847185337538</v>
+        <v>0.0007829293233629466</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00737040925202026</v>
+        <v>0.001405301815298639</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007506893357127191</v>
+        <v>0.0007971269667906025</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001979485640215363</v>
+        <v>0.003070911739753553</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001420438124658656</v>
+        <v>0.001594253933581205</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.00940707336775834</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001665416666666664</v>
+        <v>0.001570177421011111</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01219040851633221</v>
+        <v>0.01615818933864654</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001577969437067508</v>
+        <v>0.001565858646725893</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0146493623919744</v>
+        <v>0.003070911739753553</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001501378671425438</v>
+        <v>0.001594253933581205</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003298671811691266</v>
+        <v>0.004504710586999083</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002130657186987984</v>
+        <v>0.002391380900371808</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003583312535799181</v>
+        <v>0.01407872612732872</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002324215259470402</v>
+        <v>0.002355266131516666</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0182177764772129</v>
+        <v>0.023439988385972</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002366954155601262</v>
+        <v>0.00234878797008884</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02151465400784636</v>
+        <v>0.004504710586999083</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002252068007138158</v>
+        <v>0.002391380900371808</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004413190004809039</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002840876249317312</v>
+        <v>0.003330833333333332</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004551920601460167</v>
+        <v>0.01699999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003098953679293869</v>
+        <v>0.002995987654320985</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02270881403944741</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003155938874135015</v>
+        <v>0.002828066037735852</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02900000000000003</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003219805555555559</v>
+        <v>0.003330833333333332</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003369100464041611</v>
+        <v>0.003330833333333332</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.006807672782755243</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003369100464041611</v>
+        <v>0.003985634833953013</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005552587276982143</v>
+        <v>0.02000570823523184</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003873692099117336</v>
+        <v>0.003925443552527777</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02784519155269377</v>
+        <v>0.0336431603424579</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003944923592668769</v>
+        <v>0.003914646616814734</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0320443459171999</v>
+        <v>0.006807672782755243</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003753446678563596</v>
+        <v>0.003985634833953013</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006957998327485913</v>
+        <v>0.007635752413941599</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004261314373975968</v>
+        <v>0.004782761800743615</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006493615079757306</v>
+        <v>0.02275773332140779</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004648430518940804</v>
+        <v>0.004710532263033332</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03110857936661018</v>
+        <v>0.03731518529930006</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004733908311202523</v>
+        <v>0.004697575940177679</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03584930246240897</v>
+        <v>0.007635752413941599</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004504136014276315</v>
+        <v>0.004782761800743615</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.005570940600356948</v>
+        <v>0.008307815622077011</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004971533436305296</v>
+        <v>0.005579888767534218</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.00728330652717786</v>
+        <v>0.02541971566737677</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005423168938764271</v>
+        <v>0.005495620973538888</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03388064783085468</v>
+        <v>0.04116514831322565</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005522893029736277</v>
+        <v>0.005480505263540626</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03847142115173319</v>
+        <v>0.008307815622077011</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005254825349989035</v>
+        <v>0.005579888767534218</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008116262447365484</v>
+        <v>0.009228684923785611</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005681752498634624</v>
+        <v>0.00637701573432482</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.007929964136635971</v>
+        <v>0.02780647797276642</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006197907358587738</v>
+        <v>0.006280709684044443</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03699999999999998</v>
+        <v>0.04551541096611439</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006647294138798988</v>
+        <v>0.006263434586903573</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04227554850765064</v>
+        <v>0.009228684923785611</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006005514685701753</v>
+        <v>0.00637701573432482</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.006609061190576804</v>
+        <v>0.009903182835691561</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006391971560963951</v>
+        <v>0.007174142701115423</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.008741890425523827</v>
+        <v>0.02933284293720428</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006972645778411205</v>
+        <v>0.007065798394549998</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03743275229211113</v>
+        <v>0.04808833483984581</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007100862466803784</v>
+        <v>0.00704636391026652</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04462653105263914</v>
+        <v>0.009903182835691561</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006756204021414472</v>
+        <v>0.007174142701115423</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009064434152056197</v>
+        <v>0.010936131874419</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007102190623293279</v>
+        <v>0.007971269667906025</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009227387911233627</v>
+        <v>0.03181363326031802</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007747384198234672</v>
+        <v>0.007850887105055554</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03781075080853114</v>
+        <v>0.0513062815162994</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007889847185337539</v>
+        <v>0.007829293233629468</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0471892153091768</v>
+        <v>0.010936131874419</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007506893357127192</v>
+        <v>0.007971269667906025</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008497478653868927</v>
+        <v>0.0114323545565921</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007812409685622608</v>
+        <v>0.008768396634696628</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01009475911115757</v>
+        <v>0.03326367164173513</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008522122618058139</v>
+        <v>0.008635975815561109</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03763137752598683</v>
+        <v>0.05429161257735476</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008678831903871293</v>
+        <v>0.008612222556992413</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05052844779974158</v>
+        <v>0.0114323545565921</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008257582692839912</v>
+        <v>0.008768396634696628</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00892329201808028</v>
+        <v>0.01229667339883501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008522628747951936</v>
+        <v>0.009565523601487231</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01055230654268783</v>
+        <v>0.03539778078108324</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009296861037881608</v>
+        <v>0.009421064526066664</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03866987980854825</v>
+        <v>0.05736668960489139</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009467816622405046</v>
+        <v>0.009395151880355359</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0526090750468115</v>
+        <v>0.01229667339883501</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00900827202855263</v>
+        <v>0.009565523601487231</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.008356971566755529</v>
+        <v>0.01283391091777186</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009232847810281263</v>
+        <v>0.01036265056827783</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01130833272321659</v>
+        <v>0.03693078337798994</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01007159945770507</v>
+        <v>0.01020615323657222</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03840150502028541</v>
+        <v>0.06005387418078884</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0102568013409388</v>
+        <v>0.01017808120371831</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05509594357286446</v>
+        <v>0.01283391091777186</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009758961364265349</v>
+        <v>0.01036265056827783</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.0133488896300268</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01010730139212483</v>
+        <v>0.01115977753506844</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01197114017013604</v>
+        <v>0.03867750213208276</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01084633787752854</v>
+        <v>0.01099124194707778</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03930150052526846</v>
+        <v>0.06380293068377785</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01104578605947255</v>
+        <v>0.01113820378856831</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05885389990037859</v>
+        <v>0.0133488896300268</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01050965069997807</v>
+        <v>0.01115977753506844</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01130458848363836</v>
+        <v>0.01384643205222401</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01065328593493992</v>
+        <v>0.01195690450185904</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01254903140083838</v>
+        <v>0.0402227136168154</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01162107629735201</v>
+        <v>0.01181438759012427</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0402227136168154</v>
+        <v>0.06519361279157326</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01204379317439853</v>
+        <v>0.0117439398504442</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06114779055183178</v>
+        <v>0.01384643205222401</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01126034003569079</v>
+        <v>0.01195690450185904</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01082596871199776</v>
+        <v>0.01453136070098761</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01136350499726925</v>
+        <v>0.01275403146864964</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01335030893271577</v>
+        <v>0.04139684574487837</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01239581471717548</v>
+        <v>0.01256141936808889</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04057764049052914</v>
+        <v>0.06690664594262552</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01262375549654006</v>
+        <v>0.01252686917380715</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06380293068377785</v>
+        <v>0.01453136070098761</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01180649601588241</v>
+        <v>0.01275403146864964</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01137262134773782</v>
+        <v>0.01530849809294177</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01207372405959858</v>
+        <v>0.01355115843544024</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01418327528316046</v>
+        <v>0.04254458744377665</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01317055313699894</v>
+        <v>0.01334650807859444</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04138475310032219</v>
+        <v>0.06931547334882748</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01341274021507381</v>
+        <v>0.01330979849717009</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06792153976155019</v>
+        <v>0.01530849809294177</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01276171870711623</v>
+        <v>0.01355115843544024</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01193957104109568</v>
+        <v>0.01568266674471062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0127839431219279</v>
+        <v>0.01434828540223085</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01505623296956458</v>
+        <v>0.04399399484309141</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01394529155682241</v>
+        <v>0.0141315967891</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04311349495684419</v>
+        <v>0.07131733792389644</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01420172493360757</v>
+        <v>0.01409272782053304</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07145452509450517</v>
+        <v>0.01568266674471062</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01351240804282894</v>
+        <v>0.01434828540223085</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01352184244230849</v>
+        <v>0.01664249654985295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01349416218425723</v>
+        <v>0.01539816173837089</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01557748450932034</v>
+        <v>0.04594300523899938</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01472002997664588</v>
+        <v>0.01491668549960555</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04530018554317275</v>
+        <v>0.07400948258154955</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01499070965214132</v>
+        <v>0.01487565714389599</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07459363675051583</v>
+        <v>0.01664249654985295</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01426309737854167</v>
+        <v>0.01539816173837089</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01411446020161335</v>
+        <v>0.0169425577371316</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01420438124658656</v>
+        <v>0.01594253933581205</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01664249654985295</v>
+        <v>0.04678955592767736</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01539816173837089</v>
+        <v>0.01570177421011111</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04838114434238555</v>
+        <v>0.07648915023550429</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01577969437067508</v>
+        <v>0.01565858646725894</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07898881073438485</v>
+        <v>0.0169425577371316</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01501378671425438</v>
+        <v>0.01594253933581205</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01371244896924742</v>
+        <v>0.01743957361891713</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01491460030891589</v>
+        <v>0.01673966630260266</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01767113805928865</v>
+        <v>0.04823158420530207</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01626950681629281</v>
+        <v>0.01648686292061666</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05099269083756022</v>
+        <v>0.07865358379947773</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01656867908920883</v>
+        <v>0.01644151579062188</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08268998305091535</v>
+        <v>0.01743957361891713</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0157644760499671</v>
+        <v>0.01673966630260266</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01431083339544784</v>
+        <v>0.01824832109230223</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01562481937124522</v>
+        <v>0.01753679326939326</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01874155041360995</v>
+        <v>0.04946702736805028</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01704424523611628</v>
+        <v>0.01727195163112222</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05357114451177442</v>
+        <v>0.0806000261871872</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01735766380774259</v>
+        <v>0.01722444511398483</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08614708970491036</v>
+        <v>0.01824832109230223</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01651516538567982</v>
+        <v>0.01753679326939326</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01590463813045175</v>
+        <v>0.01856702164555689</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01633503843357454</v>
+        <v>0.01833392023618386</v>
       </c>
       <c r="J88" t="n">
-        <v>0.020231744915522</v>
+        <v>0.05129382271209873</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01781898365593975</v>
+        <v>0.01805704034162777</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05635282484810586</v>
+        <v>0.0831257203123501</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01814664852627634</v>
+        <v>0.01800737443734777</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09031006670117275</v>
+        <v>0.01856702164555689</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01726585472139254</v>
+        <v>0.01833392023618386</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01648888782449626</v>
+        <v>0.01939389676695101</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01704525749590387</v>
+        <v>0.01913104720297446</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02140588454733665</v>
+        <v>0.05310990753362424</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01859372207576322</v>
+        <v>0.01884212905213333</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05907405132963212</v>
+        <v>0.08592790908868353</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01893563324481009</v>
+        <v>0.01879030376071072</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09402885004450551</v>
+        <v>0.01939389676695101</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01801654405710526</v>
+        <v>0.01913104720297446</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01705860712781852</v>
+        <v>0.01982716794475463</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0177554765582332</v>
+        <v>0.01992817416976507</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02292813229136575</v>
+        <v>0.05431321912880355</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01936846049558668</v>
+        <v>0.01962721776263888</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06197114343943094</v>
+        <v>0.08800383542990498</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01972461796334385</v>
+        <v>0.01957323308407367</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09865337573971156</v>
+        <v>0.01982716794475463</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01876723339281798</v>
+        <v>0.01992817416976507</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01660882069065567</v>
+        <v>0.02056505666723758</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01846569562056253</v>
+        <v>0.02072530113655567</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02436265112992118</v>
+        <v>0.05560169479381341</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02014319891541015</v>
+        <v>0.02041230647314444</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06488042066057992</v>
+        <v>0.09015074224973152</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0205136026818776</v>
+        <v>0.02035616240743661</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1023335797915939</v>
+        <v>0.02056505666723758</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0195179227285307</v>
+        <v>0.02072530113655567</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01713455316324487</v>
+        <v>0.02130578442266991</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01917591468289186</v>
+        <v>0.02152242810334627</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02557360404531483</v>
+        <v>0.05727327182483058</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02091793733523362</v>
+        <v>0.02119739518365</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06773820247615675</v>
+        <v>0.0922658724618805</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02130258740041135</v>
+        <v>0.02113909173079956</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1056193982049554</v>
+        <v>0.02130578442266991</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02026861206424342</v>
+        <v>0.02152242810334627</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01863082919582321</v>
+        <v>0.02194757269932153</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01988613374522118</v>
+        <v>0.02231955507013687</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02712515401985853</v>
+        <v>0.05842588751803179</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02169267575505708</v>
+        <v>0.02198248389415555</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06988080836923907</v>
+        <v>0.09454646898006924</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02209157211894511</v>
+        <v>0.0219220210541625</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1096607669845992</v>
+        <v>0.02194757269932153</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02101930139995614</v>
+        <v>0.02231955507013687</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01709267343862785</v>
+        <v>0.02268864298546239</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02059635280755051</v>
+        <v>0.02311668203692747</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02818146403586419</v>
+        <v>0.05975747916959387</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02246741417488055</v>
+        <v>0.02276757260466111</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07184455782290455</v>
+        <v>0.09588977471801502</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02288055683747886</v>
+        <v>0.02270495037752545</v>
       </c>
       <c r="N94" t="n">
-        <v>0.112507622135328</v>
+        <v>0.02268864298546239</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02176999073566886</v>
+        <v>0.02311668203692747</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01951511054189594</v>
+        <v>0.02332721676936242</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02130657186987984</v>
+        <v>0.02391380900371808</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02950669707564366</v>
+        <v>0.06066598407569349</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02324215259470402</v>
+        <v>0.02355266131516666</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07376577032023085</v>
+        <v>0.09859303258943497</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02366954155601261</v>
+        <v>0.0234878797008884</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1145098996619451</v>
+        <v>0.02332721676936242</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02252068007138157</v>
+        <v>0.02391380900371808</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01789316515586459</v>
+        <v>0.02366151553929162</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02201679093220917</v>
+        <v>0.02471093597050868</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0303650161215088</v>
+        <v>0.0619493395325075</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02401689101452749</v>
+        <v>0.02433775002567222</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07558076534429556</v>
+        <v>0.1005534855080465</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02445852627454637</v>
+        <v>0.02427080902425134</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1174175355692532</v>
+        <v>0.02366151553929162</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0232713694070943</v>
+        <v>0.02471093597050868</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01922186193077095</v>
+        <v>0.0243897607835199</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0227270099945385</v>
+        <v>0.02550806293729928</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0311205841557715</v>
+        <v>0.0633054828362126</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02479162943435095</v>
+        <v>0.02512283873617777</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07622586237817644</v>
+        <v>0.101768376387567</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02524751099308012</v>
+        <v>0.02505373834761429</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1190804658620555</v>
+        <v>0.0243897607835199</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02402205874280701</v>
+        <v>0.02550806293729928</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02049622551685216</v>
+        <v>0.02501017399031721</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02343722905686782</v>
+        <v>0.02630518990408989</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03163756416074362</v>
+        <v>0.06493235128298561</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02556636785417442</v>
+        <v>0.02590792744668333</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07713738090495112</v>
+        <v>0.1035349481417134</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02603649571161388</v>
+        <v>0.02583666767097724</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1210486265451546</v>
+        <v>0.02501017399031721</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02477274807851973</v>
+        <v>0.02630518990408989</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02071128056434535</v>
+        <v>0.02552097664795352</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02414744811919715</v>
+        <v>0.02710231687088049</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03178011911873707</v>
+        <v>0.06572788216900322</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02634110627399789</v>
+        <v>0.02669301615718888</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07650337570638932</v>
+        <v>0.1049504436842034</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02682548043014763</v>
+        <v>0.02661959699434019</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1210719536233537</v>
+        <v>0.02552097664795352</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02552343741423245</v>
+        <v>0.02710231687088049</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01986205172348765</v>
+        <v>0.0261203902446988</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02485766718152648</v>
+        <v>0.02789944383767109</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03178139801185455</v>
+        <v>0.06679001279044219</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02711584469382135</v>
+        <v>0.02747810486769444</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07681938438472244</v>
+        <v>0.1069121059287539</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02761446514868138</v>
+        <v>0.02740252631770313</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1219042093902358</v>
+        <v>0.0261203902446988</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02627412674994517</v>
+        <v>0.02789944383767109</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02094356364451621</v>
+        <v>0.02700663626882294</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02556788624385581</v>
+        <v>0.02869657080446169</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03202225201310019</v>
+        <v>0.06771668044347934</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02789058311364482</v>
+        <v>0.02826319357819999</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07640822819405807</v>
+        <v>0.1096171777890824</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02840344986721514</v>
+        <v>0.02818545564106608</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1215738381965389</v>
+        <v>0.02700663626882294</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02702481608565789</v>
+        <v>0.02869657080446169</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01995282471693283</v>
+        <v>0.02727793620859592</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02627810530618514</v>
+        <v>0.0294936977712523</v>
       </c>
       <c r="J102" t="n">
-        <v>0.031818755451939</v>
+        <v>0.06960582242429142</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02866532153346829</v>
+        <v>0.02904828228870555</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07538323153768345</v>
+        <v>0.1108629021789062</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02919243458574889</v>
+        <v>0.02896838496442902</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1205507287932718</v>
+        <v>0.02727793620859592</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02777550542137061</v>
+        <v>0.0294936977712523</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02090640752612871</v>
+        <v>0.02783251155228771</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02698832436851446</v>
+        <v>0.0302908247380429</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03147537957146648</v>
+        <v>0.07015537602905517</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02944005995329176</v>
+        <v>0.0298333709992111</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07485771881888598</v>
+        <v>0.1116465220119424</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02998141930428265</v>
+        <v>0.02975131428779198</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1209522319690309</v>
+        <v>0.02783251155228771</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02852619475708333</v>
+        <v>0.0302908247380429</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02081355031767019</v>
+        <v>0.02836858378816824</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02769854343084379</v>
+        <v>0.0310879517048335</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03139659561477809</v>
+        <v>0.07146327855394732</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03021479837311522</v>
+        <v>0.03061845970971666</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07434501444095293</v>
+        <v>0.1134652802019084</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0307704040228164</v>
+        <v>0.03053424361115492</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1194956985124127</v>
+        <v>0.02836858378816824</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02927688409279604</v>
+        <v>0.0310879517048335</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02067975167934043</v>
+        <v>0.02918437440450745</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02840876249317312</v>
+        <v>0.0318850786716241</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03128687482496934</v>
+        <v>0.07262746729514472</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03098953679293869</v>
+        <v>0.03140354842022221</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07435844280717166</v>
+        <v>0.1152164196625215</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03155938874135016</v>
+        <v>0.03131717293451787</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1197984792120137</v>
+        <v>0.02918437440450745</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03002757342850877</v>
+        <v>0.0318850786716241</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01851051019892262</v>
+        <v>0.02947810488957529</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02911898155550244</v>
+        <v>0.03268220563841471</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03085068844513572</v>
+        <v>0.07304587954882405</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03176427521276216</v>
+        <v>0.03218863713072777</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07331132832082951</v>
+        <v>0.1162971833074988</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03234837345988391</v>
+        <v>0.03210010225788081</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1178779248564304</v>
+        <v>0.02947810488957529</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03077826276422149</v>
+        <v>0.03268220563841471</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02031132446419991</v>
+        <v>0.03014799673164177</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02982920061783178</v>
+        <v>0.03347933260520531</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03079250771837271</v>
+        <v>0.07421645261116205</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03253901363258562</v>
+        <v>0.03297372584123332</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07261699538521374</v>
+        <v>0.1184048140505579</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03313735817841766</v>
+        <v>0.03288303158124375</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1176513862342592</v>
+        <v>0.03014799673164177</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03152895209993421</v>
+        <v>0.03347933260520531</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0180876930629555</v>
+        <v>0.03059227141897675</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0305394196801611</v>
+        <v>0.03427645957199591</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03051680388777581</v>
+        <v>0.07493712377833558</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03331375205240909</v>
+        <v>0.03375881455173888</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07138876840361172</v>
+        <v>0.1194365548054157</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03392634289695142</v>
+        <v>0.0336659609046067</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1160362141340968</v>
+        <v>0.03059227141897675</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03227964143564693</v>
+        <v>0.03427645957199591</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01984511458297254</v>
+        <v>0.03090915043985024</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03124963874249043</v>
+        <v>0.03507358653878651</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03032804819644049</v>
+        <v>0.07530583034652133</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03408849047223256</v>
+        <v>0.03454390326224444</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07093997177931072</v>
+        <v>0.1204896484857897</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03471532761548517</v>
+        <v>0.03444889022796965</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1150497593445394</v>
+        <v>0.03090915043985024</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03303033077135965</v>
+        <v>0.03507358653878651</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0195890876120342</v>
+        <v>0.03109685528253216</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03195985780481976</v>
+        <v>0.03587071350557711</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02973071188746228</v>
+        <v>0.07632050961189607</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03486322889205603</v>
+        <v>0.03532899197274999</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07008392991559814</v>
+        <v>0.1215613380053971</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03550431233401892</v>
+        <v>0.0352318195513326</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1141093726541837</v>
+        <v>0.03109685528253216</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03378102010707236</v>
+        <v>0.03587071350557711</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01732511073792366</v>
+        <v>0.03145360743529248</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03267007686714909</v>
+        <v>0.03666784047236772</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02962926620393661</v>
+        <v>0.07717909887063659</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03563796731187949</v>
+        <v>0.03611408068325555</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06893396721576128</v>
+        <v>0.1218488662779553</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03629329705255267</v>
+        <v>0.03601474887469554</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1124324048516261</v>
+        <v>0.03145360743529248</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03453170944278508</v>
+        <v>0.03666784047236772</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01805868254842408</v>
+        <v>0.03197762838640113</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03338029592947842</v>
+        <v>0.03746496743915832</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02912818238895905</v>
+        <v>0.0772795354189196</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03641270573170296</v>
+        <v>0.0368991693937611</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06790340808308742</v>
+        <v>0.1230494762171815</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03708228177108643</v>
+        <v>0.03679767819805849</v>
       </c>
       <c r="N112" t="n">
-        <v>0.111736206725463</v>
+        <v>0.03197762838640113</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0352823987784978</v>
+        <v>0.03746496743915832</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01779530163131864</v>
+        <v>0.03226713962412808</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03409051499180774</v>
+        <v>0.03826209440594892</v>
       </c>
       <c r="J113" t="n">
-        <v>0.029131931685625</v>
+        <v>0.07831975655292192</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03718744415152643</v>
+        <v>0.03768425810426666</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06730557692086395</v>
+        <v>0.1239604107367929</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03787126648962019</v>
+        <v>0.03758060752142144</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1098381290642911</v>
+        <v>0.03226713962412808</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03603308811421052</v>
+        <v>0.03826209440594892</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01754046657439051</v>
+        <v>0.03242036263674329</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03480073405413707</v>
+        <v>0.03905922137273952</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02884498533703</v>
+        <v>0.07899769956882025</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0379621825713499</v>
+        <v>0.03846934681477222</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06625379813237811</v>
+        <v>0.1248789127505069</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03866025120815394</v>
+        <v>0.03836353684478438</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1090555226567066</v>
+        <v>0.03242036263674329</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03678377744992324</v>
+        <v>0.03905922137273952</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01629967596542287</v>
+        <v>0.03263551891251666</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0355109531164664</v>
+        <v>0.03985634833953013</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02847181458626954</v>
+        <v>0.0794113017627914</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03873692099117337</v>
+        <v>0.03925443552527777</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06616139612091729</v>
+        <v>0.1253022251720407</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03944923592668769</v>
+        <v>0.03914646616814733</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1075057382913063</v>
+        <v>0.03263551891251666</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03753446678563596</v>
+        <v>0.03985634833953013</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01707842839219886</v>
+        <v>0.03291082993971818</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03622117217879572</v>
+        <v>0.04065347530632073</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02821689067643909</v>
+        <v>0.07955850043101206</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03951165941099682</v>
+        <v>0.04003952423578332</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06494169528976881</v>
+        <v>0.1253275909151116</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04023822064522144</v>
+        <v>0.03992939549151028</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1061061267566865</v>
+        <v>0.03291082993971818</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03828515612134867</v>
+        <v>0.04065347530632073</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01588222244250169</v>
+        <v>0.03304451720661782</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03693139124112505</v>
+        <v>0.04145060227311134</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02788468485063418</v>
+        <v>0.07993723286965909</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0402863978308203</v>
+        <v>0.04082461294628888</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06450802004221998</v>
+        <v>0.1261522528934368</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0410272053637552</v>
+        <v>0.04071232481487323</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1046740388414436</v>
+        <v>0.03304451720661782</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0390358454570614</v>
+        <v>0.04145060227311134</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0177165567041145</v>
+        <v>0.03303480220148546</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03764161030345439</v>
+        <v>0.04224772923990194</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02777966835195025</v>
+        <v>0.07954543637490916</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04106113625064376</v>
+        <v>0.04160970165679443</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06457369478155811</v>
+        <v>0.1262734540207338</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04181619008228896</v>
+        <v>0.04149525413823617</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1039268253341744</v>
+        <v>0.03303480220148546</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03978653479277412</v>
+        <v>0.04224772923990194</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01558692976482048</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03835182936578371</v>
+        <v>0.04304485620669254</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02760631242348281</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04183587467046723</v>
+        <v>0.04239479036729999</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06405204391107053</v>
+        <v>0.1266884372107196</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04260517480082271</v>
+        <v>0.04227818346159912</v>
       </c>
       <c r="N119" t="n">
-        <v>0.102881837023475</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04053722412848684</v>
+        <v>0.04304485620669254</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01549884021240279</v>
+        <v>0.03318333624776409</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03906204842811304</v>
+        <v>0.04384198317348315</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02736908830832736</v>
+        <v>0.08044200576992563</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0426106130902907</v>
+        <v>0.04317987907780554</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06365639183404459</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04339415951935646</v>
+        <v>0.04306111278496207</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1015564246979421</v>
+        <v>0.03318333624776409</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04128791346419956</v>
+        <v>0.04384198317348315</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01745778663464461</v>
+        <v>0.03307159679385605</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03977226749044237</v>
+        <v>0.04463911014027375</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02747246724957939</v>
+        <v>0.07973905065900322</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04338535151011417</v>
+        <v>0.0439649677883111</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06370017465487016</v>
+        <v>0.1274043224010249</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04418314423789022</v>
+        <v>0.04384404210832501</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1012679391461722</v>
+        <v>0.03307159679385605</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04203860279991228</v>
+        <v>0.04463911014027375</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01546101335242278</v>
+        <v>0.03314895878215658</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04048248655277169</v>
+        <v>0.04543623710706435</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02722092049033435</v>
+        <v>0.08020834723954914</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04416008992993763</v>
+        <v>0.04475005649881666</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06400091922666137</v>
+        <v>0.1273936324905095</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04497212895642397</v>
+        <v>0.04462697143168796</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1008337311567617</v>
+        <v>0.03314895878215658</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04278929213562499</v>
+        <v>0.04543623710706435</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01548726559286504</v>
+        <v>0.03311585078590702</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04119270561510102</v>
+        <v>0.04623336407385495</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02732026883098462</v>
+        <v>0.08035297394980531</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0449348283497611</v>
+        <v>0.04553514520932221</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06435472081193158</v>
+        <v>0.127172769720288</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04576111367495772</v>
+        <v>0.0454099007550509</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1002711515183071</v>
+        <v>0.03311585078590702</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04353998147133771</v>
+        <v>0.04623336407385495</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01753392027838471</v>
+        <v>0.03287270137834873</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04190292467743035</v>
+        <v>0.04703049104064555</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0273810055211836</v>
+        <v>0.07957374742018855</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04570956676958457</v>
+        <v>0.04632023391982777</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06454779454839182</v>
+        <v>0.1274417459683439</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04655009839349147</v>
+        <v>0.04619283007841385</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09989755101940501</v>
+        <v>0.03287270137834873</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04429067080705043</v>
+        <v>0.04703049104064555</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.017599692860735</v>
+        <v>0.033119939132723</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04261314373975968</v>
+        <v>0.04782761800743616</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02729979464687643</v>
+        <v>0.08017148428111578</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04648430518940803</v>
+        <v>0.04710532263033332</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06546635557375322</v>
+        <v>0.1264005731126607</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04733908311202523</v>
+        <v>0.0469757594017768</v>
       </c>
       <c r="N125" t="n">
-        <v>0.100140934822747</v>
+        <v>0.033119939132723</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04504136014276314</v>
+        <v>0.04782761800743616</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01768329879166918</v>
+        <v>0.03275799262227118</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04332336280208901</v>
+        <v>0.04862474497422676</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02767090805612032</v>
+        <v>0.07964700116300377</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04725904360923151</v>
+        <v>0.04789041134083888</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0653966190257268</v>
+        <v>0.1263492630312217</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04812806783055899</v>
+        <v>0.04775868872513975</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1006374669654147</v>
+        <v>0.03275799262227118</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04579204947847587</v>
+        <v>0.04862474497422676</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01678345352294048</v>
+        <v>0.03278729042023461</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04403358186441833</v>
+        <v>0.04942187194101736</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02768861759697257</v>
+        <v>0.07980111469626941</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04803378202905497</v>
+        <v>0.04867550005134443</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0661248000420237</v>
+        <v>0.1264878276020105</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04891705254909274</v>
+        <v>0.04854161804850269</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1014689234966473</v>
+        <v>0.03278729042023461</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04654273881418859</v>
+        <v>0.04942187194101736</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01789887250630215</v>
+        <v>0.03290826109985463</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04474380092674766</v>
+        <v>0.05021899890780796</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02824719511749037</v>
+        <v>0.07963464151132951</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04880852044887844</v>
+        <v>0.04946058876184999</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06733711376035498</v>
+        <v>0.1273162787030107</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04970603726762649</v>
+        <v>0.04932454737186564</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1017131779828348</v>
+        <v>0.03290826109985463</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04729342814990131</v>
+        <v>0.05021899890780796</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01602827119350743</v>
+        <v>0.03272133323437257</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04545401998907699</v>
+        <v>0.05101612587459856</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02854091246573096</v>
+        <v>0.07924839823860097</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04958325886870191</v>
+        <v>0.05024567747235555</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06781977531843167</v>
+        <v>0.1261346282122056</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05049502198616024</v>
+        <v>0.05010747669522858</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1025481039903673</v>
+        <v>0.03272133323437257</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04804411748561403</v>
+        <v>0.05101612587459856</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01617036503630956</v>
+        <v>0.03242693539702973</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04616423905140632</v>
+        <v>0.05181325284138917</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02886404148975161</v>
+        <v>0.07864320150850057</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05035799728852537</v>
+        <v>0.0510307661828611</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06945899985396495</v>
+        <v>0.1270428880075787</v>
       </c>
       <c r="M130" t="n">
-        <v>0.051284006704694</v>
+        <v>0.05089040601859153</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1042515750856351</v>
+        <v>0.03242693539702973</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04879480682132675</v>
+        <v>0.05181325284138917</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01632386948646179</v>
+        <v>0.03232549616106749</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04687445811373565</v>
+        <v>0.05261037980817977</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02891085403760957</v>
+        <v>0.07841986795144523</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05113273570834884</v>
+        <v>0.05181585489336665</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07004100250466577</v>
+        <v>0.1265410699671136</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05207299142322776</v>
+        <v>0.05167333534195448</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1048014648350279</v>
+        <v>0.03232549616106749</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04954549615703946</v>
+        <v>0.05261037980817977</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01748749999571736</v>
+        <v>0.03231744409972712</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04758467717606497</v>
+        <v>0.05340750677497037</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02957562195736203</v>
+        <v>0.0787792141978518</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0519074741281723</v>
+        <v>0.05260094360387221</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07095199840824534</v>
+        <v>0.1261291859687936</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0528619761417615</v>
+        <v>0.05245626466531742</v>
       </c>
       <c r="N132" t="n">
-        <v>0.107175646804936</v>
+        <v>0.03231744409972712</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05029618549275219</v>
+        <v>0.05340750677497037</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01665997201582952</v>
+        <v>0.03240320778625001</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0482948962383943</v>
+        <v>0.05420463374176097</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02965261709706626</v>
+        <v>0.07782205687813706</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05268221254799578</v>
+        <v>0.05338603231437776</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07237820270241468</v>
+        <v>0.1263072478906024</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05365096086029526</v>
+        <v>0.05323919398868037</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1078519945617494</v>
+        <v>0.03240320778625001</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05104687482846491</v>
+        <v>0.05420463374176097</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01684000099855151</v>
+        <v>0.03198321579387749</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04900511530072363</v>
+        <v>0.05500176070855158</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03023611130477952</v>
+        <v>0.07814921262271793</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05345695096781924</v>
+        <v>0.05417112102488333</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07270583052488486</v>
+        <v>0.1261752676105233</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05443994557882901</v>
+        <v>0.05402212331204331</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1093083816718581</v>
+        <v>0.03198321579387749</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05179756416417762</v>
+        <v>0.05500176070855158</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01802630239563657</v>
+        <v>0.03215789669585084</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04971533436305296</v>
+        <v>0.05579888767534218</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03042037642855905</v>
+        <v>0.07756149806201124</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0542316893876427</v>
+        <v>0.05495620973538887</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07392109701336699</v>
+        <v>0.1256332570065398</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05522893029736277</v>
+        <v>0.05480505263540626</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1111226817016523</v>
+        <v>0.03215789669585084</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05254825349989034</v>
+        <v>0.05579888767534218</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01821759165883795</v>
+        <v>0.03182767906541144</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05042555342538229</v>
+        <v>0.05659601464213278</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03099968431646204</v>
+        <v>0.07745972982643379</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05500642780746617</v>
+        <v>0.05574129844589443</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0751102173055721</v>
+        <v>0.1255812279566354</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05601791501589652</v>
+        <v>0.05558798195876922</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1126727682175221</v>
+        <v>0.03182767906541144</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05329894283560306</v>
+        <v>0.05659601464213278</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01941258423990888</v>
+        <v>0.03179299147580061</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05113577248771161</v>
+        <v>0.05739314160892339</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03136830681654579</v>
+        <v>0.07704472454640249</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05578116622728964</v>
+        <v>0.05652638715639999</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07605940653921131</v>
+        <v>0.1253191923387936</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05680689973443027</v>
+        <v>0.05637091128213216</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1141365147858574</v>
+        <v>0.03179299147580061</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05404963217131577</v>
+        <v>0.05739314160892339</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01860999559060261</v>
+        <v>0.03155426250025968</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05184599155004094</v>
+        <v>0.05819026857571399</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03152051577686753</v>
+        <v>0.07691729885233414</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05655590464711311</v>
+        <v>0.05731147586690555</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07675487985199572</v>
+        <v>0.124847162030998</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05759588445296403</v>
+        <v>0.0571538406054951</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1163917949730484</v>
+        <v>0.03155426250025968</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0548003215070285</v>
+        <v>0.05819026857571399</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0188085411626724</v>
+        <v>0.03131192071203001</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05255621061237027</v>
+        <v>0.05898739554250459</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03215058304548447</v>
+        <v>0.07607826937464562</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05733064306693657</v>
+        <v>0.0580965645774111</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07748285238163635</v>
+        <v>0.1257651489112318</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05838486917149779</v>
+        <v>0.05793676992885805</v>
       </c>
       <c r="N139" t="n">
-        <v>0.118216482345485</v>
+        <v>0.03131192071203001</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05555101084274122</v>
+        <v>0.05898739554250459</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01800693640787147</v>
+        <v>0.03136639468435287</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0532664296746996</v>
+        <v>0.05978452250929519</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03245278047045388</v>
+        <v>0.07582845274375383</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05810538148676005</v>
+        <v>0.05888165328791665</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07832953926584435</v>
+        <v>0.1247731648574787</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05917385389003154</v>
+        <v>0.05871969925222099</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1197884504695576</v>
+        <v>0.03136639468435287</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05630170017845394</v>
+        <v>0.05978452250929519</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01820389677795308</v>
+        <v>0.03131811299046965</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05397664873702893</v>
+        <v>0.0605816494760858</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03242137989983301</v>
+        <v>0.07586866559007549</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05888011990658351</v>
+        <v>0.05966674199842221</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07928115564233074</v>
+        <v>0.1245712217477221</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05996283860856529</v>
+        <v>0.05950262857558395</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1215855729116559</v>
+        <v>0.03131811299046965</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05705238951416666</v>
+        <v>0.0605816494760858</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01839813772467046</v>
+        <v>0.03116750420362163</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05468686779935825</v>
+        <v>0.06137877644287641</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03275065318167907</v>
+        <v>0.07569972454402754</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05965485832640698</v>
+        <v>0.06045183070892776</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07952391664880659</v>
+        <v>0.1247593314599454</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06075182332709905</v>
+        <v>0.06028555789894689</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1228857232381702</v>
+        <v>0.03116750420362163</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05780307884987938</v>
+        <v>0.06137877644287641</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01858837469977687</v>
+        <v>0.03071499689705019</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05539708686168759</v>
+        <v>0.062175903409667</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03313487216404933</v>
+        <v>0.07492244623602681</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06042959674623045</v>
+        <v>0.06123691941943332</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0804454272336308</v>
+        <v>0.1239375058721324</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0615408080456328</v>
+        <v>0.06106848722230983</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1234667750154904</v>
+        <v>0.03071499689705019</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05855376818559209</v>
+        <v>0.062175903409667</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02077332315502554</v>
+        <v>0.03056101964399664</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05610730592401691</v>
+        <v>0.0629730303764576</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0332849930997059</v>
+        <v>0.07423764729649013</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06120433516605392</v>
+        <v>0.06202200812993888</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08013800326190162</v>
+        <v>0.1238057568622661</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06232979276416656</v>
+        <v>0.06185141654567278</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1253066018100068</v>
+        <v>0.03056101964399664</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05930445752130482</v>
+        <v>0.0629730303764576</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0189516985421697</v>
+        <v>0.03060600101770232</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05681752498634624</v>
+        <v>0.0637701573432482</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03316527624170215</v>
+        <v>0.07414614435583439</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06197907358587738</v>
+        <v>0.06280709684044443</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0809256074417227</v>
+        <v>0.1235640963083303</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06311877748270031</v>
+        <v>0.06263434586903574</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1260830771881092</v>
+        <v>0.03060600101770232</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06005514685701754</v>
+        <v>0.0637701573432482</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01912221631296263</v>
+        <v>0.03025036959140856</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05752774404867556</v>
+        <v>0.06456728431003882</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03345981402261274</v>
+        <v>0.07404875404447644</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06275381200570085</v>
+        <v>0.06359218555094999</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08171046594498235</v>
+        <v>0.1231125360883085</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06390776220123406</v>
+        <v>0.06341727519239868</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1264740747161879</v>
+        <v>0.03025036959140856</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06080583619273025</v>
+        <v>0.06456728431003882</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02128359191915755</v>
+        <v>0.03039455393835669</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05823796311100489</v>
+        <v>0.06536441127682942</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03345259502676814</v>
+        <v>0.07334629299283305</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06352855042552431</v>
+        <v>0.06437727426145555</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08169150450303733</v>
+        <v>0.122951088080184</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06469674691976782</v>
+        <v>0.06420020451576162</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1276058613675556</v>
+        <v>0.03039455393835669</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06155652552844298</v>
+        <v>0.06536441127682942</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02043454081250771</v>
+        <v>0.02993898263178806</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05894818217333422</v>
+        <v>0.06616153824362001</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0335435415089879</v>
+        <v>0.07333957783132114</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06430328884534778</v>
+        <v>0.0651623629719611</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08196764884724461</v>
+        <v>0.1234797641619403</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06548573163830157</v>
+        <v>0.06498313383912457</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1274030469811713</v>
+        <v>0.02993898263178806</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06230721486415569</v>
+        <v>0.06616153824362001</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02057377844476635</v>
+        <v>0.02978408424494396</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05965840123566355</v>
+        <v>0.06695866521041062</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03343257572409153</v>
+        <v>0.07232942519035757</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06507802726517124</v>
+        <v>0.06594745168246664</v>
       </c>
       <c r="L149" t="n">
-        <v>0.082137824708961</v>
+        <v>0.1222985762115611</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06627471635683532</v>
+        <v>0.06576606316248751</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1285329712320569</v>
+        <v>0.02978408424494396</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06305790419986841</v>
+        <v>0.06695866521041062</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02070002026768671</v>
+        <v>0.02983028735106574</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06036862029799288</v>
+        <v>0.06775579217720122</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03381961992689851</v>
+        <v>0.07191665170035913</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06585276568499472</v>
+        <v>0.0667325403929722</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08280095781954333</v>
+        <v>0.1225075361070296</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06706370107536908</v>
+        <v>0.06654899248585047</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1292566357792808</v>
+        <v>0.02983028735106574</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06380859353558113</v>
+        <v>0.06775579217720122</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02184815712483326</v>
+        <v>0.02957802052339474</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06107883936032221</v>
+        <v>0.06855291914399182</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03390459637222838</v>
+        <v>0.07210207399174268</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06662750410481819</v>
+        <v>0.06751762910347776</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08355597391034855</v>
+        <v>0.1224066557263294</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06785268579390284</v>
+        <v>0.06733192180921341</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1290735676555846</v>
+        <v>0.02957802052339474</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06455928287129385</v>
+        <v>0.06855291914399182</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0199121094781959</v>
+        <v>0.02962771233517232</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06178905842265153</v>
+        <v>0.06935004611078242</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03378742731490064</v>
+        <v>0.07148650869492512</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06740224252464165</v>
+        <v>0.06830271781398332</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08360179871273352</v>
+        <v>0.121695946947444</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0686416705124366</v>
+        <v>0.06811485113257636</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1302832938937102</v>
+        <v>0.02962771233517232</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06530997220700656</v>
+        <v>0.06935004611078242</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0210126688883687</v>
+        <v>0.02917979135963976</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06249927748498087</v>
+        <v>0.07014717307757302</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0338680350097348</v>
+        <v>0.07047077244032326</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06817698094446512</v>
+        <v>0.06908780652448887</v>
       </c>
       <c r="L153" t="n">
-        <v>0.083537357958055</v>
+        <v>0.1215754216483569</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06943065523097035</v>
+        <v>0.06889778045593931</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1302853415263994</v>
+        <v>0.02917979135963976</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06606066154271929</v>
+        <v>0.07014717307757302</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02111443952007076</v>
+        <v>0.02913468617003842</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06320949654731019</v>
+        <v>0.07094430004436364</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0338463417115504</v>
+        <v>0.07055568185835395</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06895171936428859</v>
+        <v>0.06987289523499443</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08406157737767003</v>
+        <v>0.1207450917070515</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0702196399495041</v>
+        <v>0.06968070977930224</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1312792375863939</v>
+        <v>0.02913468617003842</v>
       </c>
       <c r="O154" t="n">
-        <v>0.066811350878432</v>
+        <v>0.07094430004436364</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02121707992684677</v>
+        <v>0.02919282533960964</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06391971560963952</v>
+        <v>0.07174142701115423</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03412226967516693</v>
+        <v>0.07034205357943407</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06972645778411206</v>
+        <v>0.07065798394549998</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08457338270293532</v>
+        <v>0.1209049690015113</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07100862466803784</v>
+        <v>0.0704636391026652</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1311645091064357</v>
+        <v>0.02919282533960964</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06756204021414472</v>
+        <v>0.07174142701115423</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02032024866224141</v>
+        <v>0.02895463744159472</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06462993467196884</v>
+        <v>0.07253855397794483</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03419574115540393</v>
+        <v>0.06963070423398038</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07050119620393551</v>
+        <v>0.07144307265600554</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08507169966520786</v>
+        <v>0.1209550654097198</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07179760938657159</v>
+        <v>0.07124656842602814</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1318406831192663</v>
+        <v>0.02895463744159472</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06831272954985745</v>
+        <v>0.07253855397794483</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02042360427979939</v>
+        <v>0.02892055104923505</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06534015373429818</v>
+        <v>0.07333568094473544</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0341666784070809</v>
+        <v>0.06962245045240983</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07127593462375899</v>
+        <v>0.0722281613665111</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08535545399584443</v>
+        <v>0.1202953928096605</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07258659410510535</v>
+        <v>0.07202949774939109</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1327072866576278</v>
+        <v>0.02892055104923505</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06906341888557016</v>
+        <v>0.07333568094473544</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02252680533306539</v>
+        <v>0.02859099473577188</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0660503727966275</v>
+        <v>0.07413280791152604</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03413500368501735</v>
+        <v>0.06851810886513926</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07205067304358245</v>
+        <v>0.07301325007701664</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08572357142620188</v>
+        <v>0.1196259630793168</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0733755788236391</v>
+        <v>0.07281242707275404</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1322638467542618</v>
+        <v>0.02859099473577188</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06981410822128288</v>
+        <v>0.07413280791152604</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02262951037558407</v>
+        <v>0.02856639707444662</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06676059185895683</v>
+        <v>0.07492993487831665</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03440063924403276</v>
+        <v>0.06871849610258543</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07282541146340592</v>
+        <v>0.07379833878752221</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08587497768763722</v>
+        <v>0.1199467880966723</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07416456354217286</v>
+        <v>0.07359535639611699</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1333098904419102</v>
+        <v>0.02856639707444662</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0705647975569956</v>
+        <v>0.07492993487831665</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02073137796090012</v>
+        <v>0.02824718663850057</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06747081092128615</v>
+        <v>0.07572706184510725</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03436350733894672</v>
+        <v>0.06762442879516528</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07360014988322938</v>
+        <v>0.07458342749802775</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08560859851150718</v>
+        <v>0.1190578797397105</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07495354826070662</v>
+        <v>0.07437828571947994</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1334449447533146</v>
+        <v>0.02824718663850057</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07131548689270832</v>
+        <v>0.07572706184510725</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02283206664255824</v>
+        <v>0.02843361246110263</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06818102998361548</v>
+        <v>0.07652418881189785</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03452353022457869</v>
+        <v>0.0680367235732956</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07437488830305286</v>
+        <v>0.07536851620853331</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08602335962916863</v>
+        <v>0.1181592498864146</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07574253297924037</v>
+        <v>0.07516121504284287</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1335685367212171</v>
+        <v>0.02843361246110263</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07206617622842104</v>
+        <v>0.07652418881189785</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02293123497410313</v>
+        <v>0.02802424865759981</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06889124904594482</v>
+        <v>0.07732131577868846</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0344806301557482</v>
+        <v>0.06755619706739333</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07514962672287633</v>
+        <v>0.07615360491903887</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08591818677197854</v>
+        <v>0.1185509104147683</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07653151769777412</v>
+        <v>0.07594414436620582</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1343801933783593</v>
+        <v>0.02802424865759981</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07281686556413376</v>
+        <v>0.07732131577868846</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02202854150907943</v>
+        <v>0.02801840096508233</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06960146810827414</v>
+        <v>0.07811844274547905</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03473472938727479</v>
+        <v>0.06667634698921873</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07592436514269979</v>
+        <v>0.07693869362954443</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08679200567129369</v>
+        <v>0.1175328732027551</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07732050241630788</v>
+        <v>0.07672707368956877</v>
       </c>
       <c r="N163" t="n">
-        <v>0.135179441757483</v>
+        <v>0.02801840096508233</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07356755489984648</v>
+        <v>0.07811844274547905</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02112364480103186</v>
+        <v>0.02811570351779848</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07031168717060347</v>
+        <v>0.07891556971226965</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03448575017397791</v>
+        <v>0.06668617988510162</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07669910356252325</v>
+        <v>0.07772378234004998</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08644374205847097</v>
+        <v>0.1176051501283585</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07810948713484163</v>
+        <v>0.07751000301293172</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1351658088913301</v>
+        <v>0.02811570351779848</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07431824423555919</v>
+        <v>0.07891556971226965</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02121620340350511</v>
+        <v>0.0280157904499964</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07102190623293281</v>
+        <v>0.07971269667906027</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03483361477067712</v>
+        <v>0.06618601342498548</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07747384198234673</v>
+        <v>0.07850887105055554</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08687232166486725</v>
+        <v>0.1169677530695618</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07889847185337538</v>
+        <v>0.07829293233629467</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1359388218126422</v>
+        <v>0.0280157904499964</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07506893357127192</v>
+        <v>0.07971269667906027</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02130587587004387</v>
+        <v>0.02771829589592435</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07173212529526213</v>
+        <v>0.08050982364585087</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03487824543219192</v>
+        <v>0.0655763105611557</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0782485804021702</v>
+        <v>0.07929395976106109</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08697667022183939</v>
+        <v>0.1171206939043486</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07968745657190913</v>
+        <v>0.0790758616596576</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1357980075541614</v>
+        <v>0.02771829589592435</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07581962290698463</v>
+        <v>0.08050982364585087</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02139232075419278</v>
+        <v>0.02762285398983055</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07244234435759145</v>
+        <v>0.08130695061264147</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03461956441334185</v>
+        <v>0.06555753424589764</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07902331882199365</v>
+        <v>0.08007904847156665</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0868557134607443</v>
+        <v>0.1167639845107024</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08047644129044289</v>
+        <v>0.07985879098302055</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1365428931486291</v>
+        <v>0.02762285398983055</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07657031224269735</v>
+        <v>0.08130695061264147</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02247519660949658</v>
+        <v>0.0277290988659632</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07315256341992078</v>
+        <v>0.08210407757943206</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03495749396894639</v>
+        <v>0.06503014743149649</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07979805724181713</v>
+        <v>0.08086413718207221</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08710837711293881</v>
+        <v>0.1157976367666066</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08126542600897664</v>
+        <v>0.0806417203063835</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1361730056287875</v>
+        <v>0.0277290988659632</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07732100157841008</v>
+        <v>0.08210407757943206</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0235541619894999</v>
+        <v>0.02763666465857054</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0738627824822501</v>
+        <v>0.08290120454622267</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03489195635382508</v>
+        <v>0.06479461307023776</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08057279566164059</v>
+        <v>0.08164922589257775</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0870335869097798</v>
+        <v>0.1153216625500448</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08205441072751041</v>
+        <v>0.08142464962974645</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1366878720273781</v>
+        <v>0.02763666465857054</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07807169091412279</v>
+        <v>0.08290120454622267</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0226288754477475</v>
+        <v>0.02724518550190076</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07457300154457944</v>
+        <v>0.08369833151301327</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03502287382279742</v>
+        <v>0.0638513941144066</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08134753408146406</v>
+        <v>0.08243431460308331</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0873263883671514</v>
+        <v>0.1143360737390004</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08284339544604416</v>
+        <v>0.0822075789531094</v>
       </c>
       <c r="N170" t="n">
-        <v>0.136587019377143</v>
+        <v>0.02724518550190076</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07882238024983551</v>
+        <v>0.08369833151301327</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.022698995537784</v>
+        <v>0.0271542955302021</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07528322060690877</v>
+        <v>0.08449545847980387</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03485016863068291</v>
+        <v>0.06330095351628851</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08212227250128752</v>
+        <v>0.08321940331358886</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08647183350819562</v>
+        <v>0.1142408822114568</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08363238016457791</v>
+        <v>0.08299050827647234</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1371699747108236</v>
+        <v>0.0271542955302021</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07957306958554823</v>
+        <v>0.08449545847980387</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02376418081315411</v>
+        <v>0.02726362887772278</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07599343966923809</v>
+        <v>0.08529258544659447</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03487376303230109</v>
+        <v>0.06344375422816859</v>
       </c>
       <c r="K172" t="n">
-        <v>0.082897010921111</v>
+        <v>0.08400449202409443</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0865703562405766</v>
+        <v>0.1143360998453976</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08442136488311167</v>
+        <v>0.08377343759983528</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1379362650611619</v>
+        <v>0.02726362887772278</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08032375892126095</v>
+        <v>0.08529258544659447</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02282408982740251</v>
+        <v>0.02727281967871101</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07670365873156743</v>
+        <v>0.08608971241338507</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03479357928247148</v>
+        <v>0.06278025920233238</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08367174934093446</v>
+        <v>0.08478958073459998</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08692401708068845</v>
+        <v>0.1130217385188062</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08521034960164542</v>
+        <v>0.08455636692319823</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1383854174608999</v>
+        <v>0.02727281967871101</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08107444825697367</v>
+        <v>0.08608971241338507</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02387838113407389</v>
+        <v>0.02698150206741501</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07741387779389675</v>
+        <v>0.08688683938017569</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03500953963601358</v>
+        <v>0.06221093139106509</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08444648776075793</v>
+        <v>0.08557466944510554</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08633487654492536</v>
+        <v>0.1121978101096662</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08599933432017917</v>
+        <v>0.08533929624656118</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1379169589427789</v>
+        <v>0.02698150206741501</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08182513759268639</v>
+        <v>0.08688683938017569</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02192671328671295</v>
+        <v>0.02688931017808302</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07812409685622608</v>
+        <v>0.08768396634696629</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03492156634774689</v>
+        <v>0.06173623374665207</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08522122618058141</v>
+        <v>0.08635975815561109</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08660499514968154</v>
+        <v>0.1116413282670528</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08678831903871292</v>
+        <v>0.08612222556992413</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1387304165395412</v>
+        <v>0.02688931017808302</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08257582692839911</v>
+        <v>0.08768396634696629</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02196874483886437</v>
+        <v>0.02699587814496322</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07883431591855541</v>
+        <v>0.08848109331375688</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03512958167249094</v>
+        <v>0.06135662922137866</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08599596460040487</v>
+        <v>0.08714484686611663</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08613643341135113</v>
+        <v>0.1115978498296332</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08757730375724668</v>
+        <v>0.08690515489328707</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1387253172839283</v>
+        <v>0.02699587814496322</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08332651626411182</v>
+        <v>0.08848109331375688</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02200413434407279</v>
+        <v>0.02680084010230385</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07954453498088473</v>
+        <v>0.08927822028054749</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03493350786506524</v>
+        <v>0.06067258076753013</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08677070302022834</v>
+        <v>0.08792993557662221</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08603125184632834</v>
+        <v>0.1096271173474231</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08836628847578043</v>
+        <v>0.08768808421665002</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1389011882086821</v>
+        <v>0.02680084010230385</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08407720559982455</v>
+        <v>0.08927822028054749</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02303254035588298</v>
+        <v>0.02660383018435312</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08025475404321405</v>
+        <v>0.09007534724733809</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03512930436249549</v>
+        <v>0.05988455133739187</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08754544144005179</v>
+        <v>0.08871502428712776</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08499151097100732</v>
+        <v>0.1088675203980126</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0891552731943142</v>
+        <v>0.08847101354001297</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1393575563465444</v>
+        <v>0.02660383018435312</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08482789493553726</v>
+        <v>0.09007534724733809</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02305362142783955</v>
+        <v>0.02670448252535929</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08096497310554339</v>
+        <v>0.0908724742141287</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03499855865087301</v>
+        <v>0.05949300388324918</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08832017985987527</v>
+        <v>0.08950011299763332</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08501927130178227</v>
+        <v>0.1072574485589912</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08994425791284795</v>
+        <v>0.08925394286337592</v>
       </c>
       <c r="N179" t="n">
-        <v>0.139093948730257</v>
+        <v>0.02670448252535929</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08557858427124998</v>
+        <v>0.0908724742141287</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02306703611348723</v>
+        <v>0.02660243125957053</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08167519216787271</v>
+        <v>0.0916696011809193</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03484054058900342</v>
+        <v>0.05879840135738737</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08909491827969873</v>
+        <v>0.09028520170813886</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0847165933550473</v>
+        <v>0.1048352914079488</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0907332426313817</v>
+        <v>0.09003687218673886</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1397098923925615</v>
+        <v>0.02660243125957053</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0863292736069627</v>
+        <v>0.0916696011809193</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02207244296637068</v>
+        <v>0.02629731052123506</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08238541123020204</v>
+        <v>0.0924667281477099</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03475710038182013</v>
+        <v>0.05840120671209176</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0898696566995222</v>
+        <v>0.09107029041864442</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08378553764719671</v>
+        <v>0.1026394385224751</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09152222734991544</v>
+        <v>0.0908198015101018</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1396049143662</v>
+        <v>0.02629731052123506</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08707996294267542</v>
+        <v>0.0924667281477099</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02206831295903171</v>
+        <v>0.02638875444460112</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08309563029253138</v>
+        <v>0.09326385511450051</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03465008823425658</v>
+        <v>0.05810188289964771</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09064439511934567</v>
+        <v>0.09185537912914998</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08322816469462455</v>
+        <v>0.10090827948016</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09231121206844919</v>
+        <v>0.09160273083346476</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1391785416839142</v>
+        <v>0.02638875444460112</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08783065227838814</v>
+        <v>0.09326385511450051</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02205264799347043</v>
+        <v>0.02597639716391693</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0838058493548607</v>
+        <v>0.0940609820812911</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03462135435124619</v>
+        <v>0.05750089287234053</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09141913353916914</v>
+        <v>0.09264046783965554</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08314653501372504</v>
+        <v>0.09788020385859336</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09310019678698295</v>
+        <v>0.0923856601568277</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1396303013784457</v>
+        <v>0.02597639716391693</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08858134161410086</v>
+        <v>0.0940609820812911</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02402582904949664</v>
+        <v>0.0258598728134307</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08451606841719003</v>
+        <v>0.0948581090480817</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03437274893772239</v>
+        <v>0.05759869958245553</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0921938719589926</v>
+        <v>0.09342555655016109</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08264270912089239</v>
+        <v>0.09599360123536466</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0938891815055167</v>
+        <v>0.09316858948019065</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1399597204825366</v>
+        <v>0.0258598728134307</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08933203094981358</v>
+        <v>0.0948581090480817</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02298827942657918</v>
+        <v>0.02583881552739065</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08522628747951937</v>
+        <v>0.09565523601487232</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03430612219861863</v>
+        <v>0.05699576598227807</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09296861037881607</v>
+        <v>0.09421064526066664</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08181874753252072</v>
+        <v>0.09338686118806383</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09467816622405045</v>
+        <v>0.0939515188035536</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1395619832447269</v>
+        <v>0.02583881552739065</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09008272028552629</v>
+        <v>0.09565523601487232</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02294042242418685</v>
+        <v>0.02581285944004498</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08593650654184869</v>
+        <v>0.09645236298166292</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0340233243388683</v>
+        <v>0.05609255502409338</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09374334879863955</v>
+        <v>0.0949957339711722</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08147671076500426</v>
+        <v>0.09069837329428077</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09546715094258422</v>
+        <v>0.09473444812691653</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1393131237964634</v>
+        <v>0.02581285944004498</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09083340962123902</v>
+        <v>0.09645236298166292</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0228826813417885</v>
+        <v>0.02558163868564194</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08664672560417802</v>
+        <v>0.09724948994845352</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03402620556340487</v>
+        <v>0.05558952966018688</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09451808721846301</v>
+        <v>0.09578082268167776</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08141865933473713</v>
+        <v>0.0882665271316051</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09625613566111797</v>
+        <v>0.09551737745027949</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1391678205065265</v>
+        <v>0.02558163868564194</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09158409895695174</v>
+        <v>0.09724948994845352</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02281547947885297</v>
+        <v>0.02534478739842976</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08735694466650734</v>
+        <v>0.09804661691524412</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03361661607716175</v>
+        <v>0.05548715284284389</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09529282563828646</v>
+        <v>0.09656591139218332</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08014665375811356</v>
+        <v>0.0872297122776266</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09704512037965173</v>
+        <v>0.09630030677364243</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1389413735681774</v>
+        <v>0.02534478739842976</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09233478829266445</v>
+        <v>0.09804661691524412</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02273924013484906</v>
+        <v>0.0254019397126566</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08806716372883666</v>
+        <v>0.09884374388203472</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03339640608507237</v>
+        <v>0.05508420904766537</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09606756405810994</v>
+        <v>0.09735100010268886</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08016275455152769</v>
+        <v>0.0842263183099351</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09783410509818548</v>
+        <v>0.09708323609700538</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1381490831746767</v>
+        <v>0.0254019397126566</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09308547762837718</v>
+        <v>0.09884374388203472</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02365438660924561</v>
+        <v>0.02515272976257071</v>
       </c>
       <c r="G190" t="n">
-        <v>0.088777382791166</v>
+        <v>0.09964087084882534</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03316742579207015</v>
+        <v>0.05387218864219684</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09684230247793341</v>
+        <v>0.09813608881319442</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07956902223137371</v>
+        <v>0.08199473480612046</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09862308981671923</v>
+        <v>0.09786616542036833</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1365062495192857</v>
+        <v>0.02515272976257071</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09383616696408989</v>
+        <v>0.09964087084882534</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02156134220151143</v>
+        <v>0.02499679168242033</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08948760185349532</v>
+        <v>0.1004379978156159</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03283152540308854</v>
+        <v>0.05335040549944267</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09761704089775687</v>
+        <v>0.09892117752369997</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07886751731404579</v>
+        <v>0.08147335134377232</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09941207453525298</v>
+        <v>0.09864909474373128</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1357281727952653</v>
+        <v>0.02499679168242033</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09458685629980261</v>
+        <v>0.1004379978156159</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02246053021111537</v>
+        <v>0.02473348136421596</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09019782091582465</v>
+        <v>0.1012351247824065</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03279055512306092</v>
+        <v>0.05311953274268044</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09839177931758034</v>
+        <v>0.09970626623420553</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07776030031593811</v>
+        <v>0.07960055750048062</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1002010592537867</v>
+        <v>0.09943202406709423</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1353301531958765</v>
+        <v>0.02473348136421596</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09533754563551533</v>
+        <v>0.1012351247824065</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02235237393752623</v>
+        <v>0.02454470124159139</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09090803997815398</v>
+        <v>0.1020322517491971</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03254636515692079</v>
+        <v>0.05298024349518771</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09916651773740381</v>
+        <v>0.1004913549447111</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07784943175344483</v>
+        <v>0.07791474285383487</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1009900439723205</v>
+        <v>0.1002149533904572</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1342274909143802</v>
+        <v>0.02454470124159139</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09608823497122805</v>
+        <v>0.1020322517491971</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02123729668021286</v>
+        <v>0.02432193352659623</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0916182590404833</v>
+        <v>0.1028293787159877</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03220080570960152</v>
+        <v>0.05193321088024197</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09994125615722728</v>
+        <v>0.1012764436552166</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07713697214296017</v>
+        <v>0.07782997777724115</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1017790286908542</v>
+        <v>0.1009978827138201</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1328354861440375</v>
+        <v>0.02432193352659623</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09683892430694077</v>
+        <v>0.1028293787159877</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0231157217386441</v>
+        <v>0.02406823053864608</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09232847810281264</v>
+        <v>0.1036265056827783</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03205572698603658</v>
+        <v>0.05167910802112075</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1007159945770507</v>
+        <v>0.1020615323657222</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07642498200087824</v>
+        <v>0.07664107479376303</v>
       </c>
       <c r="M195" t="n">
-        <v>0.102568013409388</v>
+        <v>0.1017808120371831</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1304694390781092</v>
+        <v>0.02406823053864608</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09758961364265349</v>
+        <v>0.1036265056827783</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02298807241228872</v>
+        <v>0.02408664459715655</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09303869716514197</v>
+        <v>0.1044236326495689</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03181297919115936</v>
+        <v>0.05071860804110173</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1014907329968742</v>
+        <v>0.1028466210762277</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07601552184359331</v>
+        <v>0.07639133292916517</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1033569981279218</v>
+        <v>0.102563741360546</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1297446499098564</v>
+        <v>0.02408664459715655</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09834030297836621</v>
+        <v>0.1044236326495689</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02185477200061559</v>
+        <v>0.02378022802154328</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09374891622747129</v>
+        <v>0.1052207596163595</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03167441252990333</v>
+        <v>0.05065238406346226</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1022654714166977</v>
+        <v>0.1036317097867333</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07501065218749944</v>
+        <v>0.07477867135362615</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1041459828464555</v>
+        <v>0.103346670683909</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1281764188325401</v>
+        <v>0.02378022802154328</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09909099231407892</v>
+        <v>0.1052207596163595</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02171624380309352</v>
+        <v>0.02345203313122186</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09445913528980063</v>
+        <v>0.1060178865831501</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0314418772072019</v>
+        <v>0.04998110921148</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1030402098365212</v>
+        <v>0.1044167984972389</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07461243354899091</v>
+        <v>0.07450100923732461</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1049349675649893</v>
+        <v>0.1041296000072719</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1265800460394212</v>
+        <v>0.02345203313122186</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09984168164979165</v>
+        <v>0.1060178865831501</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02157291111919135</v>
+        <v>0.02290511224560793</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09516935435212995</v>
+        <v>0.1068150135499407</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03121722342798848</v>
+        <v>0.04920545660843245</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1038149482563446</v>
+        <v>0.1052018872077444</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07412292644446183</v>
+        <v>0.07365626575043932</v>
       </c>
       <c r="M199" t="n">
-        <v>0.105723952283523</v>
+        <v>0.1049125293306348</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1252708317237607</v>
+        <v>0.02290511224560793</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1005923709855044</v>
+        <v>0.1068150135499407</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02042519724837789</v>
+        <v>0.02244251768411709</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09587957341445927</v>
+        <v>0.1076121405167313</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0308023013971965</v>
+        <v>0.04842609937759718</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1045896866761681</v>
+        <v>0.10598697591825</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0731441913903064</v>
+        <v>0.07294236006314847</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1065129370020568</v>
+        <v>0.1056954586539978</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1241640760788197</v>
+        <v>0.02244251768411709</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1013430603212171</v>
+        <v>0.1076121405167313</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02027352549012199</v>
+        <v>0.02226730176616494</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0965897924767886</v>
+        <v>0.1084092674835219</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03059896131975944</v>
+        <v>0.04824371064225169</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1053644250959916</v>
+        <v>0.1067720646287555</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07297828890291883</v>
+        <v>0.07315721134563097</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1073019217205905</v>
+        <v>0.1064783879773607</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1224750792978591</v>
+        <v>0.02226730176616494</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1020937496569298</v>
+        <v>0.1084092674835219</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02111831914389245</v>
+        <v>0.02198251681116711</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09730001153911794</v>
+        <v>0.1092063944503126</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03060905340061068</v>
+        <v>0.04775896352567358</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106139163515815</v>
+        <v>0.1075571533392611</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07242727949869318</v>
+        <v>0.07249873876806534</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1080909064391243</v>
+        <v>0.1072613173007237</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1205191415741397</v>
+        <v>0.02198251681116711</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1028444389926425</v>
+        <v>0.1092063944503126</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02096000150915811</v>
+        <v>0.02129121513853924</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09801023060144726</v>
+        <v>0.1100035214171032</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03033442784468365</v>
+        <v>0.04677253115114036</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1069139019356385</v>
+        <v>0.1083422420497667</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07119322369402376</v>
+        <v>0.07166486150063012</v>
       </c>
       <c r="M203" t="n">
-        <v>0.108879891157658</v>
+        <v>0.1080442466240866</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1196115631009227</v>
+        <v>0.02129121513853924</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1035951283283552</v>
+        <v>0.1100035214171032</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0217989958853878</v>
+        <v>0.02109644906769689</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09872044966377659</v>
+        <v>0.1108006483838938</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03007693485691181</v>
+        <v>0.04598508664192952</v>
       </c>
       <c r="K204" t="n">
-        <v>0.107688640355462</v>
+        <v>0.1091273307602722</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07107818200530466</v>
+        <v>0.07035349871350405</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1096688758761918</v>
+        <v>0.1088271759474496</v>
       </c>
       <c r="N204" t="n">
-        <v>0.117467644071469</v>
+        <v>0.02109644906769689</v>
       </c>
       <c r="O204" t="n">
-        <v>0.104345817664068</v>
+        <v>0.1108006483838938</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01963572557205033</v>
+        <v>0.02070127091805575</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09943066872610591</v>
+        <v>0.1115977753506844</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02993842464222855</v>
+        <v>0.04579730312131872</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1084633787752854</v>
+        <v>0.1099124194707777</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07018421494893012</v>
+        <v>0.07086256957686554</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1104578605947255</v>
+        <v>0.1096101052708125</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1165026846790397</v>
+        <v>0.02070127091805575</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1050965069997807</v>
+        <v>0.1115977753506844</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02047061386861455</v>
+        <v>0.02030873300903137</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1001408877884352</v>
+        <v>0.112394902317475</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02972074740556734</v>
+        <v>0.04540985371258541</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1092381171951089</v>
+        <v>0.1106975081812833</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07020900158951013</v>
+        <v>0.07058999326089327</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1112468453132593</v>
+        <v>0.1103930345941755</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1154319851168956</v>
+        <v>0.02030873300903137</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1058471963354934</v>
+        <v>0.112394902317475</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02030408407454926</v>
+        <v>0.0199218876600394</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1008511068507646</v>
+        <v>0.1131920292842656</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02992575335186157</v>
+        <v>0.0445234115390071</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1100128556149323</v>
+        <v>0.1114825968917889</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06973526739755151</v>
+        <v>0.06973368893576581</v>
       </c>
       <c r="M207" t="n">
-        <v>0.112035830031793</v>
+        <v>0.1111759639175384</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1139708455782977</v>
+        <v>0.0199218876600394</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1065978856712061</v>
+        <v>0.1131920292842656</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0201365594893233</v>
+        <v>0.01964378719049541</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1015613259130939</v>
+        <v>0.1139891562510562</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02975529268604468</v>
+        <v>0.04353864972386146</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1107875940347558</v>
+        <v>0.1122676856022944</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06956100502726112</v>
+        <v>0.06889157577166188</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1128248147503268</v>
+        <v>0.1119588932409014</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1129345662565071</v>
+        <v>0.01964378719049541</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1073485750069189</v>
+        <v>0.1139891562510562</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01996846341240551</v>
+        <v>0.01917748391981507</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1022715449754232</v>
+        <v>0.1147862832178468</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02971121561305012</v>
+        <v>0.04325624139042591</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1115623324545793</v>
+        <v>0.1130527743128</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06888621103941747</v>
+        <v>0.06916157293876002</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1136137994688605</v>
+        <v>0.1127418225642643</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1125384473447847</v>
+        <v>0.01917748391981507</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1080992643426315</v>
+        <v>0.1147862832178468</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02080021914326469</v>
+        <v>0.01872603016741398</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1029817640377526</v>
+        <v>0.1155834101846374</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02949537233781131</v>
+        <v>0.04317685966197807</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1123370708744028</v>
+        <v>0.1138378630233055</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06821088199479916</v>
+        <v>0.0682415996072388</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1144027841873943</v>
+        <v>0.1135247518876273</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1115977890363914</v>
+        <v>0.01872603016741398</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1088499536783443</v>
+        <v>0.1155834101846374</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02063224998136969</v>
+        <v>0.01829247825270773</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1036919831000819</v>
+        <v>0.116380537151428</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02969536500616592</v>
+        <v>0.04260117766179544</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1131118092942262</v>
+        <v>0.1146229517338111</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06733501445418474</v>
+        <v>0.06802957494727674</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1151917689059281</v>
+        <v>0.1143076812109902</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1112278915245884</v>
+        <v>0.01829247825270773</v>
       </c>
       <c r="O211" t="n">
-        <v>0.109600643014057</v>
+        <v>0.116380537151428</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01846497922618931</v>
+        <v>0.01807988049511197</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1044022021624112</v>
+        <v>0.1171776641182186</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02979546296465607</v>
+        <v>0.04202986851315557</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1138865477140497</v>
+        <v>0.1154080404443166</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06765860497835274</v>
+        <v>0.06782341812905257</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1159807536244618</v>
+        <v>0.1150906105343532</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1116440550026365</v>
+        <v>0.01807988049511197</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1103513323497697</v>
+        <v>0.1171776641182186</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0202988301771924</v>
+        <v>0.0178912892140423</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1051124212247405</v>
+        <v>0.1179747910850092</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02969573384932868</v>
+        <v>0.04136360533933606</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1146612861338731</v>
+        <v>0.1161931291548222</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06678165012808171</v>
+        <v>0.0665210483227448</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1167697383429956</v>
+        <v>0.1158735398577161</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1116263060497698</v>
+        <v>0.0178912892140423</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1111020216854824</v>
+        <v>0.1179747910850092</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02013422613384779</v>
+        <v>0.01762975672891434</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1058226402870699</v>
+        <v>0.1187719180517998</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02959626574594793</v>
+        <v>0.04080306126361433</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1154360245536966</v>
+        <v>0.1169782178653277</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06600414646415023</v>
+        <v>0.06702038469853205</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1175587230615293</v>
+        <v>0.1166564691810791</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1104285767934538</v>
+        <v>0.01762975672891434</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1118527110211952</v>
+        <v>0.1187719180517998</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01897159039562427</v>
+        <v>0.01739833535914369</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1065328593493992</v>
+        <v>0.1195690450185904</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02949714674027804</v>
+        <v>0.040348909409268</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1162107629735201</v>
+        <v>0.1177633065758333</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06592609054733684</v>
+        <v>0.06561934642659289</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1183477077800631</v>
+        <v>0.117439398504442</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1111330600152762</v>
+        <v>0.01739833535914369</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1126034003569079</v>
+        <v>0.1195690450185904</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0198113462619907</v>
+        <v>0.01700007742414598</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1072430784117285</v>
+        <v>0.120366171985381</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02979846491808319</v>
+        <v>0.0393018228995746</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1169855013933435</v>
+        <v>0.1185483952863389</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06524747893842009</v>
+        <v>0.06641585267710598</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1191366924985968</v>
+        <v>0.1182223278278049</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1104397445130316</v>
+        <v>0.01700007742414598</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1133540896926206</v>
+        <v>0.120366171985381</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01765391703241591</v>
+        <v>0.0168371804046082</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1079532974740579</v>
+        <v>0.1211632989521716</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02970030836512758</v>
+        <v>0.0392624748578117</v>
       </c>
       <c r="K217" t="n">
-        <v>0.117760239813167</v>
+        <v>0.1193334839968444</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0652683081981785</v>
+        <v>0.06570782262024993</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1199256772171306</v>
+        <v>0.1190052571511679</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1103486190845147</v>
+        <v>0.0168371804046082</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1141047790283333</v>
+        <v>0.1211632989521716</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0184997260063687</v>
+        <v>0.01668678913467499</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1086635165363872</v>
+        <v>0.1219604259189622</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02960276516717542</v>
+        <v>0.03823153840725679</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1185349782329905</v>
+        <v>0.12011857270735</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06408857488739067</v>
+        <v>0.06439317542620332</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1207146619356644</v>
+        <v>0.1197881864745308</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1100596725275201</v>
+        <v>0.01668678913467499</v>
       </c>
       <c r="O218" t="n">
-        <v>0.114855468364046</v>
+        <v>0.1219604259189622</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0183491964833179</v>
+        <v>0.01683761398842964</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1093737355987165</v>
+        <v>0.1227575528857528</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02960592340999091</v>
+        <v>0.03760968667118744</v>
       </c>
       <c r="K219" t="n">
-        <v>0.119309716652814</v>
+        <v>0.1209036614178555</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06430827556683513</v>
+        <v>0.0642698302651446</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1215036466541981</v>
+        <v>0.1205711157978938</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1101728936398425</v>
+        <v>0.01683761398842964</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1156061576997588</v>
+        <v>0.1227575528857528</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01920258229588703</v>
+        <v>0.01668974367693424</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1100839546610458</v>
+        <v>0.1235546798525434</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02960987117933825</v>
+        <v>0.03719759277288115</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1200844550726374</v>
+        <v>0.1216887501283611</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06362740679729051</v>
+        <v>0.06403570630725264</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1222926313727318</v>
+        <v>0.1213540451212567</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1110882712192764</v>
+        <v>0.01668974367693424</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1163568470354715</v>
+        <v>0.1235546798525434</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01905617699508112</v>
+        <v>0.01644326691125078</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1107941737233752</v>
+        <v>0.124351806819334</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02971469656098162</v>
+        <v>0.03649592983561556</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1208591934924609</v>
+        <v>0.1224738388388666</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06314596513953527</v>
+        <v>0.06379406895874268</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1230816160912656</v>
+        <v>0.1221369744446197</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1104057940636164</v>
+        <v>0.01644326691125078</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1171075363711842</v>
+        <v>0.124351806819334</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01790832508095914</v>
+        <v>0.01609827240244131</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1115043927857045</v>
+        <v>0.1251489337861246</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02972048764068524</v>
+        <v>0.03640537098266813</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1216339319122844</v>
+        <v>0.1232589275493722</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06256394715434796</v>
+        <v>0.06385411315534395</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1238706008097993</v>
+        <v>0.1229199037679826</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1108254509706574</v>
+        <v>0.01609827240244131</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1178582257068969</v>
+        <v>0.1251489337861246</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01875903554292092</v>
+        <v>0.01595484886156785</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1122146118480338</v>
+        <v>0.1259460607529152</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02982733250421331</v>
+        <v>0.0357265893373164</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1224086703321078</v>
+        <v>0.1240440162598778</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06188134940250717</v>
+        <v>0.06291612781474692</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1246595855283331</v>
+        <v>0.1237028330913456</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1105472307381938</v>
+        <v>0.01595484886156785</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1186089150426096</v>
+        <v>0.1259460607529152</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01760831737036627</v>
+        <v>0.01601308499969238</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1129248309103632</v>
+        <v>0.1267431877197058</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02973531923733001</v>
+        <v>0.03516025802283798</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1231834087519313</v>
+        <v>0.1248291049703833</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06109816844479146</v>
+        <v>0.06268017579468571</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1254485702468668</v>
+        <v>0.1244857624147085</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1103711221640203</v>
+        <v>0.01601308499969238</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1193596043783223</v>
+        <v>0.1267431877197058</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01845617955269499</v>
+        <v>0.015973069527877</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1136350499726925</v>
+        <v>0.1275403146864964</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02954453592579956</v>
+        <v>0.03530705016251032</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1239581471717548</v>
+        <v>0.1256141936808889</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06101440084197934</v>
+        <v>0.06214631995289449</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1262375549654006</v>
+        <v>0.1252686917380715</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1099971140459317</v>
+        <v>0.015973069527877</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1201102937140351</v>
+        <v>0.1275403146864964</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01730263107930688</v>
+        <v>0.01583489115718367</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1143452690350218</v>
+        <v>0.128337441653287</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02985507065538613</v>
+        <v>0.03466214954536118</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1247328855915782</v>
+        <v>0.1263992823913944</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06063004315484943</v>
+        <v>0.06211462314710736</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1270265396839344</v>
+        <v>0.1260516210614344</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1100251951817222</v>
+        <v>0.01583489115718367</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1208609830497478</v>
+        <v>0.128337441653287</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01714768093960175</v>
+        <v>0.01569863859867444</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1150554880973511</v>
+        <v>0.1291345686200776</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02976701151185394</v>
+        <v>0.03372005038842543</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1255076240114017</v>
+        <v>0.1271843711019</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06034509194418022</v>
+        <v>0.0614851482350583</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1278155244024681</v>
+        <v>0.1268345503847974</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1097553543691868</v>
+        <v>0.01569863859867444</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1216116723854605</v>
+        <v>0.1291345686200776</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01599133812297941</v>
+        <v>0.01556440056341137</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1157657071596804</v>
+        <v>0.1299316955868682</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02988044658096721</v>
+        <v>0.03318082392569616</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1262823624312252</v>
+        <v>0.1279694598124055</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05915954377075033</v>
+        <v>0.06015795807448149</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1286045091210019</v>
+        <v>0.1276174797081603</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1103875804061201</v>
+        <v>0.01556440056341137</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1223623617211732</v>
+        <v>0.1299316955868682</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01783361161883965</v>
+        <v>0.01543226576245642</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1164759262220098</v>
+        <v>0.1307288225536588</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0297954639484901</v>
+        <v>0.03314454235280423</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1270571008510486</v>
+        <v>0.1287545485229111</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05867339519533823</v>
+        <v>0.06043311552311081</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1293934938395356</v>
+        <v>0.1284004090315232</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1093218620903166</v>
+        <v>0.01543226576245642</v>
       </c>
       <c r="O229" t="n">
-        <v>0.123113051056886</v>
+        <v>0.1307288225536588</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01567451041658229</v>
+        <v>0.01510232290687166</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1171861452843391</v>
+        <v>0.1315259495204494</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02981215170018683</v>
+        <v>0.03261127786538076</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1278318392708721</v>
+        <v>0.1295396372334166</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05878664277872253</v>
+        <v>0.06041068343868067</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1301824785580694</v>
+        <v>0.1291833383548862</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1102581882195711</v>
+        <v>0.01510232290687166</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1238637403925987</v>
+        <v>0.1315259495204494</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01751404350560714</v>
+        <v>0.01497466070771911</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1178963643466684</v>
+        <v>0.13232307648724</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02973059792182159</v>
+        <v>0.03198110265905663</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1286065776906956</v>
+        <v>0.1303247259439222</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05819928308168176</v>
+        <v>0.05979072467892504</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1309714632766031</v>
+        <v>0.1299662676782491</v>
       </c>
       <c r="N231" t="n">
-        <v>0.110296547591678</v>
+        <v>0.01497466070771911</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1246144297283114</v>
+        <v>0.13232307648724</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.016352219875314</v>
+        <v>0.01504936787606079</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1186065834089978</v>
+        <v>0.1331202034540306</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0298508906991586</v>
+        <v>0.03215408892946295</v>
       </c>
       <c r="K232" t="n">
-        <v>0.129381316110519</v>
+        <v>0.1311098146544278</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05761131266499445</v>
+        <v>0.05897330210157792</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1317604479951369</v>
+        <v>0.1307491970016121</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1099369290044321</v>
+        <v>0.01504936787606079</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1253651190640241</v>
+        <v>0.1331202034540306</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01518904851510267</v>
+        <v>0.01472653312295873</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1193168024713271</v>
+        <v>0.1339173304208212</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02967311811796203</v>
+        <v>0.03113030887223059</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1301560545303425</v>
+        <v>0.1318949033649333</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05692272808943927</v>
+        <v>0.05805847856437352</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1325494327136706</v>
+        <v>0.131532126324975</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1089793212556281</v>
+        <v>0.01472653312295873</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1261158083997368</v>
+        <v>0.1339173304208212</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01702453841437295</v>
+        <v>0.01460624515947494</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1200270215336564</v>
+        <v>0.1347144573876118</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02979736826399609</v>
+        <v>0.03140983468299058</v>
       </c>
       <c r="K234" t="n">
-        <v>0.130930792950166</v>
+        <v>0.1326799920754389</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05693352591579465</v>
+        <v>0.05784631692504583</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1333384174322044</v>
+        <v>0.132315055648338</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1089237131430605</v>
+        <v>0.01460624515947494</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1268664977354495</v>
+        <v>0.1347144573876118</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01685869856252467</v>
+        <v>0.01458859269667147</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1207372405959858</v>
+        <v>0.1355115843544024</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02972372922302499</v>
+        <v>0.03099273855737394</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1317055313699894</v>
+        <v>0.1334650807859444</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05604370270483913</v>
+        <v>0.05773688004132899</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1341274021507382</v>
+        <v>0.1330979849717009</v>
       </c>
       <c r="N235" t="n">
-        <v>0.109070093464524</v>
+        <v>0.01458859269667147</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1276171870711623</v>
+        <v>0.1355115843544024</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01569153794895761</v>
+        <v>0.01427366444561032</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1214474596583151</v>
+        <v>0.136308711321193</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02985228908081292</v>
+        <v>0.02977909269101164</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1324802697898129</v>
+        <v>0.13425016949645</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05585325501735139</v>
+        <v>0.0574302307709571</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1349163868692719</v>
+        <v>0.1338809142950639</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1096184510178132</v>
+        <v>0.01427366444561032</v>
       </c>
       <c r="O236" t="n">
-        <v>0.128367876406875</v>
+        <v>0.136308711321193</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0145230655630716</v>
+        <v>0.01416154911735354</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1221576787206444</v>
+        <v>0.1371058382879836</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02998313592312407</v>
+        <v>0.0293689692795347</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1332550082096364</v>
+        <v>0.1350352582069555</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05536217941410987</v>
+        <v>0.05652643197166424</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1357053715878057</v>
+        <v>0.1346638436184268</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1094687746007228</v>
+        <v>0.01416154911735354</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1291185657425877</v>
+        <v>0.1371058382879836</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01435329039426643</v>
+        <v>0.01405233542296312</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1228678977829737</v>
+        <v>0.1379029652547742</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03011635783572267</v>
+        <v>0.02906244051857404</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1340297466294598</v>
+        <v>0.1358203469174611</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05457047245589317</v>
+        <v>0.05692554650118453</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1364943563063394</v>
+        <v>0.1354467729417898</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1099210530110473</v>
+        <v>0.01405233542296312</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1298692550783004</v>
+        <v>0.1379029652547742</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01518222143194192</v>
+        <v>0.01404611207350111</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1235781168453031</v>
+        <v>0.1387000922215648</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03005204290437287</v>
+        <v>0.02865957860376067</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1348044850492833</v>
+        <v>0.1366054356279666</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05417813070347982</v>
+        <v>0.05642763721725202</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1372833410248732</v>
+        <v>0.1362297022651527</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1098752750465814</v>
+        <v>0.01404611207350111</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1306199444140131</v>
+        <v>0.1387000922215648</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01600986766549784</v>
+        <v>0.01384296778002955</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1242883359076324</v>
+        <v>0.1394972191883554</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02999027921483892</v>
+        <v>0.02856045573072566</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1355792234691068</v>
+        <v>0.1373905243384722</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05378515071764842</v>
+        <v>0.05553276697760084</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1380723257434069</v>
+        <v>0.1370126315885157</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1095314295051198</v>
+        <v>0.01384296778002955</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1313706337497259</v>
+        <v>0.1394972191883554</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01383623808433404</v>
+        <v>0.01404299125361044</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1249985549699617</v>
+        <v>0.140294346155146</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03003115485288499</v>
+        <v>0.02856514409509997</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1363539618889302</v>
+        <v>0.1381756130489777</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05289152905917746</v>
+        <v>0.05504099863996503</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1388613104619407</v>
+        <v>0.1377955609118786</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1097895051844571</v>
+        <v>0.01404299125361044</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1321213230854386</v>
+        <v>0.140294346155146</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0156613416778503</v>
+        <v>0.01394627120530582</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1257087740322911</v>
+        <v>0.1410914731219367</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03027475790427529</v>
+        <v>0.02807371589251451</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1371287003087537</v>
+        <v>0.1389607017594833</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05279726228884557</v>
+        <v>0.05475239506207868</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1396502951804744</v>
+        <v>0.1385784902352415</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1096494908823879</v>
+        <v>0.01394627120530582</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1328720124211513</v>
+        <v>0.1410914731219367</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01348518743544643</v>
+        <v>0.01365289634617771</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1264189930946204</v>
+        <v>0.1418886000887273</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03002117645477401</v>
+        <v>0.02698624331860033</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1379034387285772</v>
+        <v>0.1397457904699889</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05230234696743119</v>
+        <v>0.05446701910167606</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1404392798990082</v>
+        <v>0.1393614195586045</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1095113753967069</v>
+        <v>0.01365289634617771</v>
       </c>
       <c r="O243" t="n">
-        <v>0.133622701756864</v>
+        <v>0.1418886000887273</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01530778434652225</v>
+        <v>0.01366295538728812</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1271292121569497</v>
+        <v>0.1426857270555179</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03027049859014536</v>
+        <v>0.02700279856898838</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1386781771484006</v>
+        <v>0.1405308791804944</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05130677965571298</v>
+        <v>0.05398493361649093</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1412282646175419</v>
+        <v>0.1401443488819674</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1089751475252086</v>
+        <v>0.01366295538728812</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1343733910925767</v>
+        <v>0.1426857270555179</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01312914140047754</v>
+        <v>0.01337653703969911</v>
       </c>
       <c r="G245" t="n">
-        <v>0.127839431219279</v>
+        <v>0.1434828540223085</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03032281239615352</v>
+        <v>0.02692345383930975</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1394529155682241</v>
+        <v>0.141315967891</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05131055691446945</v>
+        <v>0.0532062014642577</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1420172493360757</v>
+        <v>0.1409272782053304</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1092407960656878</v>
+        <v>0.01337653703969911</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1351240804282894</v>
+        <v>0.1434828540223085</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01394926758671212</v>
+        <v>0.01329373001447269</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1285496502816084</v>
+        <v>0.1442799809890991</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03037820595856271</v>
+        <v>0.02604828132519532</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1402276539880476</v>
+        <v>0.1421010566015055</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05041367530447913</v>
+        <v>0.05373088550271021</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1428062340546095</v>
+        <v>0.1417102075286933</v>
       </c>
       <c r="N246" t="n">
-        <v>0.108808309815939</v>
+        <v>0.01329373001447269</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1358747697640022</v>
+        <v>0.1442799809890991</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01276817189462581</v>
+        <v>0.01321462302267087</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1292598693439377</v>
+        <v>0.1450771079558897</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03023676736313713</v>
+        <v>0.02567735322227616</v>
       </c>
       <c r="K247" t="n">
-        <v>0.141002392407871</v>
+        <v>0.1428861453120111</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05001613138652067</v>
+        <v>0.05285904858958268</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1435952187731432</v>
+        <v>0.1424931368520563</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1090776775737569</v>
+        <v>0.01321462302267087</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1366254590997149</v>
+        <v>0.1450771079558897</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0145858633136184</v>
+        <v>0.01323930477535568</v>
       </c>
       <c r="G248" t="n">
-        <v>0.129970088406267</v>
+        <v>0.1458742349226803</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03039858469564095</v>
+        <v>0.02511074172618316</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1417771308276945</v>
+        <v>0.1436712340225166</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04941792172137247</v>
+        <v>0.05329075358260926</v>
       </c>
       <c r="M248" t="n">
-        <v>0.144384203491677</v>
+        <v>0.1432760661754192</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1085488881369362</v>
+        <v>0.01323930477535568</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1373761484354276</v>
+        <v>0.1458742349226803</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01240235083308968</v>
+        <v>0.01336786398358916</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1306803074685964</v>
+        <v>0.1466713618894709</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03066374604183841</v>
+        <v>0.02514851903254745</v>
       </c>
       <c r="K249" t="n">
-        <v>0.142551869247518</v>
+        <v>0.1444563227330222</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04911904286981322</v>
+        <v>0.05202606333952392</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1451731882102107</v>
+        <v>0.1440589954987822</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1086219303032714</v>
+        <v>0.01336786398358916</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1381268377711403</v>
+        <v>0.1466713618894709</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0122176434424395</v>
+        <v>0.01320038935843333</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1313905265309257</v>
+        <v>0.1474684888562615</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03043233948749369</v>
+        <v>0.02509075733699989</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1433266076673415</v>
+        <v>0.1452414114435277</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04851949139262138</v>
+        <v>0.05176504071806082</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1459621729287445</v>
+        <v>0.1448419248221451</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1091967928705572</v>
+        <v>0.01320038935843333</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1388775271068531</v>
+        <v>0.1474684888562615</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01403175013106761</v>
+        <v>0.0130369696109502</v>
       </c>
       <c r="G251" t="n">
-        <v>0.132100745593255</v>
+        <v>0.1482656158230521</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03070445311837097</v>
+        <v>0.02473752883517158</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1441013460871649</v>
+        <v>0.1460265001540333</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04851926385057559</v>
+        <v>0.05140774857595398</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1467511576472782</v>
+        <v>0.1456248541455081</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1091734646365882</v>
+        <v>0.0130369696109502</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1396282164425658</v>
+        <v>0.1482656158230521</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01384467988837386</v>
+        <v>0.01317769345220184</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1328109646555843</v>
+        <v>0.1490627427898427</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03068017502023448</v>
+        <v>0.02398890572269338</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1448760845069884</v>
+        <v>0.1468115888645389</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0479183568044543</v>
+        <v>0.0514542497709376</v>
       </c>
       <c r="M252" t="n">
-        <v>0.147540142365812</v>
+        <v>0.146407783468871</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1085519343991591</v>
+        <v>0.01317769345220184</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1403789057782785</v>
+        <v>0.1490627427898427</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01165644170375804</v>
+        <v>0.01312264959325023</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1335211837179137</v>
+        <v>0.1498598697566333</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03095959327884841</v>
+        <v>0.02414496019519638</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1456508229268118</v>
+        <v>0.1475966775750444</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04711676681503615</v>
+        <v>0.05120460716074571</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1483291270843457</v>
+        <v>0.147190712792234</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1090321909560645</v>
+        <v>0.01312264959325023</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1411295951139912</v>
+        <v>0.1498598697566333</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01146704456661995</v>
+        <v>0.01297192674515739</v>
       </c>
       <c r="G254" t="n">
-        <v>0.134231402780243</v>
+        <v>0.1506569967234239</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03094279597997696</v>
+        <v>0.02360576444831156</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1464255613466353</v>
+        <v>0.14838176628555</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04681449044309968</v>
+        <v>0.05055888360311239</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1491181118028795</v>
+        <v>0.1479736421155969</v>
       </c>
       <c r="N254" t="n">
-        <v>0.108514223105099</v>
+        <v>0.01297192674515739</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1418802844497039</v>
+        <v>0.1506569967234239</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01227649746635941</v>
+        <v>0.01272561361898539</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1349416218425723</v>
+        <v>0.1514541236902145</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03092987120938431</v>
+        <v>0.02277139067766992</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1472002997664588</v>
+        <v>0.1491668549960555</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04661152424942339</v>
+        <v>0.04961714195577172</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1499070965214132</v>
+        <v>0.1487565714389599</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1092980196440573</v>
+        <v>0.01272561361898539</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1426309737854166</v>
+        <v>0.1514541236902145</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01208480939237622</v>
+        <v>0.01298379892579621</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1356518409049016</v>
+        <v>0.1522512506570051</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03102090705283468</v>
+        <v>0.0231419110789024</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1479750381862822</v>
+        <v>0.1499519437065611</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0459078647947859</v>
+        <v>0.04987944507645786</v>
       </c>
       <c r="M256" t="n">
-        <v>0.150696081239947</v>
+        <v>0.1495395007623228</v>
       </c>
       <c r="N256" t="n">
-        <v>0.109283569370734</v>
+        <v>0.01298379892579621</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1433816631211294</v>
+        <v>0.1522512506570051</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01189198933407017</v>
+        <v>0.01294657137665191</v>
       </c>
       <c r="G257" t="n">
-        <v>0.136362059967231</v>
+        <v>0.1530483776237957</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03101599159609228</v>
+        <v>0.02251739784764001</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1487497766061057</v>
+        <v>0.1507370324170666</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04520350863996572</v>
+        <v>0.05014585582290482</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1514850659584807</v>
+        <v>0.1503224300856857</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1086708610829237</v>
+        <v>0.01294657137665191</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1441323524568421</v>
+        <v>0.1530483776237957</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01269804628084108</v>
+        <v>0.01271401968261449</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1370722790295603</v>
+        <v>0.1538455045905863</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03131521292492126</v>
+        <v>0.02199792317951377</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1495245150259292</v>
+        <v>0.1515221211275722</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04499845234574143</v>
+        <v>0.04881643705284677</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1522740506770145</v>
+        <v>0.1511053594090487</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1081598835784211</v>
+        <v>0.01271401968261449</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1448830417925548</v>
+        <v>0.1538455045905863</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01150298922208877</v>
+        <v>0.012886232554746</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1377824980918896</v>
+        <v>0.1546426315573769</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03151865912508588</v>
+        <v>0.02158355927015462</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1502992534457527</v>
+        <v>0.1523072098380777</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04419269247289151</v>
+        <v>0.04869125162401777</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1530630353955482</v>
+        <v>0.1518882887324116</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1081506256550208</v>
+        <v>0.012886232554746</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1456337311282675</v>
+        <v>0.1546426315573769</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01130682714721302</v>
+        <v>0.01286329870410845</v>
       </c>
       <c r="G260" t="n">
-        <v>0.138492717154219</v>
+        <v>0.1554397585241675</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03142641828235029</v>
+        <v>0.02137437831519359</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1510739918655761</v>
+        <v>0.1530922985485833</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04368622558219462</v>
+        <v>0.04827036239415178</v>
       </c>
       <c r="M260" t="n">
-        <v>0.153852020114082</v>
+        <v>0.1526712180557746</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1091430761105174</v>
+        <v>0.01286329870410845</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1463844204639802</v>
+        <v>0.1554397585241675</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01110956904561365</v>
+        <v>0.01284530684176387</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1392029362165483</v>
+        <v>0.1562368854909581</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03163857848247872</v>
+        <v>0.02117045251026162</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1518487302853996</v>
+        <v>0.1538773872590889</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04357904823442926</v>
+        <v>0.04775383222098317</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1546410048326158</v>
+        <v>0.1534541473791375</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1090372237427055</v>
+        <v>0.01284530684176387</v>
       </c>
       <c r="O261" t="n">
-        <v>0.147135109799693</v>
+        <v>0.1562368854909581</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01091122390669046</v>
+        <v>0.01273234567877425</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1399131552788776</v>
+        <v>0.1570340124577487</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03185522781123537</v>
+        <v>0.02097185405098981</v>
       </c>
       <c r="K262" t="n">
-        <v>0.152623468705223</v>
+        <v>0.1546624759695944</v>
       </c>
       <c r="L262" t="n">
-        <v>0.042871156990374</v>
+        <v>0.04804172396224582</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1554299895511495</v>
+        <v>0.1542370767025005</v>
       </c>
       <c r="N262" t="n">
-        <v>0.10903305734938</v>
+        <v>0.01273234567877425</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1478857991354057</v>
+        <v>0.1570340124577487</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01171180071984327</v>
+        <v>0.01252450392620169</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1406233743412069</v>
+        <v>0.1578311394245393</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03177645435438442</v>
+        <v>0.02047865513300903</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1533982071250465</v>
+        <v>0.1554475646801</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04186254841080733</v>
+        <v>0.04753410047567391</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1562189742696833</v>
+        <v>0.1550200060258634</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1093305657283352</v>
+        <v>0.01252450392620169</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1486364884711184</v>
+        <v>0.1578311394245393</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009511308474471861</v>
+        <v>0.01252187029510816</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1413335934035363</v>
+        <v>0.1586282663913299</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03210234619769008</v>
+        <v>0.02029092795195031</v>
       </c>
       <c r="K264" t="n">
-        <v>0.15417294554487</v>
+        <v>0.1562326533906055</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04185321905650791</v>
+        <v>0.04793102461900139</v>
       </c>
       <c r="M264" t="n">
-        <v>0.157007958988217</v>
+        <v>0.1558029353492264</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1086297376773659</v>
+        <v>0.01252187029510816</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1493871778068311</v>
+        <v>0.1586282663913299</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08227573013870366</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01664249654985295</v>
+        <v>0.03227573013870366</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01539816173837089</v>
+        <v>0.01863218673199057</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001405301815298639</v>
+        <v>0.001365860801643047</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007971269667906025</v>
+        <v>0.0006928756235554604</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004764851910931373</v>
+        <v>0.001334370130858055</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007850887105055554</v>
+        <v>0.0007971269667906025</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007694293876348568</v>
+        <v>0.005160523468007439</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007829293233629466</v>
+        <v>0.0007915618888906719</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001405301815298639</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007971269667906025</v>
+        <v>0.0004674853801169594</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003070911739753553</v>
+        <v>0.002717156374006609</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001594253933581205</v>
+        <v>0.001385751247110921</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00940707336775834</v>
+        <v>0.002932126158969393</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001570177421011111</v>
+        <v>0.001594253933581205</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01615818933864654</v>
+        <v>0.01031895932822202</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001565858646725893</v>
+        <v>0.001583123777781344</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003070911739753553</v>
+        <v>0.01091056213929714</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001594253933581205</v>
+        <v>0.001574129111726188</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004504710586999083</v>
+        <v>0.004054196366823089</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002391380900371808</v>
+        <v>0.002078626870666381</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01407872612732872</v>
+        <v>0.004724585702063973</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002355266131516666</v>
+        <v>0.002391380900371808</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.023439988385972</v>
+        <v>0.01459463571185629</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00234878797008884</v>
+        <v>0.002374685666672016</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004504710586999083</v>
+        <v>0.01545074689484371</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002391380900371808</v>
+        <v>0.002361193667589281</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.005377290429824842</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003330833333333332</v>
+        <v>0.002771502494221842</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01699999999999999</v>
+        <v>0.005743066377871787</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002995987654320985</v>
+        <v>0.00318850786716241</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02700000000000002</v>
+        <v>0.01950688075012286</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002828066037735852</v>
+        <v>0.003166247555562688</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02049888737975686</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003330833333333332</v>
+        <v>0.003148258223452375</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003330833333333332</v>
+        <v>0.01347640185616646</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006807672782755243</v>
+        <v>0.006686748212744266</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003985634833953013</v>
+        <v>0.003464378117777302</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02000570823523184</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003925443552527777</v>
+        <v>0.003885972222222222</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0336431603424579</v>
+        <v>0.02327502257423439</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003914646616814734</v>
+        <v>0.003957809444453359</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006807672782755243</v>
+        <v>0.02505447461220073</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003985634833953013</v>
+        <v>0.003935322779315469</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007635752413941599</v>
+        <v>0.007982879365313736</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004782761800743615</v>
+        <v>0.004157253741332762</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02275773332140779</v>
+        <v>0.007848426021422064</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004710532263033332</v>
+        <v>0.004782761800743615</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03731518529930006</v>
+        <v>0.02691838931540347</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004697575940177679</v>
+        <v>0.004749371333344032</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007635752413941599</v>
+        <v>0.02921699961033908</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004782761800743615</v>
+        <v>0.004722387335178563</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008307815622077011</v>
+        <v>0.009265993537265642</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005579888767534218</v>
+        <v>0.004850129364888223</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02541971566737677</v>
+        <v>0.008912800633874521</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495620973538888</v>
+        <v>0.005579888767534218</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04116514831322565</v>
+        <v>0.02965630910484268</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005480505263540626</v>
+        <v>0.005540933222234703</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008307815622077011</v>
+        <v>0.03468595339233554</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005579888767534218</v>
+        <v>0.005509451891041657</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009228684923785611</v>
+        <v>0.01053640037833235</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00637701573432482</v>
+        <v>0.005543004988443683</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02780647797276642</v>
+        <v>0.009419670044007747</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006280709684044443</v>
+        <v>0.00637701573432482</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04551541096611439</v>
+        <v>0.03210811007376471</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006263434586903573</v>
+        <v>0.006332495111125375</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009228684923785611</v>
+        <v>0.03776082697635419</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00637701573432482</v>
+        <v>0.00629651644690475</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009903182835691561</v>
+        <v>0.01179440953824624</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007174142701115423</v>
+        <v>0.006235880611999143</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02933284293720428</v>
+        <v>0.01037485012197648</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007065798394549998</v>
+        <v>0.007174142701115423</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04808833483984581</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00704636391026652</v>
+        <v>0.006990637860082299</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009903182835691561</v>
+        <v>0.04144111138055873</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007174142701115423</v>
+        <v>0.007083581002767844</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.010936131874419</v>
+        <v>0.01304033066673971</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007971269667906025</v>
+        <v>0.006928756235554605</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03181363326031802</v>
+        <v>0.01118415673793546</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007850887105055554</v>
+        <v>0.007971269667906025</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0513062815162994</v>
+        <v>0.03466103368239323</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007829293233629468</v>
+        <v>0.007915618888906718</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.010936131874419</v>
+        <v>0.04632629762311302</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007971269667906025</v>
+        <v>0.007870645558630937</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0114323545565921</v>
+        <v>0.01427447341354512</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008768396634696628</v>
+        <v>0.007621631859110065</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03326367164173513</v>
+        <v>0.01165340576203942</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008635975815561109</v>
+        <v>0.008768396634696628</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05429161257735476</v>
+        <v>0.03552362858053368</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008612222556992413</v>
+        <v>0.008707180777797391</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0114323545565921</v>
+        <v>0.04881587672218085</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008768396634696628</v>
+        <v>0.008657710114494033</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01229667339883501</v>
+        <v>0.01549714742839487</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008314507482665524</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01228841306444312</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009565523601487231</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03539778078108324</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009421064526066664</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05736668960489139</v>
+        <v>0.03633799297112203</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009395151880355359</v>
+        <v>0.009498742666688063</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01229667339883501</v>
+        <v>0.05190933969592615</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009565523601487231</v>
+        <v>0.009444774670357125</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01283391091777186</v>
+        <v>0.01670866236102134</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009007383106220986</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01299499451530124</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01036265056827783</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03693078337798994</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01020615323657222</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06005387418078884</v>
+        <v>0.03675287375239061</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01017808120371831</v>
+        <v>0.01029030455557874</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01283391091777186</v>
+        <v>0.05570617756251256</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01036265056827783</v>
+        <v>0.01023183922622022</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0133488896300268</v>
+        <v>0.01790932786115689</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009700258729776446</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01357896598476858</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01115977753506844</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03867750213208276</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01099124194707778</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06380293068377785</v>
+        <v>0.03721701782257186</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01113820378856831</v>
+        <v>0.01108186644446941</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0133488896300268</v>
+        <v>0.05860588134010414</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01115977753506844</v>
+        <v>0.01101890378208331</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01384643205222401</v>
+        <v>0.01909945357853393</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01039313435333191</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01414614334299985</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01195690450185904</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0402227136168154</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01181438759012427</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06519361279157326</v>
+        <v>0.03787917207989802</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0117439398504442</v>
+        <v>0.01187342833336008</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01384643205222401</v>
+        <v>0.06060794204686459</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01195690450185904</v>
+        <v>0.01180596833794641</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01453136070098761</v>
+        <v>0.0202793491628848</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01108600997688737</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01480234246014979</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01275403146864964</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04139684574487837</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01256141936808889</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06690664594262552</v>
+        <v>0.03918808342260155</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01252686917380715</v>
+        <v>0.01266499022225075</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01453136070098761</v>
+        <v>0.06380293068377785</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01275403146864964</v>
+        <v>0.01242789054303411</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01530849809294177</v>
+        <v>0.02144932426394192</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01177888560044283</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01505337920637316</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01355115843544024</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04254458744377665</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01334650807859444</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06931547334882748</v>
+        <v>0.0402227136168154</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01330979849717009</v>
+        <v>0.01378345218847831</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01530849809294177</v>
+        <v>0.066360506092567</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01355115843544024</v>
+        <v>0.01338009744967259</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01568266674471062</v>
+        <v>0.02260968853143766</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01247176122399829</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01580506945182464</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01434828540223085</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04399399484309141</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0141315967891</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07131733792389644</v>
+        <v>0.04022536348749911</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01409272782053304</v>
+        <v>0.01424811400003209</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01568266674471062</v>
+        <v>0.06859954456176115</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01434828540223085</v>
+        <v>0.01416716200553569</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02427573013870366</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01347640185616646</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01664249654985295</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01539816173837089</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04594300523899938</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01491668549960555</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07400948258154955</v>
+        <v>0.04154450576649399</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01487565714389599</v>
+        <v>0.01503967588892277</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01664249654985295</v>
+        <v>0.07123022100195386</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01539816173837089</v>
+        <v>0.01495422656139878</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0169425577371316</v>
+        <v>0.02491290993777021</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01385751247110921</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01673376168186001</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01594253933581205</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04678955592767736</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01570177421011111</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07648915023550429</v>
+        <v>0.04213801159048877</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01565858646725894</v>
+        <v>0.01583123777781344</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0169425577371316</v>
+        <v>0.07384945798899017</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01594253933581205</v>
+        <v>0.01574129111726187</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01743957361891713</v>
+        <v>0.02610294289646181</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01455038809466467</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01761913727228021</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01673966630260266</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04823158420530207</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01648686292061666</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07865358379947773</v>
+        <v>0.04320024185433927</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01644151579062188</v>
+        <v>0.01662279966670411</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01743957361891713</v>
+        <v>0.07635417809871498</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01673966630260266</v>
+        <v>0.01652835567312497</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01824832109230223</v>
+        <v>0.02730564184380152</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01524326371822013</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0181176595193458</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01753679326939326</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04946702736805028</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01727195163112222</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.0806000261871872</v>
+        <v>0.04442555745290144</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01722444511398483</v>
+        <v>0.01741436155559478</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01824832109230223</v>
+        <v>0.07874130390697331</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01753679326939326</v>
+        <v>0.01731542022898807</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01856702164555689</v>
+        <v>0.02848792123694008</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01593613934177559</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01882748484346708</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01833392023618386</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05129382271209873</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01805704034162777</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.0831257203123501</v>
+        <v>0.04570831928103122</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01800737443734777</v>
+        <v>0.01820592344448545</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01856702164555689</v>
+        <v>0.08010775798961012</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01833392023618386</v>
+        <v>0.01810248478485116</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01939389676695101</v>
+        <v>0.02961669553302826</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01662901496533105</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01934676966505432</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01913104720297446</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05310990753362424</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01884212905213333</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08592790908868353</v>
+        <v>0.0467428882335845</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01879030376071072</v>
+        <v>0.01899748533337613</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01939389676695101</v>
+        <v>0.08285046292247045</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01913104720297446</v>
+        <v>0.01888954934071425</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01982716794475463</v>
+        <v>0.03065887918921677</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01732189058888651</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01997367040451777</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01992817416976507</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05431321912880355</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01962721776263888</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08800383542990498</v>
+        <v>0.04792362520541724</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01957323308407367</v>
+        <v>0.0197890472222668</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01982716794475463</v>
+        <v>0.08476634128139926</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01992817416976507</v>
+        <v>0.01967661389657735</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02056505666723758</v>
+        <v>0.03158138666265634</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01801476621244197</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02070634348226771</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02072530113655567</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05560169479381341</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02041230647314444</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.09015074224973152</v>
+        <v>0.04984489109138529</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02035616240743661</v>
+        <v>0.02058060911115747</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02056505666723758</v>
+        <v>0.0874523156422416</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02072530113655567</v>
+        <v>0.02046367845244044</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02130578442266991</v>
+        <v>0.03227573013870366</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01863218673199057</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0213429453187144</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02152242810334627</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05727327182483058</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02119739518365</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.0922658724618805</v>
+        <v>0.05060104678634461</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02113909173079956</v>
+        <v>0.02137217100004814</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02130578442266991</v>
+        <v>0.08980530858084235</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02152242810334627</v>
+        <v>0.02125074300830353</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02194757269932153</v>
+        <v>0.03304294268797286</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01940051745955289</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02178163233426812</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02231955507013687</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05842588751803179</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02198248389415555</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09454646898006924</v>
+        <v>0.05248645318515111</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0219220210541625</v>
+        <v>0.02216373288893881</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02194757269932153</v>
+        <v>0.09192224267304649</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02231955507013687</v>
+        <v>0.02203780756416663</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02268864298546239</v>
+        <v>0.03371444119491952</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02009339308310835</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02242056094933911</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02311668203692747</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05975747916959387</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02276757260466111</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09588977471801502</v>
+        <v>0.05339547118266072</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02270495037752545</v>
+        <v>0.02295529477782949</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02268864298546239</v>
+        <v>0.09360004049469911</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02311668203692747</v>
+        <v>0.02282487212002972</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02332721676936242</v>
+        <v>0.03436609542362187</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02078626870666381</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02325788758433769</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02391380900371808</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06066598407569349</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02355266131516666</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09859303258943497</v>
+        <v>0.05472246167372932</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0234878797008884</v>
+        <v>0.02374685666672015</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02332721676936242</v>
+        <v>0.09653562462164506</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02391380900371808</v>
+        <v>0.02361193667589281</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02366151553929162</v>
+        <v>0.03499739649888019</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02147914433021927</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02379176865967408</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02471093597050868</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.0619493395325075</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02433775002567222</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1005534855080465</v>
+        <v>0.05666178555321288</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02427080902425134</v>
+        <v>0.02453841855561083</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02366151553929162</v>
+        <v>0.09852591762972951</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02471093597050868</v>
+        <v>0.02439900123175591</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0243897607835199</v>
+        <v>0.03560783554549485</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02217201995377473</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02432036059575858</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02550806293729928</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0633054828362126</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02512283873617777</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.101768376387567</v>
+        <v>0.05810780371596727</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02505373834761429</v>
+        <v>0.0253299804445015</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0243897607835199</v>
+        <v>0.09986784209479721</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02550806293729928</v>
+        <v>0.025186065787619</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02501017399031721</v>
+        <v>0.03619690368826618</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02286489557733019</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02504181981300145</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02630518990408989</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06493235128298561</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02590792744668333</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1035349481417134</v>
+        <v>0.05895487705684849</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02583666767097724</v>
+        <v>0.02612154233339217</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02501017399031721</v>
+        <v>0.1018583205926934</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02630518990408989</v>
+        <v>0.0259731303434821</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02552097664795352</v>
+        <v>0.03676409205199449</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02355777120088566</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02575430273181296</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02710231687088049</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06572788216900322</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02669301615718888</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1049504436842034</v>
+        <v>0.06109736647071232</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02661959699434019</v>
+        <v>0.02691310422228285</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02552097664795352</v>
+        <v>0.1048942756992628</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02710231687088049</v>
+        <v>0.02676019489934519</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0261203902446988</v>
+        <v>0.03730889176148013</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02425064682444112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02635596577260337</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02789944383767109</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06679001279044219</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02747810486769444</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1069121059287539</v>
+        <v>0.06252963285241475</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02740252631770313</v>
+        <v>0.02770466611117351</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0261203902446988</v>
+        <v>0.1058726299903506</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02789944383767109</v>
+        <v>0.02754725945520828</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02700663626882294</v>
+        <v>0.03783079394152346</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02494352244799657</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02684496535578296</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02869657080446169</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06771668044347934</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02826319357819999</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1096171777890824</v>
+        <v>0.06364603709681171</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02818545564106608</v>
+        <v>0.02849622800006419</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02700663626882294</v>
+        <v>0.1074903060418017</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02869657080446169</v>
+        <v>0.02833432401107138</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02727793620859592</v>
+        <v>0.03832928971692476</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02563639807155204</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02741945790176198</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0294936977712523</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06960582242429142</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02904828228870555</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1108629021789062</v>
+        <v>0.06514094009875915</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02896838496442902</v>
+        <v>0.02928778988895486</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02727793620859592</v>
+        <v>0.1096442264294611</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0294936977712523</v>
+        <v>0.02912138856693447</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02783251155228771</v>
+        <v>0.0388038702124844</v>
       </c>
       <c r="G103" t="n">
+        <v>0.0263292736951075</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02807759983095071</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0302908247380429</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.07015537602905517</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.0298333709992111</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1116465220119424</v>
+        <v>0.0661087027531129</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02975131428779198</v>
+        <v>0.03007935177784553</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02783251155228771</v>
+        <v>0.1114313137291738</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0302908247380429</v>
+        <v>0.02990845312279756</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02836858378816824</v>
+        <v>0.0392540265530027</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02702214931866296</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02841754756375943</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.0310879517048335</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.07146327855394732</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03061845970971666</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1134652802019084</v>
+        <v>0.06734368595472892</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03053424361115492</v>
+        <v>0.0308709136667362</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02836858378816824</v>
+        <v>0.1131484905167848</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0310879517048335</v>
+        <v>0.03069551767866066</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02918437440450745</v>
+        <v>0.03967924986327999</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02771502494221842</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0289374575205984</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0318850786716241</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.07262746729514472</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03140354842022221</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1152164196625215</v>
+        <v>0.06944025059846312</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03131717293451787</v>
+        <v>0.03166247555562687</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02918437440450745</v>
+        <v>0.114992679368139</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0318850786716241</v>
+        <v>0.03148258223452375</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02947810488957529</v>
+        <v>0.0400790312681166</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02840790056577388</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02933548612187789</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03268220563841471</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.07304587954882405</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03218863713072777</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1162971833074988</v>
+        <v>0.06999275757917142</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03210010225788081</v>
+        <v>0.03245403744451755</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02947810488957529</v>
+        <v>0.1160608028590815</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03268220563841471</v>
+        <v>0.03226964679038685</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03014799673164177</v>
+        <v>0.0404528618923129</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02910077618932934</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02990978978800816</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03347933260520531</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.07421645261116205</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03297372584123332</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1184048140505579</v>
+        <v>0.0716955677917098</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03288303158124375</v>
+        <v>0.03324559933340823</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03014799673164177</v>
+        <v>0.1179497835654572</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03347933260520531</v>
+        <v>0.03305671134624994</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03059227141897675</v>
+        <v>0.04080023286066917</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0297936518128848</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03055852493939948</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03427645957199591</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07493712377833558</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03375881455173888</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1194365548054157</v>
+        <v>0.07264304213093406</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0336659609046067</v>
+        <v>0.03403716122229889</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03059227141897675</v>
+        <v>0.1193565440631111</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03427645957199591</v>
+        <v>0.03384377590211304</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03090915043985024</v>
+        <v>0.04112063529798576</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03048652743644026</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03077984799646213</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03507358653878651</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.07530583034652133</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03454390326224444</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1204896484857897</v>
+        <v>0.07402954149170021</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03444889022796965</v>
+        <v>0.03482872311118956</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03090915043985024</v>
+        <v>0.1194780069278882</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03507358653878651</v>
+        <v>0.03463084045797613</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03109685528253216</v>
+        <v>0.04141356032906301</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03117940305999571</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03137191537960639</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03587071350557711</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07632050961189607</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03532899197274999</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1215613380053971</v>
+        <v>0.07514942676886416</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0352318195513326</v>
+        <v>0.03562028500008024</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03109685528253216</v>
+        <v>0.1210110947356334</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03587071350557711</v>
+        <v>0.03541790501383922</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03145360743529248</v>
+        <v>0.04167849907870128</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03187227868355118</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03173288350924248</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03666784047236772</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07717909887063659</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03611408068325555</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1218488662779553</v>
+        <v>0.07559705885728174</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03601474887469554</v>
+        <v>0.0364118468889709</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03145360743529248</v>
+        <v>0.1221527300621919</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03666784047236772</v>
+        <v>0.03620496956970232</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03197762838640113</v>
+        <v>0.04191494267170084</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03256515430710664</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03176090880578074</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03746496743915832</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.0772795354189196</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0368991693937611</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1230494762171815</v>
+        <v>0.07696679865180894</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03679767819805849</v>
+        <v>0.03720340877786158</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03197762838640113</v>
+        <v>0.1229998354834084</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03746496743915832</v>
+        <v>0.03699203412556541</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03226713962412808</v>
+        <v>0.04213081947069303</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0332580299306621</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03215414768963137</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03826209440594892</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.07831975655292192</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03768425810426666</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1239604107367929</v>
+        <v>0.07775300704730168</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03758060752142144</v>
+        <v>0.03799497066675225</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03226713962412808</v>
+        <v>0.1244493335751282</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03826209440594892</v>
+        <v>0.0377790986814285</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03242036263674329</v>
+        <v>0.04234380625706805</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03395090555421756</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03251075658120467</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03905922137273952</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.07899769956882025</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03846934681477222</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1248789127505069</v>
+        <v>0.07825004493861584</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03836353684478438</v>
+        <v>0.03878653255564293</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03242036263674329</v>
+        <v>0.125398146913196</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03905922137273952</v>
+        <v>0.0385661632372916</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03263551891251666</v>
+        <v>0.0425544156964995</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03464378117777302</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03252889190091093</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03985634833953013</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.0794113017627914</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03925443552527777</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1253022251720407</v>
+        <v>0.07865227322060739</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03914646616814733</v>
+        <v>0.03957809444453359</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03263551891251666</v>
+        <v>0.124843198073457</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03985634833953013</v>
+        <v>0.03935322779315469</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03291082993971818</v>
+        <v>0.04276257343446087</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03533665680132848</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03300671006916038</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04065347530632073</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07955850043101206</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04003952423578332</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1253275909151116</v>
+        <v>0.07875405278813224</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03992939549151028</v>
+        <v>0.04036965633342426</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03291082993971818</v>
+        <v>0.1261814096317561</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04065347530632073</v>
+        <v>0.04014029234901778</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03304451720661782</v>
+        <v>0.04296820511642561</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03602953242488394</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0330423675063633</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04145060227311134</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07993723286965909</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04082461294628888</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1261522528934368</v>
+        <v>0.07984974453604632</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04071232481487323</v>
+        <v>0.04116121822231494</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03304451720661782</v>
+        <v>0.1268097041639382</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04145060227311134</v>
+        <v>0.04092735690488088</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03303480220148546</v>
+        <v>0.04317123638786724</v>
       </c>
       <c r="G118" t="n">
+        <v>0.0367224080484394</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03323402063292998</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04224772923990194</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07954543637490916</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04160970165679443</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1262734540207338</v>
+        <v>0.07973370935920543</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04149525413823617</v>
+        <v>0.04195278011120561</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03303480220148546</v>
+        <v>0.1271250042458484</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04224772923990194</v>
+        <v>0.04171442146074397</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04337159289425921</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03741528367199486</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.0332849930997059</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04304485620669254</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.0804454272336308</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04239479036729999</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1266884372107196</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.04227818346159912</v>
+        <v>0.04274434200009628</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0332849930997059</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04304485620669254</v>
+        <v>0.04250148601660706</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03318333624776409</v>
+        <v>0.04356920028107504</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03810815929555032</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03298382048045492</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04384198317348315</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.08044200576992563</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04317987907780554</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1276058613675556</v>
+        <v>0.07964522266038149</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04306111278496207</v>
+        <v>0.04353590388898695</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03318333624776409</v>
+        <v>0.1276043113622328</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04384198317348315</v>
+        <v>0.04328855057247016</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03307159679385605</v>
+        <v>0.0437639841937882</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03880103491910578</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03307550473778273</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04463911014027375</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.07973905065900322</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.0439649677883111</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1274043224010249</v>
+        <v>0.0802340888466736</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04384404210832501</v>
+        <v>0.04432746577787763</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03307159679385605</v>
+        <v>0.1263937869559723</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04463911014027375</v>
+        <v>0.04407561512833326</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03314895878215658</v>
+        <v>0.04395587027787215</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03949391054266125</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03325945058872048</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04543623710706435</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.08020834723954914</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04475005649881666</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1273936324905095</v>
+        <v>0.0798062984260651</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04462697143168796</v>
+        <v>0.0451190276667683</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03314895878215658</v>
+        <v>0.1265487030944498</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04543623710706435</v>
+        <v>0.04486267968419635</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03311585078590702</v>
+        <v>0.0441447841788004</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0401867861662167</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03303594289368589</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04623336407385495</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.08035297394980531</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04553514520932221</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.127172769720288</v>
+        <v>0.0802623210270379</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0454099007550509</v>
+        <v>0.04591058955565897</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03311585078590702</v>
+        <v>0.127071421631686</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04623336407385495</v>
+        <v>0.04564974424005944</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03287270137834873</v>
+        <v>0.04433065154204642</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04087966178977216</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03290526651309669</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04703049104064555</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07957374742018855</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04632023391982777</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1274417459683439</v>
+        <v>0.08000262627807408</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04619283007841385</v>
+        <v>0.04670215144454964</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03287270137834873</v>
+        <v>0.1264631915583539</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04703049104064555</v>
+        <v>0.04643680879592254</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.033119939132723</v>
+        <v>0.04451339801308372</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04157253741332762</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03306770630737058</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04782761800743616</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.08017148428111578</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04710532263033332</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1264005731126607</v>
+        <v>0.07942768380765561</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0469757594017768</v>
+        <v>0.04749371333344031</v>
       </c>
       <c r="N125" t="n">
-        <v>0.033119939132723</v>
+        <v>0.1267252618651266</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04782761800743616</v>
+        <v>0.04722387335178563</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03275799262227118</v>
+        <v>0.04469294923738576</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04226541303688308</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03282354713692531</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04862474497422676</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07964700116300377</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04789041134083888</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1263492630312217</v>
+        <v>0.07953796324426454</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04775868872513975</v>
+        <v>0.04828527522233098</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03275799262227118</v>
+        <v>0.1268588815426769</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04862474497422676</v>
+        <v>0.04801093790764872</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03278729042023461</v>
+        <v>0.04486923086042602</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04295828866043855</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03297307386217857</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04942187194101736</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07980111469626941</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04867550005134443</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1264878276020105</v>
+        <v>0.07923393421638283</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04854161804850269</v>
+        <v>0.04907683711122166</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03278729042023461</v>
+        <v>0.1256652995816777</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04942187194101736</v>
+        <v>0.04879800246351182</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03290826109985463</v>
+        <v>0.04504216852767798</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04365116428399401</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03301657134354813</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05021899890780796</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07963464151132951</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04946058876184999</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1273162787030107</v>
+        <v>0.07961606635249255</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04932454737186564</v>
+        <v>0.04986839900011233</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03290826109985463</v>
+        <v>0.125545764972802</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05021899890780796</v>
+        <v>0.04958506701937491</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03272133323437257</v>
+        <v>0.04521168788461513</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04434403990754947</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03285432444145167</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05101612587459856</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07924839823860097</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05024567747235555</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1261346282122056</v>
+        <v>0.07938482928107568</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05010747669522858</v>
+        <v>0.050659960889003</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03272133323437257</v>
+        <v>0.1259015267067227</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05101612587459856</v>
+        <v>0.050372131575238</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03242693539702973</v>
+        <v>0.04537771457671097</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04503691553110493</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03268661801630694</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05181325284138917</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07864320150850057</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0510307661828611</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1270428880075787</v>
+        <v>0.07904069263061431</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05089040601859153</v>
+        <v>0.05145152277789367</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03242693539702973</v>
+        <v>0.1261338337741129</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05181325284138917</v>
+        <v>0.0511591961311011</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03232549616106749</v>
+        <v>0.04554017424943897</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04572979115466039</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03271373692853165</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05261037980817977</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.07841986795144523</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05181585489336665</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1265410699671136</v>
+        <v>0.07898412602959032</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05167333534195448</v>
+        <v>0.05224308466678435</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03232549616106749</v>
+        <v>0.1248439351656453</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05261037980817977</v>
+        <v>0.05194626068696419</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03231744409972712</v>
+        <v>0.04569899254827262</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04642266677821585</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03253596603854353</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05340750677497037</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0787792141978518</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05260094360387221</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1261291859687936</v>
+        <v>0.07921559910648582</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05245626466531742</v>
+        <v>0.05303464655567501</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03231744409972712</v>
+        <v>0.1249330798719931</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05340750677497037</v>
+        <v>0.05273332524282729</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03240320778625001</v>
+        <v>0.04585409511868539</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04711554240177131</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03235359020676032</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05420463374176097</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07782205687813706</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05338603231437776</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1263072478906024</v>
+        <v>0.07853558148978282</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05323919398868037</v>
+        <v>0.05382620844456569</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03240320778625001</v>
+        <v>0.1248025168838292</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05420463374176097</v>
+        <v>0.05352038979869038</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03198321579387749</v>
+        <v>0.04600540760615078</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04780841802532677</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03256689429359969</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05500176070855158</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.07814921262271793</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05417112102488333</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1261752676105233</v>
+        <v>0.07814454280796329</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05402212331204331</v>
+        <v>0.05461777033345636</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03198321579387749</v>
+        <v>0.1245534951918263</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05500176070855158</v>
+        <v>0.05430745435455347</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03215789669585084</v>
+        <v>0.04615285565614226</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04850129364888223</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03247616315947942</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05579888767534218</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07756149806201124</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05495620973538887</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1256332570065398</v>
+        <v>0.07864295268950927</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05480505263540626</v>
+        <v>0.05540933222234703</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03215789669585084</v>
+        <v>0.1234872637866577</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05579888767534218</v>
+        <v>0.05509451891041656</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03182767906541144</v>
+        <v>0.04629636491413332</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04919416927243769</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0323816816648172</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05659601464213278</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07745972982643379</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05574129844589443</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1255812279566354</v>
+        <v>0.07773128076290278</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05558798195876922</v>
+        <v>0.05620089411123771</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03182767906541144</v>
+        <v>0.1236050716589961</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05659601464213278</v>
+        <v>0.05588158346627967</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03179299147580061</v>
+        <v>0.04643586102559744</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04988704489599315</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03218373467003074</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05739314160892339</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07704472454640249</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05652638715639999</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1253191923387936</v>
+        <v>0.07750999665662583</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05637091128213216</v>
+        <v>0.05699245600012837</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03179299147580061</v>
+        <v>0.1233081677995145</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05739314160892339</v>
+        <v>0.05666864802214275</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03155426250025968</v>
+        <v>0.04657126963600812</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05057992051954861</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03218260703553782</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05819026857571399</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07691729885233414</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05731147586690555</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.124847162030998</v>
+        <v>0.07787956999916043</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0571538406054951</v>
+        <v>0.05778401788901905</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03155426250025968</v>
+        <v>0.1226978011988859</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05819026857571399</v>
+        <v>0.05745571257800585</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03131192071203001</v>
+        <v>0.04670251639083881</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05127279614310407</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03207858362175613</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05898739554250459</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.07607826937464562</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0580965645774111</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1257651489112318</v>
+        <v>0.07714047041898858</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05793676992885805</v>
+        <v>0.05857557977790973</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03131192071203001</v>
+        <v>0.1224752208477832</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05898739554250459</v>
+        <v>0.05824277713386894</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03136639468435287</v>
+        <v>0.04682952693556303</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05196567176665953</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03177194928910336</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05978452250929519</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07582845274375383</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05888165328791665</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1247731648574787</v>
+        <v>0.07759316754459233</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05871969925222099</v>
+        <v>0.05936714166680039</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03136639468435287</v>
+        <v>0.1223416757368794</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05978452250929519</v>
+        <v>0.05902984168973204</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03131811299046965</v>
+        <v>0.04695222691565425</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05265854739021499</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0318629888979973</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.0605816494760858</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07586866559007549</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05966674199842221</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1245712217477221</v>
+        <v>0.07683813100445369</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05950262857558395</v>
+        <v>0.06015870355569106</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03131811299046965</v>
+        <v>0.1216984148568474</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0605816494760858</v>
+        <v>0.05981690624559512</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03116750420362163</v>
+        <v>0.04707054197658592</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05335142301377045</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03145198730885562</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06137877644287641</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.07569972454402754</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06045183070892776</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1247593314599454</v>
+        <v>0.07677583042705463</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06028555789894689</v>
+        <v>0.06095026544458173</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03116750420362163</v>
+        <v>0.1205466871983601</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06137877644287641</v>
+        <v>0.06060397080145823</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03071499689705019</v>
+        <v>0.04718439776383158</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05404429863732591</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03163922938209605</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.062175903409667</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.07492244623602681</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06123691941943332</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1239375058721324</v>
+        <v>0.07640673544087717</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06106848722230983</v>
+        <v>0.06174182733347241</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03071499689705019</v>
+        <v>0.1208877417520906</v>
       </c>
       <c r="O143" t="n">
-        <v>0.062175903409667</v>
+        <v>0.06139103535732131</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03056101964399664</v>
+        <v>0.04729371992286467</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05473717426088137</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03152499997813633</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.0629730303764576</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.07423764729649013</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06202200812993888</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1238057568622661</v>
+        <v>0.07593131567440345</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06185141654567278</v>
+        <v>0.06253338922236308</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03056101964399664</v>
+        <v>0.1200228275087117</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0629730303764576</v>
+        <v>0.06217809991318441</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03060600101770232</v>
+        <v>0.04739843409915871</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05543004988443684</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0314095839573942</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0637701573432482</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.07414614435583439</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06280709684044443</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1235640963083303</v>
+        <v>0.07615004075611528</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06263434586903574</v>
+        <v>0.06332495111125375</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03060600101770232</v>
+        <v>0.1192531934588963</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0637701573432482</v>
+        <v>0.0629651644690475</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03025036959140856</v>
+        <v>0.04749846593818716</v>
       </c>
       <c r="G146" t="n">
+        <v>0.0561229255079923</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03099326618028735</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06456728431003882</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.07404875404447644</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06359218555094999</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1231125360883085</v>
+        <v>0.07566338031449482</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06341727519239868</v>
+        <v>0.06411651300014443</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03025036959140856</v>
+        <v>0.1195800885933176</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06456728431003882</v>
+        <v>0.06375222902491059</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03039455393835669</v>
+        <v>0.0475937410854235</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05681580113154776</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0310763315072335</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06536441127682942</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.07334629299283305</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06437727426145555</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.122951088080184</v>
+        <v>0.07567180397802398</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06420020451576162</v>
+        <v>0.06490807488903509</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03039455393835669</v>
+        <v>0.1185047619026484</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06536441127682942</v>
+        <v>0.0645392935807737</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02993898263178806</v>
+        <v>0.04768418518634124</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05750867675510322</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03105906479865039</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06616153824362001</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.07333957783132114</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.0651623629719611</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1234797641619403</v>
+        <v>0.0747757813751849</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06498313383912457</v>
+        <v>0.06569963677792577</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02993898263178806</v>
+        <v>0.1177284623775616</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06616153824362001</v>
+        <v>0.06532635813663679</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02978408424494396</v>
+        <v>0.04776972388641383</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05820155237865868</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03074175091495575</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06695866521041062</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.07232942519035757</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06594745168246664</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1222985762115611</v>
+        <v>0.07457578213445948</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06576606316248751</v>
+        <v>0.06649119866681645</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02978408424494396</v>
+        <v>0.1180524390087301</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06695866521041062</v>
+        <v>0.06611342269249988</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02983028735106574</v>
+        <v>0.04785028283111478</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05889442800221414</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03062467471656728</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06775579217720122</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.07191665170035913</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0667325403929722</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1225075361070296</v>
+        <v>0.07467227588432981</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06654899248585047</v>
+        <v>0.0672827605557071</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02983028735106574</v>
+        <v>0.116677940786827</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06775579217720122</v>
+        <v>0.06690048724836298</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02957802052339474</v>
+        <v>0.04792578766591755</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0595873036257696</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03060812106390273</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06855291914399182</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.07210207399174268</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06751762910347776</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1224066557263294</v>
+        <v>0.07426573225327784</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06733192180921341</v>
+        <v>0.06807432244459778</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02957802052339474</v>
+        <v>0.1168062167025251</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06855291914399182</v>
+        <v>0.06768755180422607</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02962771233517232</v>
+        <v>0.04799616403629565</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06028017924932506</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0303923748173798</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06935004611078242</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.07148650869492512</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06830271781398332</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.121695946947444</v>
+        <v>0.07365662086978569</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06811485113257636</v>
+        <v>0.06886588433348845</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02962771233517232</v>
+        <v>0.1165385157464974</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06935004611078242</v>
+        <v>0.06847461636008915</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02917979135963976</v>
+        <v>0.04806133758772255</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06097305487288052</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03017772083741624</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07014717307757302</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.07047077244032326</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06908780652448887</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1215754216483569</v>
+        <v>0.07354541136233525</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06889778045593931</v>
+        <v>0.06965744622237913</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02917979135963976</v>
+        <v>0.116376086909417</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07014717307757302</v>
+        <v>0.06926168091595226</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02913468617003842</v>
+        <v>0.04812123396567172</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06166593049643598</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03026444398442973</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07094430004436364</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.07055568185835395</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06987289523499443</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1207450917070515</v>
+        <v>0.0735325733594086</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06968070977930224</v>
+        <v>0.07044900811126981</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02913468617003842</v>
+        <v>0.1154201791819567</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07094430004436364</v>
+        <v>0.07004874547181535</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02919282533960964</v>
+        <v>0.04817577881561667</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06235880611999143</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03005282911883803</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07174142701115423</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.07034205357943407</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07065798394549998</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1209049690015113</v>
+        <v>0.07261857648948775</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0704636391026652</v>
+        <v>0.07124057000016047</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02919282533960964</v>
+        <v>0.1153720415547894</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07174142701115423</v>
+        <v>0.07083581002767844</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02895463744159472</v>
+        <v>0.04822489778303087</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06305168174354689</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02994316110105885</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07253855397794483</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06963070423398038</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07144307265600554</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1209550654097198</v>
+        <v>0.07220389038105465</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07124656842602814</v>
+        <v>0.07203213188905115</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02895463744159472</v>
+        <v>0.1142329230185881</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07253855397794483</v>
+        <v>0.07162287458354154</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02892055104923505</v>
+        <v>0.04826851651338779</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06374455736710236</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02993572479150992</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07333568094473544</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06962245045240983</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0722281613665111</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1202953928096605</v>
+        <v>0.07178898466259143</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07202949774939109</v>
+        <v>0.0728236937779418</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02892055104923505</v>
+        <v>0.1135040725640258</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07333568094473544</v>
+        <v>0.07240993913940463</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02859099473577188</v>
+        <v>0.04830656065216093</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06443743299065781</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02992914751446303</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07413280791152604</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06851810886513926</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07301325007701664</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1196259630793168</v>
+        <v>0.07156161787203463</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07281242707275404</v>
+        <v>0.07361525566683248</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02859099473577188</v>
+        <v>0.1131833191167259</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07413280791152604</v>
+        <v>0.07319700369526771</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02856639707444662</v>
+        <v>0.04833895584482378</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06513030861421328</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0297207213555952</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07492993487831665</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06871849610258543</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07379833878752221</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1199467880966723</v>
+        <v>0.07110069446545381</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07359535639611699</v>
+        <v>0.07440681755572316</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02856639707444662</v>
+        <v>0.1133648434960336</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07492993487831665</v>
+        <v>0.07398406825113082</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02824718663850057</v>
+        <v>0.04836562773684983</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06582318423776874</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0296104193530398</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07572706184510725</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06762442879516528</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07458342749802775</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1190578797397105</v>
+        <v>0.07100743647063693</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07437828571947994</v>
+        <v>0.07519837944461383</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02824718663850057</v>
+        <v>0.1125478197941566</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07572706184510725</v>
+        <v>0.07477113280699391</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02843361246110263</v>
+        <v>0.04838650197371253</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06651605986132419</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02939826220705648</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07652418881189785</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.0680367235732956</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07536851620853331</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1181592498864146</v>
+        <v>0.07088347839139952</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07516121504284287</v>
+        <v>0.07598994133350451</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02843361246110263</v>
+        <v>0.1119315212359175</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07652418881189785</v>
+        <v>0.075558197362857</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02802424865759981</v>
+        <v>0.04840150420088538</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06720893548487966</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02928427061790483</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07732131577868846</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06755619706739333</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07615360491903887</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1185509104147683</v>
+        <v>0.07053045473155722</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07594414436620582</v>
+        <v>0.07678150322239517</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02802424865759981</v>
+        <v>0.1124152210461393</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07732131577868846</v>
+        <v>0.07634526191872011</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02801840096508233</v>
+        <v>0.0484105600638419</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06790181110843511</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02926846528584442</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07811844274547905</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06667634698921873</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07693869362954443</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1175328732027551</v>
+        <v>0.0697499999949254</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07672707368956877</v>
+        <v>0.07757306511128585</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02801840096508233</v>
+        <v>0.1117981924496446</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07811844274547905</v>
+        <v>0.07713232647458319</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02811570351779848</v>
+        <v>0.04841359520805549</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06859468673199058</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0291508669111349</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07891556971226965</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06668617988510162</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07772378234004998</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1176051501283585</v>
+        <v>0.06914374868531981</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07751000301293172</v>
+        <v>0.07836462700017652</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02811570351779848</v>
+        <v>0.1115797086712563</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07891556971226965</v>
+        <v>0.07791939103044629</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0280157904499964</v>
+        <v>0.04841359520805549</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06859468673199058</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02903149619403586</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07971269667906027</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06618601342498548</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07850887105055554</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1169677530695618</v>
+        <v>0.06861333530655586</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07829293233629467</v>
+        <v>0.07915618888906718</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0280157904499964</v>
+        <v>0.1107590429357971</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07971269667906027</v>
+        <v>0.07870645558630938</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02771829589592435</v>
+        <v>0.0475832181880647</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06859441820352656</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02881037383480689</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08050982364585087</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.0655763105611557</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07929395976106109</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1171206939043486</v>
+        <v>0.06776039436244916</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0790758616596576</v>
+        <v>0.07994775077795786</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02771829589592435</v>
+        <v>0.1099354684680898</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08050982364585087</v>
+        <v>0.07949352014217248</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02762285398983055</v>
+        <v>0.04676221926241728</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06859414967506255</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02858752053370761</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08130695061264147</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06555753424589764</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08007904847156665</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1167639845107024</v>
+        <v>0.06758656035681523</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07985879098302055</v>
+        <v>0.08073931266684853</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02762285398983055</v>
+        <v>0.1093082584929573</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08130695061264147</v>
+        <v>0.08028058469803556</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0277290988659632</v>
+        <v>0.04595105702454035</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06859388114659852</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02866295699099759</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08210407757943206</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06503014743149649</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08086413718207221</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1157976367666066</v>
+        <v>0.06689346779346966</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0806417203063835</v>
+        <v>0.08153087455573921</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0277290988659632</v>
+        <v>0.1092766862352222</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08210407757943206</v>
+        <v>0.08106764925389867</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02763666465857054</v>
+        <v>0.04515019006796669</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06859361261813451</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02863670390693646</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08290120454622267</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06479461307023776</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08164922589257775</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1153216625500448</v>
+        <v>0.06648275117622796</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08142464962974645</v>
+        <v>0.08232243644462989</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02763666465857054</v>
+        <v>0.1094400249197074</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08290120454622267</v>
+        <v>0.08185471380976175</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02724518550190076</v>
+        <v>0.04436007698612293</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06859334408967049</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02840878198178383</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08369833151301327</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.0638513941144066</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08243431460308331</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1143360737390004</v>
+        <v>0.06555604500890569</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0822075789531094</v>
+        <v>0.08311399833352055</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02724518550190076</v>
+        <v>0.1081975477712356</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08369833151301327</v>
+        <v>0.08264177836562485</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0271542955302021</v>
+        <v>0.04358117637247126</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06859307556120649</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02827921191579932</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08449545847980387</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06330095351628851</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08321940331358886</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1142408822114568</v>
+        <v>0.06471498379531843</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08299050827647234</v>
+        <v>0.08390556022241122</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0271542955302021</v>
+        <v>0.1075485280146298</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08449545847980387</v>
+        <v>0.08342884292148794</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02726362887772278</v>
+        <v>0.04281394682044071</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06859280703274245</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02814801440924249</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08529258544659447</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.06344375422816859</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08400449202409443</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1143360998453976</v>
+        <v>0.06416120203928169</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08377343759983528</v>
+        <v>0.08469712211130188</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02726362887772278</v>
+        <v>0.1079922388747124</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08529258544659447</v>
+        <v>0.08421590747735104</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02727281967871101</v>
+        <v>0.04205884692356024</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06859253850427845</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02791521016237296</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08608971241338507</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06278025920233238</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08478958073459998</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1130217385188062</v>
+        <v>0.06349633424461101</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08455636692319823</v>
+        <v>0.08548868400019256</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02727281967871101</v>
+        <v>0.1066279535763065</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08608971241338507</v>
+        <v>0.08500297203321412</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02698150206741501</v>
+        <v>0.04131633527525838</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06859226997581443</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02778081987545035</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08688683938017569</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06221093139106509</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08557466944510554</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1121978101096662</v>
+        <v>0.06342201491512198</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08533929624656118</v>
+        <v>0.08628024588908324</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02698150206741501</v>
+        <v>0.1067549453442347</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08688683938017569</v>
+        <v>0.08579003658907723</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02688931017808302</v>
+        <v>0.04058687046899728</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06859200144735041</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02754486424873426</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08768396634696629</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.06173623374665207</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08635975815561109</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1116413282670528</v>
+        <v>0.06273987855463017</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08612222556992413</v>
+        <v>0.08707180777797391</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02688931017808302</v>
+        <v>0.1065724874033199</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08768396634696629</v>
+        <v>0.08657710114494031</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02699587814496322</v>
+        <v>0.03987091109820828</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06859173291888639</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02760736398248426</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08848109331375688</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06135662922137866</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08714484686611663</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1115978498296332</v>
+        <v>0.06205155966695103</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08690515489328707</v>
+        <v>0.08786336966686459</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02699587814496322</v>
+        <v>0.1062798529783849</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08848109331375688</v>
+        <v>0.08736416570080341</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02680084010230385</v>
+        <v>0.03916891575641583</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06859146439042237</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02746833977695999</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08927822028054749</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.06067258076753013</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08792993557662221</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1096271173474231</v>
+        <v>0.06065869275590019</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08768808421665002</v>
+        <v>0.08865493155575525</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02680084010230385</v>
+        <v>0.1046763152942524</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08927822028054749</v>
+        <v>0.08815123025666652</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02660383018435312</v>
+        <v>0.03848134303705068</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06859119586195836</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02722781233242105</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09007534724733809</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.05988455133739187</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08871502428712776</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1088675203980126</v>
+        <v>0.06066291232529317</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08847101354001297</v>
+        <v>0.08944649344464592</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02660383018435312</v>
+        <v>0.1046611475757452</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09007534724733809</v>
+        <v>0.0889382948125296</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02670448252535929</v>
+        <v>0.03780865153357502</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06859092733349434</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02718580234912706</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.0908724742141287</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05949300388324918</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08950011299763332</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1072574485589912</v>
+        <v>0.05976585287894554</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08925394286337592</v>
+        <v>0.0902380553335366</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02670448252535929</v>
+        <v>0.104133623047686</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0908724742141287</v>
+        <v>0.0897253593683927</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02660243125957053</v>
+        <v>0.03715129983942268</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06859065880503032</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02694233052733758</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0916696011809193</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05879840135738737</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09028520170813886</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1048352914079488</v>
+        <v>0.05926914892067286</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09003687218673886</v>
+        <v>0.09102961722242726</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02660243125957053</v>
+        <v>0.1038930149348977</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0916696011809193</v>
+        <v>0.09051242392425579</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02629731052123506</v>
+        <v>0.03650974654811313</v>
       </c>
       <c r="G181" t="n">
+        <v>0.0685903902765663</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02679741756731222</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.0924667281477099</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05840120671209176</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09107029041864442</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1026394385224751</v>
+        <v>0.05857443495429063</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0908198015101018</v>
+        <v>0.09182117911131794</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02629731052123506</v>
+        <v>0.1029385964622032</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0924667281477099</v>
+        <v>0.09129948848011889</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02638875444460112</v>
+        <v>0.03588445025307954</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06859012174810229</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02665108416931061</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09326385511450051</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05810188289964771</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09185537912914998</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.10090827948016</v>
+        <v>0.05768334548361445</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09160273083346476</v>
+        <v>0.09261274100020861</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02638875444460112</v>
+        <v>0.101969640854425</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09326385511450051</v>
+        <v>0.09208655303598197</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02597639716391693</v>
+        <v>0.03527586954778412</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06858985321963827</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02660335103359235</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.0940609820812911</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05750089287234053</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09264046783965554</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.09788020385859336</v>
+        <v>0.05659751501245983</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0923856601568277</v>
+        <v>0.09340430288909929</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02597639716391693</v>
+        <v>0.101585421336386</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0940609820812911</v>
+        <v>0.09287361759184508</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0258598728134307</v>
+        <v>0.03468446302566365</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06858958469117425</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02635423886041703</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.0948581090480817</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05759869958245553</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09342555655016109</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09599360123536466</v>
+        <v>0.05611857804464232</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09316858948019065</v>
+        <v>0.09419586477798995</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0258598728134307</v>
+        <v>0.100785211132909</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0948581090480817</v>
+        <v>0.09366068214770816</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02583881552739065</v>
+        <v>0.0341106892802318</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06858931616271023</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02630376835004426</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09565523601487232</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05699576598227807</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09421064526066664</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.09338686118806383</v>
+        <v>0.05524816908397753</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0939515188035536</v>
+        <v>0.09498742666688062</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02583881552739065</v>
+        <v>0.1007682834688168</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09565523601487232</v>
+        <v>0.09444774670357126</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02581285944004498</v>
+        <v>0.03355500690492461</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06858904763424623</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02605196020273365</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09645236298166292</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05609255502409338</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.0949957339711722</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.09069837329428077</v>
+        <v>0.05498792263428093</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09473444812691653</v>
+        <v>0.0957789885557713</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02581285944004498</v>
+        <v>0.09973391156893219</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09645236298166292</v>
+        <v>0.09523481125943435</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02558163868564194</v>
+        <v>0.03301787449320426</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0685887791057822</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02589883511874479</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09724948994845352</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05558952966018688</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09578082268167776</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.0882665271316051</v>
+        <v>0.05433947319936813</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09551737745027949</v>
+        <v>0.09657055044466197</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02558163868564194</v>
+        <v>0.09998136865807788</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09724948994845352</v>
+        <v>0.09602187581529745</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02534478739842976</v>
+        <v>0.03249975063851081</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06858851057731818</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0256444137983373</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09804661691524412</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05548715284284389</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09656591139218332</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.0872297122776266</v>
+        <v>0.05390445528305465</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09630030677364243</v>
+        <v>0.09736211233355264</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02534478739842976</v>
+        <v>0.0992099279610768</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09804661691524412</v>
+        <v>0.09680894037116054</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0254019397126566</v>
+        <v>0.03200109393435151</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06858824204885416</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02578871694177078</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09884374388203472</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.05508420904766537</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09735100010268886</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.0842263183099351</v>
+        <v>0.05298450338915603</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09708323609700538</v>
+        <v>0.09815367422244332</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0254019397126566</v>
+        <v>0.0976188627027515</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09884374388203472</v>
+        <v>0.09759600492702364</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02515272976257071</v>
+        <v>0.03152049038419487</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06858797352039014</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02543176524930482</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09964087084882534</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.05387218864219684</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09813608881319442</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.08199473480612046</v>
+        <v>0.05218125202148782</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09786616542036833</v>
+        <v>0.09894523611133399</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02515272976257071</v>
+        <v>0.09750744610792494</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09964087084882534</v>
+        <v>0.09838306948288672</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02499679168242033</v>
+        <v>0.03104716304167987</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06858770499192614</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02537357942119904</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1004379978156159</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.05335040549944267</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09892117752369997</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.08147335134377232</v>
+        <v>0.05159633568386565</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09864909474373128</v>
+        <v>0.09973679800022466</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02499679168242033</v>
+        <v>0.09667495140141991</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1004379978156159</v>
+        <v>0.09917013403874982</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02473348136421596</v>
+        <v>0.03057969791027806</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0685874364634621</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02511418015771302</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1012351247824065</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05311953274268044</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09970626623420553</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07960055750048062</v>
+        <v>0.05163138888010493</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09943202406709423</v>
+        <v>0.1005283598891153</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02473348136421596</v>
+        <v>0.09642065180805903</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1012351247824065</v>
+        <v>0.09995719859461291</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02454470124159139</v>
+        <v>0.03011855358349236</v>
       </c>
       <c r="G193" t="n">
+        <v>0.0685871679349981</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0251511646203831</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1020322517491971</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05298024349518771</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1004913549447111</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07791474285383487</v>
+        <v>0.05077536714423833</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1002149533904572</v>
+        <v>0.101319921778006</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02454470124159139</v>
+        <v>0.09499105927466828</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1020322517491971</v>
+        <v>0.100744263150476</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02432193352659623</v>
+        <v>0.02966418865476443</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06858689940653408</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02478184288318123</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1028293787159877</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05193321088024197</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1012764436552166</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.07782997777724115</v>
+        <v>0.05041289602113802</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1009978827138201</v>
+        <v>0.1021114836668967</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02432193352659623</v>
+        <v>0.09462573720726153</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1028293787159877</v>
+        <v>0.1015313277063391</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02406823053864608</v>
+        <v>0.02921706171755645</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06858663087807007</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02480657924361786</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1036265056827783</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05167910802112075</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1020615323657222</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07664107479376303</v>
+        <v>0.04924465294100677</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1017808120371831</v>
+        <v>0.1029030455557873</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02406823053864608</v>
+        <v>0.09313285487237477</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1036265056827783</v>
+        <v>0.1023183922622022</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02408664459715655</v>
+        <v>0.02877763136531161</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06858636234960604</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02452574465821006</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1044236326495689</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05071860804110173</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1028466210762277</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.07639133292916517</v>
+        <v>0.04877138244398391</v>
       </c>
       <c r="M196" t="n">
-        <v>0.102563741360546</v>
+        <v>0.103694607444678</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02408664459715655</v>
+        <v>0.09152077097328831</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1044236326495689</v>
+        <v>0.1031054568180653</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02378022802154328</v>
+        <v>0.02834635619153038</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06858609382114203</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02443971008347502</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1052207596163595</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05065238406346226</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1036317097867333</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.07477867135362615</v>
+        <v>0.0482938290702089</v>
       </c>
       <c r="M197" t="n">
-        <v>0.103346670683909</v>
+        <v>0.1044861693335687</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02378022802154328</v>
+        <v>0.09019784421328231</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1052207596163595</v>
+        <v>0.1038925213739284</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02345203313122186</v>
+        <v>0.0279236947896556</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06858582529267801</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02414884647592989</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1060178865831501</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04998110921148</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1044167984972389</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.07450100923732461</v>
+        <v>0.04761273735982102</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1041296000072719</v>
+        <v>0.1052777312224594</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02345203313122186</v>
+        <v>0.08887243329563732</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1060178865831501</v>
+        <v>0.1046795859297915</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02290511224560793</v>
+        <v>0.02751010575314947</v>
       </c>
       <c r="G199" t="n">
+        <v>0.068585556764214</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02375352479209183</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1068150135499407</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04920545660843245</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1052018872077444</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.07365626575043932</v>
+        <v>0.04692885185295964</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1049125293306348</v>
+        <v>0.10606929311135</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02290511224560793</v>
+        <v>0.08695289692363323</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1068150135499407</v>
+        <v>0.1054666504856546</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02244251768411709</v>
+        <v>0.02710604767545671</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06858528823574997</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02385411598847796</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1076121405167313</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04842609937759718</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.10598697591825</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.07294236006314847</v>
+        <v>0.04684291708976407</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1056954586539978</v>
+        <v>0.1068608550002407</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02244251768411709</v>
+        <v>0.08544759380055073</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1076121405167313</v>
+        <v>0.1062537150415177</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02226730176616494</v>
+        <v>0.02671197915007477</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06858501970728596</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02335099102160546</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1084092674835219</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04824371064225169</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1067720646287555</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.07315721134563097</v>
+        <v>0.04575567761037377</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1064783879773607</v>
+        <v>0.1076524168891314</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02226730176616494</v>
+        <v>0.0837648826296698</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1084092674835219</v>
+        <v>0.1070407795973808</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02198251681116711</v>
+        <v>0.02632835877044797</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06858475117882194</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02334452084799145</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1092063944503126</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04775896352567358</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1075571533392611</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.07249873876806534</v>
+        <v>0.04566787795492797</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1072613173007237</v>
+        <v>0.1084439787780221</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02198251681116711</v>
+        <v>0.08291312211427082</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1092063944503126</v>
+        <v>0.1078278441532439</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02129121513853924</v>
+        <v>0.02595564513003845</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06858448265035792</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02323507642415309</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1100035214171032</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04677253115114036</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1083422420497667</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07166486150063012</v>
+        <v>0.04508026266356613</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1080442466240866</v>
+        <v>0.1092355406669127</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02129121513853924</v>
+        <v>0.08060067095763412</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1100035214171032</v>
+        <v>0.1086149087091069</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02109644906769689</v>
+        <v>0.02559429682229294</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0685842141218939</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02292302870660755</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1108006483838938</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.04598508664192952</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1091273307602722</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.07035349871350405</v>
+        <v>0.04439357627642751</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1088271759474496</v>
+        <v>0.1100271025558034</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02109644906769689</v>
+        <v>0.07903588786303989</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1108006483838938</v>
+        <v>0.10940197326497</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02070127091805575</v>
+        <v>0.02524477244070508</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06858394559342988</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02270874865187197</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1115977753506844</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04579730312131872</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1099124194707777</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.07086256957686554</v>
+        <v>0.04350856333365155</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1096101052708125</v>
+        <v>0.1108186644446941</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02070127091805575</v>
+        <v>0.07622713153376853</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1115977753506844</v>
+        <v>0.1101890378208331</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02030873300903137</v>
+        <v>0.02490753057872105</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06858367706496588</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02249260721646351</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.112394902317475</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04540985371258541</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1106975081812833</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.07058999326089327</v>
+        <v>0.04272596837537751</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1103930345941755</v>
+        <v>0.1116102263335847</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02030873300903137</v>
+        <v>0.07448276067310028</v>
       </c>
       <c r="O206" t="n">
-        <v>0.112394902317475</v>
+        <v>0.1109761023766962</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0199218876600394</v>
+        <v>0.02458302982980301</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06858340853650186</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.0220749753568993</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1131920292842656</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0445234115390071</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1114825968917889</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.06973368893576581</v>
+        <v>0.04264653594174481</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1111759639175384</v>
+        <v>0.1124017882224754</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0199218876600394</v>
+        <v>0.07321113398431534</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1131920292842656</v>
+        <v>0.1117631669325593</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01964378719049541</v>
+        <v>0.02427172878739986</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06858314000803784</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0218562240296965</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1139891562510562</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04353864972386146</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1122676856022944</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.06889157577166188</v>
+        <v>0.04237101057289278</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1119588932409014</v>
+        <v>0.1131933501113661</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01964378719049541</v>
+        <v>0.07082061017069419</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1139891562510562</v>
+        <v>0.1125502314884224</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01917748391981507</v>
+        <v>0.02397408604500091</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06858287147957381</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02193672419137226</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1147862832178468</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.04325624139042591</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1130527743128</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.06916157293876002</v>
+        <v>0.04150013680896078</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1127418225642643</v>
+        <v>0.1139849120002567</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01917748391981507</v>
+        <v>0.06851954793551684</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1147862832178468</v>
+        <v>0.1133372960442855</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01872603016741398</v>
+        <v>0.02369056019605448</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06858260295110981</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02161684679844372</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1155834101846374</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04317685966197807</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1138378630233055</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.0682415996072388</v>
+        <v>0.04123465919008815</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1135247518876273</v>
+        <v>0.1147764738891474</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01872603016741398</v>
+        <v>0.06681630598206384</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1155834101846374</v>
+        <v>0.1141243606001486</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01829247825270773</v>
+        <v>0.02342160983402269</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06858233442264579</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02139696280742805</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.116380537151428</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.04260117766179544</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1146229517338111</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.06802957494727674</v>
+        <v>0.04007532225641425</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1143076812109902</v>
+        <v>0.1155680357780381</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01829247825270773</v>
+        <v>0.06491924301361518</v>
       </c>
       <c r="O211" t="n">
-        <v>0.116380537151428</v>
+        <v>0.1149114251560117</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01807988049511197</v>
+        <v>0.02316769355235704</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06858206589418177</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02117744317484241</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1171776641182186</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.04202986851315557</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1154080404443166</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.06782341812905257</v>
+        <v>0.04012287054807845</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1150906105343532</v>
+        <v>0.1163595976669288</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01807988049511197</v>
+        <v>0.06293671773345139</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1171776641182186</v>
+        <v>0.1156984897118748</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0178912892140423</v>
+        <v>0.02292926994454178</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06858179736571775</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02095865885720391</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1179747910850092</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04136360533933606</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1161931291548222</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.0665210483227448</v>
+        <v>0.03947804860522006</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1158735398577161</v>
+        <v>0.1171511595558195</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0178912892140423</v>
+        <v>0.06047708884485276</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1179747910850092</v>
+        <v>0.1164855542677379</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01762975672891434</v>
+        <v>0.02270679760402775</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06858152883725373</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02074098081102974</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1187719180517998</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04080306126361433</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1169782178653277</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.06702038469853205</v>
+        <v>0.03824160096797849</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1166564691810791</v>
+        <v>0.1179427214447101</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01762975672891434</v>
+        <v>0.05954871505109938</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1187719180517998</v>
+        <v>0.117272618823601</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01739833535914369</v>
+        <v>0.02270679760402775</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06858152883725373</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02042477999283704</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1195690450185904</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.040348909409268</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1177633065758333</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.06561934642659289</v>
+        <v>0.0379142721764931</v>
       </c>
       <c r="M215" t="n">
-        <v>0.117439398504442</v>
+        <v>0.1187342833336008</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01739833535914369</v>
+        <v>0.05655995505547168</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1195690450185904</v>
+        <v>0.1180596833794641</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01700007742414598</v>
+        <v>0.02212694198862045</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06848569354482965</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02011042735914295</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.120366171985381</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.0393018228995746</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1185483952863389</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.06641585267710598</v>
+        <v>0.03749680677090311</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1182223278278049</v>
+        <v>0.1195258452224915</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01700007742414598</v>
+        <v>0.0550191675612498</v>
       </c>
       <c r="O216" t="n">
-        <v>0.120366171985381</v>
+        <v>0.1188467479353272</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0168371804046082</v>
+        <v>0.02155369915568852</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06838985825240558</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01999829386646458</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1211632989521716</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.0392624748578117</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1193334839968444</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.06570782262024993</v>
+        <v>0.03728994929134805</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1190052571511679</v>
+        <v>0.1203174071113821</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0168371804046082</v>
+        <v>0.05303471127171427</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1211632989521716</v>
+        <v>0.1196338124911902</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01668678913467499</v>
+        <v>0.02098740895716706</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06829402295998151</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0196887504713192</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1219604259189622</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03823153840725679</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.12011857270735</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.06439317542620332</v>
+        <v>0.03659444427796715</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1197881864745308</v>
+        <v>0.1211089690002728</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01668678913467499</v>
+        <v>0.05181494489014515</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1219604259189622</v>
+        <v>0.1204208770470534</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01683761398842964</v>
+        <v>0.02042841124499131</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06819818766755743</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01958216813022383</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1227575528857528</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03760968667118744</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1209036614178555</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.0642698302651446</v>
+        <v>0.03591103627089984</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1205711157978938</v>
+        <v>0.1219005308891635</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01683761398842964</v>
+        <v>0.05036822711982281</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1227575528857528</v>
+        <v>0.1212079416029165</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01668974367693424</v>
+        <v>0.01987704587109636</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06810235237513336</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0195789177996957</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1235546798525434</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03719759277288115</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1216887501283611</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.06403570630725264</v>
+        <v>0.03604046981028541</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1213540451212567</v>
+        <v>0.1226920927780541</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01668974367693424</v>
+        <v>0.04890291666402752</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1235546798525434</v>
+        <v>0.1219950061587795</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01644326691125078</v>
+        <v>0.01933365268741728</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06800651708270927</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01907937043625194</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.124351806819334</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03649592983561556</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1224738388388666</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.06379406895874268</v>
+        <v>0.03528348943626328</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1221369744446197</v>
+        <v>0.1234836546669448</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01644326691125078</v>
+        <v>0.04692737222603954</v>
       </c>
       <c r="O221" t="n">
-        <v>0.124351806819334</v>
+        <v>0.1227820707146426</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01609827240244131</v>
+        <v>0.01879857154588932</v>
       </c>
       <c r="G222" t="n">
+        <v>0.0679106817902852</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01908389699640969</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1251489337861246</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03640537098266813</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1232589275493722</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.06385411315534395</v>
+        <v>0.03454083968897273</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1229199037679826</v>
+        <v>0.1242752165558355</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01609827240244131</v>
+        <v>0.04574995250913921</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1251489337861246</v>
+        <v>0.1235691352705057</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01595484886156785</v>
+        <v>0.01827214229844757</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06781484649786113</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01889286843668612</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1259460607529152</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0357265893373164</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1240440162598778</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.06291612781474692</v>
+        <v>0.03441326510855316</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1237028330913456</v>
+        <v>0.1250667784447262</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01595484886156785</v>
+        <v>0.04387901621660678</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1259460607529152</v>
+        <v>0.1243561998263688</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01601308499969238</v>
+        <v>0.01775470479702715</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06771901120543705</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01870665571359836</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1267431877197058</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03516025802283798</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1248291049703833</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.06268017579468571</v>
+        <v>0.03410151023514391</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1244857624147085</v>
+        <v>0.1258583403336168</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01601308499969238</v>
+        <v>0.04352292205172253</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1267431877197058</v>
+        <v>0.1251432643822319</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.015973069527877</v>
+        <v>0.01724659889356314</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06762317591301296</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01842562978366358</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1275403146864964</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03530705016251032</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1256141936808889</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.06214631995289449</v>
+        <v>0.03350631960888431</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1252686917380715</v>
+        <v>0.1266499022225075</v>
       </c>
       <c r="N225" t="n">
-        <v>0.015973069527877</v>
+        <v>0.04219002871776678</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1275403146864964</v>
+        <v>0.125930328938095</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01583489115718367</v>
+        <v>0.0167481644399908</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06752734062058889</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.0182501616033989</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.128337441653287</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03466214954536118</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1263992823913944</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.06211462314710736</v>
+        <v>0.03332843776991376</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1260516210614344</v>
+        <v>0.1274414641113982</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01583489115718367</v>
+        <v>0.04168869491801963</v>
       </c>
       <c r="O226" t="n">
-        <v>0.128337441653287</v>
+        <v>0.1267173934939581</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01569863859867444</v>
+        <v>0.01625974128824521</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06743150532816482</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.0179806221293215</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1291345686200776</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03372005038842543</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1271843711019</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.0614851482350583</v>
+        <v>0.03266860925837156</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1268345503847974</v>
+        <v>0.1282330260002889</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01569863859867444</v>
+        <v>0.04052727935576173</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1291345686200776</v>
+        <v>0.1275044580498212</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01556440056341137</v>
+        <v>0.0157816692902615</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06733567003574074</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01791738231794852</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1299316955868682</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03318082392569616</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1279694598124055</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06015795807448149</v>
+        <v>0.03272757861439718</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1276174797081603</v>
+        <v>0.1290245878891795</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01556440056341137</v>
+        <v>0.04041414073427302</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1299316955868682</v>
+        <v>0.1282915226056843</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01543226576245642</v>
+        <v>0.01531428829797476</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06723983474331666</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01796081312579714</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1307288225536588</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03314454235280423</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1287545485229111</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06043311552311081</v>
+        <v>0.03210609037812978</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1284004090315232</v>
+        <v>0.1298161497780702</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01543226576245642</v>
+        <v>0.03995763775683392</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1307288225536588</v>
+        <v>0.1290785871615474</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01510232290687166</v>
+        <v>0.01485793816332022</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06714399945089258</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01761124846629966</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1315259495204494</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03261127786538076</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1295396372334166</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06041068343868067</v>
+        <v>0.03190477727987126</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1291833383548862</v>
+        <v>0.1306077116669609</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01510232290687166</v>
+        <v>0.03926525781242379</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1315259495204494</v>
+        <v>0.1298656517174105</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01497466070771911</v>
+        <v>0.01441295873823298</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06704816415846851</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01736529810850698</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.13232307648724</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03198110265905663</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1303247259439222</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.05979072467892504</v>
+        <v>0.0317127421913056</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1299662676782491</v>
+        <v>0.1313992735558515</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01497466070771911</v>
+        <v>0.03904423954923159</v>
       </c>
       <c r="O231" t="n">
-        <v>0.13232307648724</v>
+        <v>0.1306527162732736</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01504936787606079</v>
+        <v>0.01397968987464816</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06695232886604444</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01752059849726643</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1331202034540306</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03215408892946295</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1311098146544278</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.05897330210157792</v>
+        <v>0.03142262377542021</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1307491970016121</v>
+        <v>0.1321908354447422</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01504936787606079</v>
+        <v>0.03852797543114883</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1331202034540306</v>
+        <v>0.1314397808291367</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01472653312295873</v>
+        <v>0.01355847142450085</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06685649357362035</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01727719486738671</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1339173304208212</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03113030887223059</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1318949033649333</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.05805847856437352</v>
+        <v>0.03073472462773608</v>
       </c>
       <c r="M233" t="n">
-        <v>0.131532126324975</v>
+        <v>0.1329823973336329</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01472653312295873</v>
+        <v>0.03831657890778128</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1339173304208212</v>
+        <v>0.1322268453849998</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01460624515947494</v>
+        <v>0.01314964323972629</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06676065828119628</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01703513245367651</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1347144573876118</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03140983468299058</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1326799920754389</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.05784631692504583</v>
+        <v>0.0303493473437742</v>
       </c>
       <c r="M234" t="n">
-        <v>0.132315055648338</v>
+        <v>0.1337739592225236</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01460624515947494</v>
+        <v>0.03901016342873465</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1347144573876118</v>
+        <v>0.1330139099408628</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01458859269667147</v>
+        <v>0.01275354517225957</v>
       </c>
       <c r="G235" t="n">
+        <v>0.0666648229887722</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01689445649094452</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1355115843544024</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03099273855737394</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1334650807859444</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.05773688004132899</v>
+        <v>0.02996679451905579</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1330979849717009</v>
+        <v>0.1345655211114142</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01458859269667147</v>
+        <v>0.03880884244361449</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1355115843544024</v>
+        <v>0.133800974496726</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01427366444561032</v>
+        <v>0.01237051707403578</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06656898769634811</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01685521221399944</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.136308711321193</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02977909269101164</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.13425016949645</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.0574302307709571</v>
+        <v>0.02998736874910185</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1338809142950639</v>
+        <v>0.1353570830003049</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01427366444561032</v>
+        <v>0.03831272940202646</v>
       </c>
       <c r="O236" t="n">
-        <v>0.136308711321193</v>
+        <v>0.134588039052589</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01416154911735354</v>
+        <v>0.01200089879699014</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06647315240392404</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01671744485764994</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1371058382879836</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.0293689692795347</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1350352582069555</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.05652643197166424</v>
+        <v>0.02971137262943341</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1346638436184268</v>
+        <v>0.1361486448891956</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01416154911735354</v>
+        <v>0.03792193775357638</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1371058382879836</v>
+        <v>0.1353751036084521</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01405233542296312</v>
+        <v>0.01164503019305773</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06637731711149997</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01638119965670472</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1379029652547742</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02906244051857404</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1358203469174611</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.05692554650118453</v>
+        <v>0.02923910875557156</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1354467729417898</v>
+        <v>0.1369402067780862</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01405233542296312</v>
+        <v>0.03793658094786989</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1379029652547742</v>
+        <v>0.1361621681643152</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01404611207350111</v>
+        <v>0.01130325111417371</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06628148181907589</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01644652184597245</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1387000922215648</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02865957860376067</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1366054356279666</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.05642763721725202</v>
+        <v>0.02897087972303736</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1362297022651527</v>
+        <v>0.1377317686669769</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01404611207350111</v>
+        <v>0.03745677243451268</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1387000922215648</v>
+        <v>0.1369492327201783</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01384296778002955</v>
+        <v>0.01097451368353803</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06618564652665182</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01611345666026189</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1394972191883554</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02856045573072566</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1373905243384722</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.05553276697760084</v>
+        <v>0.02860698812735191</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1370126315885157</v>
+        <v>0.1385233305558676</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01384296778002955</v>
+        <v>0.03698262566311022</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1394972191883554</v>
+        <v>0.1377362972760414</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01404299125361044</v>
+        <v>0.01065083138067507</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06608981123422775</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01618204933438167</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.140294346155146</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02856514409509997</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1381756130489777</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.05504099863996503</v>
+        <v>0.02874773656403617</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1377955609118786</v>
+        <v>0.1393148924447583</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01404299125361044</v>
+        <v>0.03711425408326852</v>
       </c>
       <c r="O241" t="n">
-        <v>0.140294346155146</v>
+        <v>0.1385233618319045</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01394627120530582</v>
+        <v>0.01033115632878478</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06599397594180367</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01615234510314048</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1410914731219367</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02807371589251451</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1389607017594833</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.05475239506207868</v>
+        <v>0.02809342762861133</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1385784902352415</v>
+        <v>0.1401064543336489</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01394627120530582</v>
+        <v>0.03755177114459296</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1410914731219367</v>
+        <v>0.1393104263877676</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01365289634617771</v>
+        <v>0.0100158283798023</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0658981406493796</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01582438920134704</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1418886000887273</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02698624331860033</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1397457904699889</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.05446701910167606</v>
+        <v>0.0282443639165984</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1393614195586045</v>
+        <v>0.1408980162225396</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01365289634617771</v>
+        <v>0.0361952902966895</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1418886000887273</v>
+        <v>0.1400974909436307</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01366295538728812</v>
+        <v>0.009705187385662721</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06580230535695551</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01569822686381003</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1426857270555179</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02700279856898838</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1405308791804944</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.05398493361649093</v>
+        <v>0.02770084802351844</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1401443488819674</v>
+        <v>0.1416895781114303</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01366295538728812</v>
+        <v>0.03674492498916354</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1426857270555179</v>
+        <v>0.1408845554994938</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01337653703969911</v>
+        <v>0.009399573198301266</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06570647006453144</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01547390332533816</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1434828540223085</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02692345383930975</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.141315967891</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0532062014642577</v>
+        <v>0.02756318254489254</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1409272782053304</v>
+        <v>0.1424811400003209</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01337653703969911</v>
+        <v>0.035900788671621</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1434828540223085</v>
+        <v>0.1416716200553569</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01329373001447269</v>
+        <v>0.009099325669653019</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06561063477210737</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01545146382074006</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1442799809890991</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02604828132519532</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1421010566015055</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.05373088550271021</v>
+        <v>0.0271316700762417</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1417102075286933</v>
+        <v>0.1432727018892116</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01329373001447269</v>
+        <v>0.03656299479366731</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1442799809890991</v>
+        <v>0.14245868461122</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01321462302267087</v>
+        <v>0.008804784651653137</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06551479947968329</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01533095358482449</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1450771079558897</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02567735322227616</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1428861453120111</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05285904858958268</v>
+        <v>0.02720661321308709</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1424931368520563</v>
+        <v>0.1440642637781023</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01321462302267087</v>
+        <v>0.03583165680490841</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1450771079558897</v>
+        <v>0.1432457491670831</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01323930477535568</v>
+        <v>0.008516289996236708</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0654189641872592</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01541241785240013</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1458742349226803</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02511074172618316</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1436712340225166</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.05329075358260926</v>
+        <v>0.02708831455094965</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1432760661754192</v>
+        <v>0.144855825666993</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01323930477535568</v>
+        <v>0.03660688815494983</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1458742349226803</v>
+        <v>0.1440328137229462</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01336786398358916</v>
+        <v>0.008234181555338935</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06532312889483513</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01519590185827563</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1466713618894709</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02514851903254745</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1444563227330222</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05202606333952392</v>
+        <v>0.02687707668535055</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1440589954987822</v>
+        <v>0.1456473875558836</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01336786398358916</v>
+        <v>0.03618880229339722</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1466713618894709</v>
+        <v>0.1448198782788093</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01320038935843333</v>
+        <v>0.00795879918089492</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06522729360241106</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01518145083725972</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1474684888562615</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02509075733699989</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1452414114435277</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.05176504071806082</v>
+        <v>0.02687320221181078</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1448419248221451</v>
+        <v>0.1464389494447743</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01320038935843333</v>
+        <v>0.0357775126698564</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1474684888562615</v>
+        <v>0.1456069428346724</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0130369696109502</v>
+        <v>0.00769048272483977</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06513145830998697</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01486911002416107</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1482656158230521</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02473752883517158</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1460265001540333</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05140774857595398</v>
+        <v>0.02627699372585143</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1456248541455081</v>
+        <v>0.147230511333665</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0130369696109502</v>
+        <v>0.03567313273393291</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1482656158230521</v>
+        <v>0.1463940073905354</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01317769345220184</v>
+        <v>0.007429572039108705</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0650356230175629</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01475892465378838</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1490627427898427</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02398890572269338</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1468115888645389</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.0514542497709376</v>
+        <v>0.02618875382299357</v>
       </c>
       <c r="M252" t="n">
-        <v>0.146407783468871</v>
+        <v>0.1480220732225556</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01317769345220184</v>
+        <v>0.03587577593523245</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1490627427898427</v>
+        <v>0.1471810719463985</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01312264959325023</v>
+        <v>0.007176406975636797</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06493978772513882</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01485093996095035</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1498598697566333</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02414496019519638</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1475966775750444</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05120460716074571</v>
+        <v>0.02650878509875831</v>
       </c>
       <c r="M253" t="n">
-        <v>0.147190712792234</v>
+        <v>0.1488136351114463</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01312264959325023</v>
+        <v>0.03558555572336075</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1498598697566333</v>
+        <v>0.1479681365022616</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01297192674515739</v>
+        <v>0.006931327386359196</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06484395243271475</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01444520118045567</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1506569967234239</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02360576444831156</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.14838176628555</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05055888360311239</v>
+        <v>0.0263373901486666</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1479736421155969</v>
+        <v>0.149605197000337</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01297192674515739</v>
+        <v>0.03530258554792343</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1506569967234239</v>
+        <v>0.1487552010581247</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01272561361898539</v>
+        <v>0.006694673123211016</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06474811714029066</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.014441753547113</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1514541236902145</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02277139067766992</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1491668549960555</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.04961714195577172</v>
+        <v>0.02587487156823962</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1487565714389599</v>
+        <v>0.1503967588892277</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01272561361898539</v>
+        <v>0.03582697885852631</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1514541236902145</v>
+        <v>0.1495422656139878</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01298379892579621</v>
+        <v>0.006466784038127435</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06465228184786659</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01424064229573108</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1522512506570051</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.0231419110789024</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1499519437065611</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.04987944507645786</v>
+        <v>0.02552153195299833</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1495395007623228</v>
+        <v>0.1511883207781183</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01298379892579621</v>
+        <v>0.03595884910477481</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1522512506570051</v>
+        <v>0.1503293301698509</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01294657137665191</v>
+        <v>0.006247999983043574</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06455644655544251</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01414191266111854</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1530483776237957</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02251739784764001</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1507370324170666</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05014585582290482</v>
+        <v>0.02527767389846391</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1503224300856857</v>
+        <v>0.151979882667009</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01294657137665191</v>
+        <v>0.03469830973627486</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1530483776237957</v>
+        <v>0.151116394725714</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01271401968261449</v>
+        <v>0.006038660809894569</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06446061126301844</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01424560987808414</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1538455045905863</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02199792317951377</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1515221211275722</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.04881643705284677</v>
+        <v>0.02514360000015733</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1511053594090487</v>
+        <v>0.1527714445558997</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01271401968261449</v>
+        <v>0.03534547420263201</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1538455045905863</v>
+        <v>0.1519034592815771</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.012886232554746</v>
+        <v>0.005839106370615521</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06436477597059435</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01405177918143652</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1546426315573769</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02158355927015462</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1523072098380777</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.04869125162401777</v>
+        <v>0.02551961285359969</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1518882887324116</v>
+        <v>0.1535630064447903</v>
       </c>
       <c r="N259" t="n">
-        <v>0.012886232554746</v>
+        <v>0.03480045595345194</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1546426315573769</v>
+        <v>0.1526905238374402</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01286329870410845</v>
+        <v>0.005649676517141634</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06426894067817028</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.0141604658059844</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1554397585241675</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02137437831519359</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1530922985485833</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.04827036239415178</v>
+        <v>0.02500601505431202</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1526712180557746</v>
+        <v>0.154354568333681</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01286329870410845</v>
+        <v>0.03486336843834037</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1554397585241675</v>
+        <v>0.1534775883933033</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01284530684176387</v>
+        <v>0.005470711101407996</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06417310538574621</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01397171498653646</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1562368854909581</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02117045251026162</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1538773872590889</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.04775383222098317</v>
+        <v>0.02540310919781544</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1534541473791375</v>
+        <v>0.1551461302225717</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01284530684176387</v>
+        <v>0.03503432510690307</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1562368854909581</v>
+        <v>0.1542646529491664</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01273234567877425</v>
+        <v>0.005302549975349763</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06407727009332213</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01388557195790138</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1570340124577487</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02097185405098981</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1546624759695944</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.04804172396224582</v>
+        <v>0.02491119787963098</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1542370767025005</v>
+        <v>0.1559376921114624</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01273234567877425</v>
+        <v>0.03511343940874551</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1570340124577487</v>
+        <v>0.1550517175050295</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01252450392620169</v>
+        <v>0.005145532990902035</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06398143480089806</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01370208195488787</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1578311394245393</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02047865513300903</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1554475646801</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.04753410047567391</v>
+        <v>0.02473058369527972</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1550200060258634</v>
+        <v>0.156729254000353</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01252450392620169</v>
+        <v>0.03550082479347344</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1578311394245393</v>
+        <v>0.1558387820608926</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01252187029510816</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06388559950847399</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01372129021230463</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1586282663913299</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02029092795195031</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1562326533906055</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.04793102461900139</v>
+        <v>0.02456156924028277</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1558029353492264</v>
+        <v>0.1575208158892437</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01252187029510816</v>
+        <v>0.03539659471069262</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1586282663913299</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1566258466167557</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06387244161373713</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005618059481098177</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06387271014220115</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006232542467001743</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06387297867066516</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006843405783465865</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06387324719912919</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007450606256166031</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0638735157275932</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008054100710857541</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06387378425605722</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008653845973269063</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06387405278452123</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009249798869155092</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06387432131298526</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009841916224192421</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06387458984144927</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01043015486413572</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06387485836991329</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01101447161471365</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06387512689837731</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01159482330168002</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06387539542684133</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01217116675071297</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06387566395530535</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01274345878756651</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06387593248376935</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0133116562379693</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06387620101223337</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01387571592767442</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06387646954069739</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01443559468236146</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06387673806916142</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01499124932778369</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06387700659762542</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01554263668966978</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06387727512608944</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01608971359377209</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06387754365455346</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01663243686577166</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06387781218301748</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01717076333142105</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06387808071148149</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0177046498164489</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06387834923994551</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01823405314660682</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06387861776840953</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01875893014757739</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06387888629687355</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01927941394005369</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06387915482533757</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01979651911941238</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06387942335380158</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02031037880634575</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06387969188226561</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02082094982653771</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06387996041072962</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02132818900573936</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06388022893919364</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02183205316967934</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06388049746765764</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02233249914410804</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06388076599612168</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02282948375471053</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06388103452458568</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02332296382723732</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0638813030530497</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02381289618741707</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06388157158151371</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02429923766099952</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06388184010997774</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02478194507367099</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06388210863844175</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02526097525118137</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06388237716690577</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02573628501925931</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06388264569536979</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02620783120365393</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06388291422383381</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02667557063005284</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06388318275229783</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02713946012420526</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06388345128076184</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02759945651183988</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06388371980922586</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02805551661870509</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06388398833768988</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02850759727048988</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0638842568661539</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02895565529294281</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06388452539461791</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02939964751179254</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06388479392308193</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02983953075278677</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06388506245154595</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03027526184161587</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06388533098000997</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03070679760402774</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06388559950847399</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03070679760402775</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06387244161373713</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0311754151169614</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06396881396308925</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03163961887541383</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06406518631244136</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03209928534161761</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06416155866179346</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03255429097780549</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06425793101114557</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03300451224621008</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06435430336049769</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03344982560906402</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0644506757098498</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03389010752859989</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0645470480592019</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03432523446705045</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06464342040855402</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03475508288664829</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06473979275790613</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03517952924962606</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06483616510725825</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03559845001821633</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06493253745661036</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03601172165465186</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06502890980596247</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03641922062116526</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06512528215531459</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03682082337998917</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0652216545046667</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03721640639335615</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0653180268540188</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03760584612349897</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06541439920337092</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03798901903265023</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06551077155272303</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03836580158304258</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06560714390207514</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0387360702369086</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06570351625142724</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03909970145648102</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06579988860077936</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03945657170399244</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06589626095013147</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03980655744167554</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06599263329948359</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04014953513176289</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06608900564883569</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04048538123648722</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0661853779981878</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04081447666396451</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06628175034753991</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04113972455172761</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06637812269689203</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0414615058078925</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06647449504624413</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04177969689469191</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06657086739559624</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04209417427435844</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06666723974494836</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04240481440912471</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06676361209430047</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04271149376122337</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06685998444365257</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04301408879288708</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06695635679300468</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04331247596634852</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0670527291423568</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04360653174384028</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06714910149170891</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04389613258759502</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06724547384106101</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04418115495984538</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06734184619041313</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04446147532282405</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06743821853976524</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04473697013876361</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06753459088911735</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04500751586989671</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06763096323846947</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04527298897845605</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06772733558782158</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04553326592667423</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0678237079371737</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0457882231767839</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06792008028652581</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04603773719101768</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06801645263587791</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04628168443160828</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06811282498523002</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0465199413607883</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06820919733458214</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0467523844407904</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06830556968393425</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04697889013384718</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06840194203328637</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04719933490219132</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06849831438263847</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04741359520805548</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06859468673199058</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04027573013870367</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06859468673199058</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04752204962150337</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07051237260907428</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04762236452782016</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07243005848615797</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04771485743141426</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07434774436324167</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.047799845836694</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07626543024032535</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0478776472480677</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07818311611740905</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04794857916994374</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08010080199449275</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04801295910673045</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08201848787157644</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04807110456283623</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08393617374866014</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04812333304266932</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08585385962574384</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04816996205063816</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08777154550282752</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04821130909115107</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08968923137991122</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04824769166861639</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09160691725699492</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04827942728744247</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09352460313407861</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04830683345203766</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09544228901116231</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04833022766681032</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09735997488824599</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04834992743616877</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09927766076532969</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04836625026452139</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1011953466424134</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0483795136562765</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1031130325194971</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04839003511584247</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1050307183965808</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04839813214762764</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1069484042736645</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04840412225604034</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1088660901507481</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04840832294548895</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1107837760278318</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04841105172038178</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1127014619049155</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04841262608512722</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1146191477819992</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04841336354413359</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1165368336590829</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04841358160180924</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1184545195361666</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04840900681304679</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1203722054132503</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04835069039135959</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.122289891290334</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04822914936479315</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1242075771674177</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04804920636905412</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1261252630445014</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04781568403984918</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1280429489215851</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04753340501288499</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1299606347986688</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04720719192386821</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1318783206757525</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04684186740850554</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1337960065528362</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04644225410250362</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1357136924299199</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04601317464156912</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1376313783070036</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04555945166140873</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1395490641840873</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0450859077977291</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.141466750061171</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04459736568623689</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1433844359382546</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04409864796263879</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1453021218153384</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04359457726264147</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.147219807692422</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04308997622195158</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04258966747627581</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1510551794465894</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04209847366132081</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1529728653236731</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04162121741279326</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1548905512007568</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04116272136639983</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1568082370778405</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04072780815784718</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1587259229549242</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04032130042284199</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1606436088320079</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03994802079709092</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1625612947090916</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03961279191630064</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1644789805861753</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03931144890450261</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.166396666463259</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03902167761148313</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1683143523403427</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03874137735336206</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1702320382174264</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03846973833664169</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1721497240945101</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03820595076782425</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1740674099715938</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03794920485341201</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1759850958486775</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03769869079990724</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1779027817257612</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03745359881381216</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1798204676028448</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03721311910162906</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1817381534799286</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03697644186986018</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1836558393570122</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03674275732500776</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1855735252340959</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03651125567357408</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1874912111111796</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03628112712206139</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1894088969882633</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03605156187697192</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.191326582865347</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03582175014480798</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1932442687424307</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03559088213207177</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1951619546195144</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03535814804526559</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1970796404965981</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03512273809089167</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1989973263736818</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03488384247545226</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2009150122507655</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03464065140544961</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2028326981278492</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03439235508738603</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2047503840049329</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03413814372776371</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2066680698820166</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03387720753308493</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2085857557591003</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03360873670985196</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.210503441636184</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03333192146456701</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2124211275132677</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03304597516824394</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2143388133903514</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03275316638066461</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.216256499267435</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03245547421998544</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2181741851445188</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03215298880434189</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2200918710216024</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03184580025186939</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2220095568986861</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03153399868070333</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2239272427757698</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0312176742089792</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2258449286528535</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03089691695483235</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2277626145299372</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03057181703639826</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2296803004070209</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03024246457181233</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2315979862841046</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02990894967920998</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2335156721611883</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02957136247672666</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.235433358038272</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02922979308249779</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2373510439153557</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02888433161465877</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2392687297924394</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02853506819134505</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2411864156695231</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02818209293069203</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2431041015466068</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02782549595083518</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2450217874236905</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02746536736990987</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2469394733007741</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02710179730605156</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2488571591778579</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02673487587739566</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2507748450549416</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02636469320207763</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2526925309320253</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02599133939823282</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2546102168091089</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02561490458399675</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2565279026861926</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02523547887750477</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2584455885632763</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08227573013870366</v>
+        <v>0.06092407856241663</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03227573013870366</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01863218673199057</v>
+        <v>0.01010730139212483</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001365860801643047</v>
+        <v>0.003391735298283488</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006928756235554604</v>
+        <v>0.001633012612609926</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001334370130858055</v>
+        <v>0.003261301229794962</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007971269667906025</v>
+        <v>0.001644989113152012</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005160523468007439</v>
+        <v>0.009238602084163522</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007915618888906719</v>
+        <v>0.00164899551484131</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004000000000000004</v>
+        <v>0.01536273997237514</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0004674853801169594</v>
+        <v>0.001649713507975592</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002717156374006609</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001385751247110921</v>
+        <v>0.003369100464041611</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002932126158969393</v>
+        <v>0.006178135198963042</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001594253933581205</v>
+        <v>0.003289978226304025</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01031895932822202</v>
+        <v>0.01786816424625431</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001583123777781344</v>
+        <v>0.00329799102968262</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01091056213929714</v>
+        <v>0.02936893731187207</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001574129111726188</v>
+        <v>0.003299427015951185</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004054196366823089</v>
+        <v>0.007547314749509905</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002078626870666381</v>
+        <v>0.004899037837829779</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004724585702063973</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002391380900371808</v>
+        <v>0.004163541666666662</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01459463571185629</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002374685666672016</v>
+        <v>0.004429299645390068</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01545074689484371</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002361193667589281</v>
+        <v>0.004476926523297488</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005377290429824842</v>
+        <v>0.007805772313576848</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002771502494221842</v>
+        <v>0.006532050450439705</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005743066377871787</v>
+        <v>0.01055857528437129</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00318850786716241</v>
+        <v>0.00657995645260805</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01950688075012286</v>
+        <v>0.02749148728686768</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003166247555562688</v>
+        <v>0.00659598205936524</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02049888737975686</v>
+        <v>0.044884840993832</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003148258223452375</v>
+        <v>0.00659885403190237</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01347640185616646</v>
+        <v>0.003369100464041611</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006686748212744266</v>
+        <v>0.007839284095989205</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003464378117777302</v>
+        <v>0.008165063063049632</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01235895170938393</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.008224945565760063</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02327502257423439</v>
+        <v>0.03112542634626983</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003957809444453359</v>
+        <v>0.008244977574206549</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02505447461220073</v>
+        <v>0.05072238178627381</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003935322779315469</v>
+        <v>0.008248567539877964</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007982879365313736</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004157253741332762</v>
+        <v>0.01010730139212483</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007848426021422064</v>
+        <v>0.01397142700507413</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004782761800743615</v>
+        <v>0.009869934678912074</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02691838931540347</v>
+        <v>0.03417279657454333</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004749371333344032</v>
+        <v>0.00989397308904786</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02921699961033908</v>
+        <v>0.05487464594990482</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004722387335178563</v>
+        <v>0.009898281047853555</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009265993537265642</v>
+        <v>0.01164448315021056</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004850129364888223</v>
+        <v>0.01143108828826948</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008912800633874521</v>
+        <v>0.01550852930639311</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005579888767534218</v>
+        <v>0.01151492379206409</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02965630910484268</v>
+        <v>0.03689550730040009</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005540933222234703</v>
+        <v>0.01154296860388917</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03468595339233554</v>
+        <v>0.05910775426673348</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005509451891041657</v>
+        <v>0.01154799455582915</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01053640037833235</v>
+        <v>0.01052082486862366</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005543004988443683</v>
+        <v>0.01306410090087941</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009419670044007747</v>
+        <v>0.01664249654985295</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00637701573432482</v>
+        <v>0.01249062499999999</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03210811007376471</v>
+        <v>0.0402227136168154</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006332495111125375</v>
+        <v>0.0132878989361702</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03776082697635419</v>
+        <v>0.06380293068377785</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00629651644690475</v>
+        <v>0.01343077956989247</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01179440953824624</v>
+        <v>0.01337760251769846</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006235880611999143</v>
+        <v>0.01469711351348934</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01037485012197648</v>
+        <v>0.0183408779626776</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007174142701115423</v>
+        <v>0.01480490201836811</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.04238015037892018</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006990637860082299</v>
+        <v>0.01484095963357179</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04144111138055873</v>
+        <v>0.06715653290267692</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007083581002767844</v>
+        <v>0.01484742157178033</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01304033066673971</v>
+        <v>0.0142084868701571</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006928756235554605</v>
+        <v>0.01633012612609926</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01118415673793546</v>
+        <v>0.01986352478828134</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007971269667906025</v>
+        <v>0.01644989113152013</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03466103368239323</v>
+        <v>0.04547353194564921</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007915618888906718</v>
+        <v>0.0164899551484131</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04632629762311302</v>
+        <v>0.07199298377905516</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007870645558630937</v>
+        <v>0.01649713507975593</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01427447341354512</v>
+        <v>0.01400714869872171</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007621631859110065</v>
+        <v>0.01796313873870919</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01165340576203942</v>
+        <v>0.02085232622162138</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008768396634696628</v>
+        <v>0.01809488024467214</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03552362858053368</v>
+        <v>0.04869522060087852</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008707180777797391</v>
+        <v>0.01813895066325441</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04881587672218085</v>
+        <v>0.07612277658658095</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008657710114494033</v>
+        <v>0.01814684858773152</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01549714742839487</v>
+        <v>0.01376725877611444</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008314507482665524</v>
+        <v>0.01959615135131912</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01228841306444312</v>
+        <v>0.02239703297143758</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009565523601487231</v>
+        <v>0.01973986935782415</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03633799297112203</v>
+        <v>0.05160516702907683</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009498742666688063</v>
+        <v>0.01978794617809572</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05190933969592615</v>
+        <v>0.08117579943060693</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009444774670357125</v>
+        <v>0.01979656209570711</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01670866236102134</v>
+        <v>0.01448248787505745</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009007383106220986</v>
+        <v>0.02122916396392904</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01299499451530124</v>
+        <v>0.02348739574646987</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01036265056827783</v>
+        <v>0.02138485847097616</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03675287375239061</v>
+        <v>0.05456332191471286</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01029030455557874</v>
+        <v>0.02143694169293703</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05570617756251256</v>
+        <v>0.08638194041648567</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01023183922622022</v>
+        <v>0.0214462756036827</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01790932786115689</v>
+        <v>0.01514650676827285</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009700258729776446</v>
+        <v>0.02286217657653897</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01357896598476858</v>
+        <v>0.02461316525545812</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01115977753506844</v>
+        <v>0.02302984758412817</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03721701782257186</v>
+        <v>0.05752963594225532</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01108186644446941</v>
+        <v>0.02308593720777834</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05860588134010414</v>
+        <v>0.09067108764957005</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01101890378208331</v>
+        <v>0.02309598911165829</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01909945357853393</v>
+        <v>0.01575298622848279</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01039313435333191</v>
+        <v>0.0244951891891489</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01414614334299985</v>
+        <v>0.02556409220714222</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01195690450185904</v>
+        <v>0.02467483669728019</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03787917207989802</v>
+        <v>0.0597640597961728</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01187342833336008</v>
+        <v>0.02473493272261965</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06060794204686459</v>
+        <v>0.09477312923521264</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01180596833794641</v>
+        <v>0.02474570261963389</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0202793491628848</v>
+        <v>0.01829559702840943</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01108600997688737</v>
+        <v>0.02612820180175882</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01480234246014979</v>
+        <v>0.02672992731026205</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01275403146864964</v>
+        <v>0.0263198258104322</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03918808342260155</v>
+        <v>0.06282654416093411</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01266499022225075</v>
+        <v>0.02638392823746096</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06380293068377785</v>
+        <v>0.09921795327876609</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01242789054303411</v>
+        <v>0.02639541612760948</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02144932426394192</v>
+        <v>0.0187680099407749</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01177888560044283</v>
+        <v>0.02776121441436875</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01505337920637316</v>
+        <v>0.02740042127355753</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01355115843544024</v>
+        <v>0.02796481492358421</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0402227136168154</v>
+        <v>0.06537703972100786</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01378345218847831</v>
+        <v>0.02803292375230227</v>
       </c>
       <c r="N82" t="n">
-        <v>0.066360506092567</v>
+        <v>0.1027354478855833</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01338009744967259</v>
+        <v>0.02804512963558507</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02260968853143766</v>
+        <v>0.01816389573830134</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01247176122399829</v>
+        <v>0.02939422702697867</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01580506945182464</v>
+        <v>0.02826532480576852</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01434828540223085</v>
+        <v>0.02960980403673622</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04022536348749911</v>
+        <v>0.06697549716086276</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01424811400003209</v>
+        <v>0.02968191926714358</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06859954456176115</v>
+        <v>0.1060555011610168</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01416716200553569</v>
+        <v>0.02969484314356066</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.01947692519371089</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01347640185616646</v>
+        <v>0.0310272396395886</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01664249654985295</v>
+        <v>0.02871438861563494</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01539816173837089</v>
+        <v>0.03125479314988824</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04154450576649399</v>
+        <v>0.06898186716496751</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01503967588892277</v>
+        <v>0.03133091478198489</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07123022100195386</v>
+        <v>0.1089080012104192</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01495422656139878</v>
+        <v>0.03134455665153626</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02491290993777021</v>
+        <v>0.01973780000768984</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01385751247110921</v>
+        <v>0.03266025225219853</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01673376168186001</v>
+        <v>0.02943736341189664</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01594253933581205</v>
+        <v>0.03289978226304025</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04213801159048877</v>
+        <v>0.07065610041779083</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01583123777781344</v>
+        <v>0.0329799102968262</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07384945798899017</v>
+        <v>0.1114228361391434</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01574129111726187</v>
+        <v>0.03299427015951185</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02610294289646181</v>
+        <v>0.01999115221756934</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01455038809466467</v>
+        <v>0.03429326486480845</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01761913727228021</v>
+        <v>0.02994968816277434</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01673966630260266</v>
+        <v>0.03454477137619226</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04320024185433927</v>
+        <v>0.0713649380887873</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01662279966670411</v>
+        <v>0.03462890581166751</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07635417809871498</v>
+        <v>0.1128337690928823</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01652835567312497</v>
+        <v>0.03464398366748744</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02730564184380152</v>
+        <v>0.02023548037638946</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01524326371822013</v>
+        <v>0.03592627747741838</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0181176595193458</v>
+        <v>0.03024215945491063</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01753679326939326</v>
+        <v>0.03618976048934427</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04442555745290144</v>
+        <v>0.07292760871664258</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01741436155559478</v>
+        <v>0.03627790132650882</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07874130390697331</v>
+        <v>0.1152646198235116</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01731542022898807</v>
+        <v>0.03629369717546303</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02848792123694008</v>
+        <v>0.01846908793053205</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01593613934177559</v>
+        <v>0.03755929009002831</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01882748484346708</v>
+        <v>0.03062146236028578</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01833392023618386</v>
+        <v>0.03783474960249628</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04570831928103122</v>
+        <v>0.07376106387958914</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01820592344448545</v>
+        <v>0.03792689684135013</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08010775798961012</v>
+        <v>0.1161498743941391</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01810248478485116</v>
+        <v>0.03794341068343863</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02961669553302826</v>
+        <v>0.01869027832637891</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01662901496533105</v>
+        <v>0.03919230270263823</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01934676966505432</v>
+        <v>0.03098495494639877</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01913104720297446</v>
+        <v>0.0394797387156483</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0467428882335845</v>
+        <v>0.0740588716085489</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01899748533337613</v>
+        <v>0.03957589235619144</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08285046292247045</v>
+        <v>0.1184793168166975</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01888954934071425</v>
+        <v>0.03959312419141422</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03065887918921677</v>
+        <v>0.02089735501031188</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01732189058888651</v>
+        <v>0.04082531531524815</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01997367040451777</v>
+        <v>0.03112999528074868</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01992817416976507</v>
+        <v>0.04112472782880031</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04792362520541724</v>
+        <v>0.07551459993444404</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0197890472222668</v>
+        <v>0.04122488787103275</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08476634128139926</v>
+        <v>0.1196427311031197</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01967661389657735</v>
+        <v>0.04124283769938981</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03158138666265634</v>
+        <v>0.02008862142871279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01801476621244197</v>
+        <v>0.04245832792785808</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02070634348226771</v>
+        <v>0.03155394143083451</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02072530113655567</v>
+        <v>0.04276971694195233</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04984489109138529</v>
+        <v>0.07642181688819649</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02058060911115747</v>
+        <v>0.04287388338587406</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0874523156422416</v>
+        <v>0.1208299012653384</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02046367845244044</v>
+        <v>0.0428925512073654</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03227573013870366</v>
+        <v>0.02026238102796345</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01863218673199057</v>
+        <v>0.04409134054046801</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0213429453187144</v>
+        <v>0.03195415146415528</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02152242810334627</v>
+        <v>0.04441470605510434</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05060104678634461</v>
+        <v>0.07667409050072843</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02137217100004814</v>
+        <v>0.04452287890071537</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08980530858084235</v>
+        <v>0.1211306113152865</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02125074300830353</v>
+        <v>0.044542264715341</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03304294268797286</v>
+        <v>0.0204169372544457</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01940051745955289</v>
+        <v>0.04572435315307793</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02178163233426812</v>
+        <v>0.03202798344821003</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02231955507013687</v>
+        <v>0.04605969516825634</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05248645318515111</v>
+        <v>0.07766498880296194</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02216373288893881</v>
+        <v>0.04617187441555668</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09192224267304649</v>
+        <v>0.1228346452648966</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02203780756416663</v>
+        <v>0.04619197822331659</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03371444119491952</v>
+        <v>0.01955059355454135</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02009339308310835</v>
+        <v>0.04735736576568786</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02242056094933911</v>
+        <v>0.03237279545049776</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02311668203692747</v>
+        <v>0.04770468428140836</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05339547118266072</v>
+        <v>0.07848807982581901</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02295529477782949</v>
+        <v>0.04782086993039799</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09360004049469911</v>
+        <v>0.1244317871261018</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02282487212002972</v>
+        <v>0.04784169173129218</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03436609542362187</v>
+        <v>0.02066165337463222</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02078626870666381</v>
+        <v>0.04899037837829779</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02325788758433769</v>
+        <v>0.03258594553851753</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02391380900371808</v>
+        <v>0.04934967339456037</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05472246167372932</v>
+        <v>0.07893693160022175</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02374685666672015</v>
+        <v>0.04946986544523929</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09653562462164506</v>
+        <v>0.1250118209108345</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02361193667589281</v>
+        <v>0.04949140523926778</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03499739649888019</v>
+        <v>0.01974842016110018</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02147914433021927</v>
+        <v>0.05062339099090771</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02379176865967408</v>
+        <v>0.03276479177976833</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02471093597050868</v>
+        <v>0.05099466250771239</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05666178555321288</v>
+        <v>0.07930511215709216</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02453841855561083</v>
+        <v>0.05111886096008061</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09852591762972951</v>
+        <v>0.1252645306310279</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02439900123175591</v>
+        <v>0.05114111874724337</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03560783554549485</v>
+        <v>0.02080919736032701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02217201995377473</v>
+        <v>0.05225640360351764</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02432036059575858</v>
+        <v>0.03300669224174919</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02550806293729928</v>
+        <v>0.0526396516208644</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05810780371596727</v>
+        <v>0.07978618952735236</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0253299804445015</v>
+        <v>0.05276785647492192</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09986784209479721</v>
+        <v>0.1264797002986147</v>
       </c>
       <c r="O97" t="n">
-        <v>0.025186065787619</v>
+        <v>0.05279083225521896</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03619690368826618</v>
+        <v>0.02184815712483326</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02286489557733019</v>
+        <v>0.05388941621612757</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02504181981300145</v>
+        <v>0.03300900499195916</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02630518990408989</v>
+        <v>0.05428464073401642</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05895487705684849</v>
+        <v>0.0794737317419244</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02612154233339217</v>
+        <v>0.05441685198976322</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1018583205926934</v>
+        <v>0.1267471139255275</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0259731303434821</v>
+        <v>0.05444054576319455</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03676409205199449</v>
+        <v>0.01984711349048805</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02355777120088566</v>
+        <v>0.05552242882873749</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02575430273181296</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02710231687088049</v>
+        <v>0.05592962984716842</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06109736647071232</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02691310422228285</v>
+        <v>0.05606584750460454</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1048942756992628</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02676019489934519</v>
+        <v>0.05609025927117015</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03730889176148013</v>
+        <v>0.02183443129489631</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02425064682444112</v>
+        <v>0.05715544144134741</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02635596577260337</v>
+        <v>0.03328465546151611</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02789944383767109</v>
+        <v>0.05757461896032044</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06252963285241475</v>
+        <v>0.08024248282769222</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02770466611117351</v>
+        <v>0.05771484301944585</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1058726299903506</v>
+        <v>0.1266978091050627</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02754725945520828</v>
+        <v>0.05773997277914573</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03783079394152346</v>
+        <v>0.02180805815530595</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02494352244799657</v>
+        <v>0.05878845405395735</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02684496535578296</v>
+        <v>0.03316954086461965</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02869657080446169</v>
+        <v>0.05921960807347244</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06364603709681171</v>
+        <v>0.08002897163075037</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02849622800006419</v>
+        <v>0.05936383853428716</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1074903060418017</v>
+        <v>0.1265843032933479</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02833432401107138</v>
+        <v>0.05938968628712132</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03832928971692476</v>
+        <v>0.02076888820439961</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02563639807155204</v>
+        <v>0.06042146666656727</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02741945790176198</v>
+        <v>0.03313299132905555</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0294936977712523</v>
+        <v>0.06086459718662446</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06514094009875915</v>
+        <v>0.07996057148598751</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02928778988895486</v>
+        <v>0.06101283404912847</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1096442264294611</v>
+        <v>0.1268815762161055</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02912138856693447</v>
+        <v>0.06103939979509692</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0388038702124844</v>
+        <v>0.02171781557485999</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0263292736951075</v>
+        <v>0.0620544792791772</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02807759983095071</v>
+        <v>0.03297639922944094</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0302908247380429</v>
+        <v>0.06250958629977647</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0661087027531129</v>
+        <v>0.0797421606497391</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03007935177784553</v>
+        <v>0.06266182956396978</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1114313137291738</v>
+        <v>0.1262990714030368</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02990845312279756</v>
+        <v>0.06268911330307252</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0392540265530027</v>
+        <v>0.01965573439936974</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02702214931866296</v>
+        <v>0.06368749189178713</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02841754756375943</v>
+        <v>0.03310115694039299</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0310879517048335</v>
+        <v>0.06415457541292849</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06734368595472892</v>
+        <v>0.07937712895519694</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0308709136667362</v>
+        <v>0.06431082507881108</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1131484905167848</v>
+        <v>0.1267421729744659</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03069551767866066</v>
+        <v>0.06433882681104812</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03967924986327999</v>
+        <v>0.02158353881061156</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02771502494221842</v>
+        <v>0.06532050450439705</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0289374575205984</v>
+        <v>0.03290865683652877</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0318850786716241</v>
+        <v>0.0657995645260805</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06944025059846312</v>
+        <v>0.07946886623555277</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03166247555562687</v>
+        <v>0.06595982059365239</v>
       </c>
       <c r="N105" t="n">
-        <v>0.114992679368139</v>
+        <v>0.125616265050717</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03148258223452375</v>
+        <v>0.06598854031902371</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0400790312681166</v>
+        <v>0.02050212294126809</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02840790056577388</v>
+        <v>0.06695351711700698</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02933548612187789</v>
+        <v>0.03260029129246543</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03268220563841471</v>
+        <v>0.0674445536392325</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06999275757917142</v>
+        <v>0.0793207623239984</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03245403744451755</v>
+        <v>0.0676088161084937</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1160608028590815</v>
+        <v>0.1255267317521143</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03226964679038685</v>
+        <v>0.0676382538269993</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0404528618923129</v>
+        <v>0.02041238092402203</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02910077618932934</v>
+        <v>0.0685865297296169</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02990978978800816</v>
+        <v>0.03267745268282006</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03347933260520531</v>
+        <v>0.06908954275238452</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0716955677917098</v>
+        <v>0.07913620705372559</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03324559933340823</v>
+        <v>0.06925781162333501</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1179497835654572</v>
+        <v>0.124878957198982</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03305671134624994</v>
+        <v>0.06928796733497489</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04080023286066917</v>
+        <v>0.02031520689155604</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0297936518128848</v>
+        <v>0.07021954234222683</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03055852493939948</v>
+        <v>0.03234153338220982</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03427645957199591</v>
+        <v>0.07073453186553653</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07264304213093406</v>
+        <v>0.07841859025792619</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03403716122229889</v>
+        <v>0.07090680713817632</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1193565440631111</v>
+        <v>0.1246783255116442</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03384377590211304</v>
+        <v>0.07093768084295048</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04112063529798576</v>
+        <v>0.01921149497655279</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03048652743644026</v>
+        <v>0.07185255495483675</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03077984799646213</v>
+        <v>0.03229392576525182</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03507358653878651</v>
+        <v>0.07237952097868855</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07402954149170021</v>
+        <v>0.07837130176979187</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03482872311118956</v>
+        <v>0.07255580265301764</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1194780069278882</v>
+        <v>0.1238302208104251</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03463084045797613</v>
+        <v>0.07258739435092607</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04141356032906301</v>
+        <v>0.02010213931169495</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03117940305999571</v>
+        <v>0.07348556756744667</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03137191537960639</v>
+        <v>0.03213602220656318</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03587071350557711</v>
+        <v>0.07402451009184056</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07514942676886416</v>
+        <v>0.07799773142251443</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03562028500008024</v>
+        <v>0.07420479816785895</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1210110947356334</v>
+        <v>0.1241400272156489</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03541790501383922</v>
+        <v>0.07423710785890165</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04167849907870128</v>
+        <v>0.0199880340296652</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03187227868355118</v>
+        <v>0.07511858018005661</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03173288350924248</v>
+        <v>0.03216921508076104</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03666784047236772</v>
+        <v>0.07566949920499257</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07559705885728174</v>
+        <v>0.07760126904928569</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0364118468889709</v>
+        <v>0.07585379368270026</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1221527300621919</v>
+        <v>0.1225131288476397</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03620496956970232</v>
+        <v>0.07588682136687726</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04191494267170084</v>
+        <v>0.01987007326314619</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03256515430710664</v>
+        <v>0.07675159279266654</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03176090880578074</v>
+        <v>0.03189489676246249</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03746496743915832</v>
+        <v>0.07731448831814458</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07696679865180894</v>
+        <v>0.07698530448329738</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03720340877786158</v>
+        <v>0.07750278919754157</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1229998354834084</v>
+        <v>0.1217549098267218</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03699203412556541</v>
+        <v>0.07753653487485285</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04213081947069303</v>
+        <v>0.01874915114482063</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0332580299306621</v>
+        <v>0.07838460540527646</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03215414768963137</v>
+        <v>0.03151445962628469</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03826209440594892</v>
+        <v>0.0789594774312966</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07775300704730168</v>
+        <v>0.0762532275577413</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03799497066675225</v>
+        <v>0.07915178471238288</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1244493335751282</v>
+        <v>0.1220707542732193</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0377790986814285</v>
+        <v>0.07918624838282844</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04234380625706805</v>
+        <v>0.01862616180737116</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03395090555421756</v>
+        <v>0.08001761801788639</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03251075658120467</v>
+        <v>0.03142929604684473</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03905922137273952</v>
+        <v>0.08060446654444861</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07825004493861584</v>
+        <v>0.07590842810580925</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03878653255564293</v>
+        <v>0.08080078022722419</v>
       </c>
       <c r="N114" t="n">
-        <v>0.125398146913196</v>
+        <v>0.1212660463074564</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0385661632372916</v>
+        <v>0.08083596189080404</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0425544156964995</v>
+        <v>0.01950199938348047</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03464378117777302</v>
+        <v>0.08165063063049631</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03252889190091093</v>
+        <v>0.03124079839875976</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03985634833953013</v>
+        <v>0.08224945565760063</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07865227322060739</v>
+        <v>0.07605429596069296</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03957809444453359</v>
+        <v>0.0824497757420655</v>
       </c>
       <c r="N115" t="n">
-        <v>0.124843198073457</v>
+        <v>0.1207461700497573</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03935322779315469</v>
+        <v>0.08248567539877963</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04276257343446087</v>
+        <v>0.02037755800583122</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03533665680132848</v>
+        <v>0.08328364324310623</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03300671006916038</v>
+        <v>0.03095035905664689</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04065347530632073</v>
+        <v>0.08389444477075263</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07875405278813224</v>
+        <v>0.07499422095558425</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04036965633342426</v>
+        <v>0.0840987712569068</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1261814096317561</v>
+        <v>0.1194165096204461</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04014029234901778</v>
+        <v>0.08413538890675522</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04296820511642561</v>
+        <v>0.01825373180710609</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03602953242488394</v>
+        <v>0.08491665585571616</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0330423675063633</v>
+        <v>0.03095937039512325</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04145060227311134</v>
+        <v>0.08553943388390466</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07984974453604632</v>
+        <v>0.07453159292367484</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04116121822231494</v>
+        <v>0.08574776677174811</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1268097041639382</v>
+        <v>0.119082449139847</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04092735690488088</v>
+        <v>0.08578510241473081</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04317123638786724</v>
+        <v>0.01813129146569695</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0367224080484394</v>
+        <v>0.0865496684683261</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03323402063292998</v>
+        <v>0.03066922478880596</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04224772923990194</v>
+        <v>0.08718442299705666</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07973370935920543</v>
+        <v>0.0746698016981566</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04195278011120561</v>
+        <v>0.08739676228658942</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1271250042458484</v>
+        <v>0.1185493727282843</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04171442146074397</v>
+        <v>0.08743481592270641</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04337159289425921</v>
+        <v>0.01799792293339008</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03741528367199486</v>
+        <v>0.08818268108093602</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0332849930997059</v>
+        <v>0.03068128620880087</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04304485620669254</v>
+        <v>0.08882941211020867</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0804454272336308</v>
+        <v>0.0739122371122212</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04274434200009628</v>
+        <v>0.08904575780143073</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1276058613675556</v>
+        <v>0.117122664506082</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04250148601660706</v>
+        <v>0.089084529430682</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04356920028107504</v>
+        <v>0.01784704330087573</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03810815929555032</v>
+        <v>0.08981569369354594</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03298382048045492</v>
+        <v>0.03017836353342603</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04384198317348315</v>
+        <v>0.09047440122336069</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07964522266038149</v>
+        <v>0.07334225894867255</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04353590388898695</v>
+        <v>0.09069475331627204</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1276043113622328</v>
+        <v>0.1170814169808219</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04328855057247016</v>
+        <v>0.09073424293865759</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0437639841937882</v>
+        <v>0.01968156575931439</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03880103491910578</v>
+        <v>0.09144870630615587</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03307550473778273</v>
+        <v>0.03004811787303296</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04463911014027375</v>
+        <v>0.09211939033651269</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0802340888466736</v>
+        <v>0.07280631878624169</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04432746577787763</v>
+        <v>0.09234374883111336</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1263937869559723</v>
+        <v>0.1151373665027789</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04407561512833326</v>
+        <v>0.09238395644663318</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04395587027787215</v>
+        <v>0.01750440349986656</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03949391054266125</v>
+        <v>0.09308171891876579</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03325945058872048</v>
+        <v>0.02979508575056214</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04543623710706435</v>
+        <v>0.09376437944966472</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0798062984260651</v>
+        <v>0.07211120095679713</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0451190276667683</v>
+        <v>0.09399274434595467</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1265487030944498</v>
+        <v>0.1151982724354063</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04486267968419635</v>
+        <v>0.09403366995460877</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0441447841788004</v>
+        <v>0.01731846971369273</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0401867861662167</v>
+        <v>0.09471473153137572</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03303594289368589</v>
+        <v>0.02942380368895398</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04623336407385495</v>
+        <v>0.09540936856281672</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0802623210270379</v>
+        <v>0.07136794994208212</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04591058955565897</v>
+        <v>0.09564173986079598</v>
       </c>
       <c r="N123" t="n">
-        <v>0.127071421631686</v>
+        <v>0.1143816768863123</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04564974424005944</v>
+        <v>0.09568338346258436</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04433065154204642</v>
+        <v>0.0181266775919534</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04087966178977216</v>
+        <v>0.09634774414398566</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03290526651309669</v>
+        <v>0.02943880821114879</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04703049104064555</v>
+        <v>0.09705435767596873</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08000262627807408</v>
+        <v>0.07128761022384</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04670215144454964</v>
+        <v>0.09729073537563727</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1264631915583539</v>
+        <v>0.1121051219631051</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04643680879592254</v>
+        <v>0.09733309697055996</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04451339801308372</v>
+        <v>0.01793194032580906</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04157253741332762</v>
+        <v>0.09798075675659558</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03306770630737058</v>
+        <v>0.02894463584008702</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04782761800743616</v>
+        <v>0.09869934678912075</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07942768380765561</v>
+        <v>0.070281226283814</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04749371333344031</v>
+        <v>0.09893973089047858</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1267252618651266</v>
+        <v>0.1121861497733929</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04722387335178563</v>
+        <v>0.09898281047853556</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04469294923738576</v>
+        <v>0.01873717110642021</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04226541303688308</v>
+        <v>0.0996137693692055</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03282354713692531</v>
+        <v>0.02864582309870911</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04862474497422676</v>
+        <v>0.1003443359022728</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07953796324426454</v>
+        <v>0.06955984260374742</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04828527522233098</v>
+        <v>0.1005887264053199</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1268588815426769</v>
+        <v>0.110042302424784</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04801093790764872</v>
+        <v>0.1006325239865112</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04486923086042602</v>
+        <v>0.01854528312494735</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04295828866043855</v>
+        <v>0.1012467819818154</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03297307386217857</v>
+        <v>0.02834690650995539</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04942187194101736</v>
+        <v>0.1019893250154248</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07923393421638283</v>
+        <v>0.06863450366538359</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04907683711122166</v>
+        <v>0.1022377219201612</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1256652995816777</v>
+        <v>0.1092911220248864</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04879800246351182</v>
+        <v>0.1022822374944867</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04504216852767798</v>
+        <v>0.01835918957255096</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04365116428399401</v>
+        <v>0.1028797945944254</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03301657134354813</v>
+        <v>0.02795242259676632</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05021899890780796</v>
+        <v>0.1036343141285768</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07961606635249255</v>
+        <v>0.06821625395046568</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04986839900011233</v>
+        <v>0.1038867174350025</v>
       </c>
       <c r="N128" t="n">
-        <v>0.125545764972802</v>
+        <v>0.1086501506813085</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04958506701937491</v>
+        <v>0.1039319510024623</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04521168788461513</v>
+        <v>0.01718180046255058</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04434403990754947</v>
+        <v>0.1045128072070353</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03285432444145167</v>
+        <v>0.02786690788208225</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05101612587459856</v>
+        <v>0.1052793032417288</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07938482928107568</v>
+        <v>0.06781613794073701</v>
       </c>
       <c r="M129" t="n">
-        <v>0.050659960889003</v>
+        <v>0.1055357129498438</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1259015267067227</v>
+        <v>0.1066369305016583</v>
       </c>
       <c r="O129" t="n">
-        <v>0.050372131575238</v>
+        <v>0.1055816645104379</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04537771457671097</v>
+        <v>0.01599968569991266</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04503691553110493</v>
+        <v>0.1061458198196452</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03268661801630694</v>
+        <v>0.02769487486285728</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05181325284138917</v>
+        <v>0.1069242923548808</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07904069263061431</v>
+        <v>0.0668452001179409</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05145152277789367</v>
+        <v>0.1071847084646851</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1261338337741129</v>
+        <v>0.1065690035935442</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0511591961311011</v>
+        <v>0.1072313780184135</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04554017424943897</v>
+        <v>0.01780114872523672</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04572979115466039</v>
+        <v>0.1077788324322551</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03271373692853165</v>
+        <v>0.02711480522995192</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05261037980817977</v>
+        <v>0.1085692814680328</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07898412602959032</v>
+        <v>0.06618465567373266</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05224308466678435</v>
+        <v>0.1088337039795264</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1248439351656453</v>
+        <v>0.1055240148279451</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05194626068696419</v>
+        <v>0.1088810915263891</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04569899254827262</v>
+        <v>0.01759035977252241</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04642266677821585</v>
+        <v>0.1094118450448651</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03253596603854353</v>
+        <v>0.02710950699942226</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05340750677497037</v>
+        <v>0.1102142705811848</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07921559910648582</v>
+        <v>0.0651630015968612</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05303464655567501</v>
+        <v>0.1104826994943678</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1249330798719931</v>
+        <v>0.10398419516745</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05273332524282729</v>
+        <v>0.1105308050343647</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04585409511868539</v>
+        <v>0.01537148907576942</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04711554240177131</v>
+        <v>0.111044857657475</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03235359020676032</v>
+        <v>0.02658547420518649</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05420463374176097</v>
+        <v>0.1118592596943368</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07853558148978282</v>
+        <v>0.06439077729161649</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05382620844456569</v>
+        <v>0.1121316950092091</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1248025168838292</v>
+        <v>0.1024626464078089</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05352038979869038</v>
+        <v>0.1121805185423403</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04600540760615078</v>
+        <v>0.01614870686897741</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04780841802532677</v>
+        <v>0.1126778702700849</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03256689429359969</v>
+        <v>0.02634920088116278</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05500176070855158</v>
+        <v>0.1135042488074888</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07814454280796329</v>
+        <v>0.06368379293684959</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05461777033345636</v>
+        <v>0.1137806905240504</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1245534951918263</v>
+        <v>0.1017844800812018</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05430745435455347</v>
+        <v>0.1138302320503159</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04615285565614226</v>
+        <v>0.01492618338614606</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04850129364888223</v>
+        <v>0.1143108828826948</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03247616315947942</v>
+        <v>0.02580718106126929</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05579888767534218</v>
+        <v>0.1151492379206409</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07864295268950927</v>
+        <v>0.06325785871141143</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05540933222234703</v>
+        <v>0.1154296860388917</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1234872637866577</v>
+        <v>0.09957480771980881</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05509451891041656</v>
+        <v>0.1154799455582915</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04629636491413332</v>
+        <v>0.01470808886127503</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04919416927243769</v>
+        <v>0.1159438954953048</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0323816816648172</v>
+        <v>0.02566590877942417</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05659601464213278</v>
+        <v>0.1167942270337929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07773128076290278</v>
+        <v>0.06172878479415311</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05620089411123771</v>
+        <v>0.117078681553733</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1236050716589961</v>
+        <v>0.09855874085581012</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05588158346627967</v>
+        <v>0.1171296590662671</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04643586102559744</v>
+        <v>0.01449859352836402</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04988704489599315</v>
+        <v>0.1175769081079147</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03218373467003074</v>
+        <v>0.0254318780695456</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05739314160892339</v>
+        <v>0.1184392161469449</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07750999665662583</v>
+        <v>0.06141238136392554</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05699245600012837</v>
+        <v>0.1187276770685743</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1233081677995145</v>
+        <v>0.09766139102138571</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05666864802214275</v>
+        <v>0.1187793725742426</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04657126963600812</v>
+        <v>0.01630186762141268</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05057992051954861</v>
+        <v>0.1192099207205246</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03218260703553782</v>
+        <v>0.02501158296555171</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05819026857571399</v>
+        <v>0.1200842052600969</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07787956999916043</v>
+        <v>0.06052445859957978</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05778401788901905</v>
+        <v>0.1203766725834156</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1226978011988859</v>
+        <v>0.0964078697487159</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05745571257800585</v>
+        <v>0.1204290860822183</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04670251639083881</v>
+        <v>0.01412208137442068</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05127279614310407</v>
+        <v>0.1208429333331345</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03207858362175613</v>
+        <v>0.02481151750136069</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05898739554250459</v>
+        <v>0.1217291943732489</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07714047041898858</v>
+        <v>0.05948082667996679</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05857557977790973</v>
+        <v>0.1220256680982569</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1224752208477832</v>
+        <v>0.09522328856998069</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05824277713386894</v>
+        <v>0.1220787995901938</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04682952693556303</v>
+        <v>0.01596340502138772</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05196567176665953</v>
+        <v>0.1224759459457445</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03177194928910336</v>
+        <v>0.0243381757108907</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05978452250929519</v>
+        <v>0.1233741834864009</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07759316754459233</v>
+        <v>0.0590972957839376</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05936714166680039</v>
+        <v>0.1236746636130982</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1223416757368794</v>
+        <v>0.09343275901736015</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05902984168973204</v>
+        <v>0.1237285130981695</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04695222691565425</v>
+        <v>0.01483000879631345</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05265854739021499</v>
+        <v>0.1241089585583544</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0318629888979973</v>
+        <v>0.0242980516280599</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0605816494760858</v>
+        <v>0.1250191725995529</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07683813100445369</v>
+        <v>0.05838967609034321</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06015870355569106</v>
+        <v>0.1253236591279396</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1216984148568474</v>
+        <v>0.09266139262303447</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05981690624559512</v>
+        <v>0.125378226606145</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04707054197658592</v>
+        <v>0.01472606293319755</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05335142301377045</v>
+        <v>0.1257419711709643</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03145198730885562</v>
+        <v>0.02399763928678646</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06137877644287641</v>
+        <v>0.126664161712705</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07677583042705463</v>
+        <v>0.0578737777780346</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06095026544458173</v>
+        <v>0.1269726546427808</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1205466871983601</v>
+        <v>0.09263430091918384</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06060397080145823</v>
+        <v>0.1270279401141206</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04718439776383158</v>
+        <v>0.01465573766603968</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05404429863732591</v>
+        <v>0.1273749837835743</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03163922938209605</v>
+        <v>0.02394343272098853</v>
       </c>
       <c r="K143" t="n">
-        <v>0.062175903409667</v>
+        <v>0.128309150825857</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07640673544087717</v>
+        <v>0.05716541102586276</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06174182733347241</v>
+        <v>0.1286216501576222</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1208877417520906</v>
+        <v>0.09077659543798822</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06139103535732131</v>
+        <v>0.1286776536220962</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04729371992286467</v>
+        <v>0.01562320322883952</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05473717426088137</v>
+        <v>0.1290079963961842</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03152499997813633</v>
+        <v>0.02364192596458425</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0629730303764576</v>
+        <v>0.129954139939009</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07593131567440345</v>
+        <v>0.05718038601267869</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06253338922236308</v>
+        <v>0.1302706456724635</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1200228275087117</v>
+        <v>0.09051338771162781</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06217809991318441</v>
+        <v>0.1303273671300718</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04739843409915871</v>
+        <v>0.01562301009606412</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05543004988443684</v>
+        <v>0.1306410090087941</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0314095839573942</v>
+        <v>0.02379961305149182</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0637701573432482</v>
+        <v>0.131599129052161</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07615004075611528</v>
+        <v>0.05733451291733341</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06332495111125375</v>
+        <v>0.1319196411873048</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1192531934588963</v>
+        <v>0.0911697892722827</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0629651644690475</v>
+        <v>0.1319770806380474</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04749846593818716</v>
+        <v>0.0156304014939748</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0561229255079923</v>
+        <v>0.132274021621404</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03099326618028735</v>
+        <v>0.02350216051635956</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06456728431003882</v>
+        <v>0.133244118165313</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07566338031449482</v>
+        <v>0.0567220465298254</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06411651300014443</v>
+        <v>0.1335686367021461</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1195800885933176</v>
+        <v>0.09054284727076095</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06375222902491059</v>
+        <v>0.133626794146023</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0475937410854235</v>
+        <v>0.01564356197338448</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05681580113154776</v>
+        <v>0.133907034234014</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0310763315072335</v>
+        <v>0.02351475543911279</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06536441127682942</v>
+        <v>0.134889107278465</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07567180397802398</v>
+        <v>0.05714621116736096</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06490807488903509</v>
+        <v>0.1352176322169874</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1185047619026484</v>
+        <v>0.09057937318149106</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0645392935807737</v>
+        <v>0.1352765076539986</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04768418518634124</v>
+        <v>0.01466218510701793</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05750867675510322</v>
+        <v>0.1355400468466239</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03105906479865039</v>
+        <v>0.02363620153973396</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06616153824362001</v>
+        <v>0.136534096391617</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0747757813751849</v>
+        <v>0.05719220249638407</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06569963677792577</v>
+        <v>0.1368666277318287</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1177284623775616</v>
+        <v>0.09135064560781303</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06532635813663679</v>
+        <v>0.1369262211619742</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04776972388641383</v>
+        <v>0.01468596446759996</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05820155237865868</v>
+        <v>0.1371730594592338</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03074175091495575</v>
+        <v>0.02366602163897641</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06695866521041062</v>
+        <v>0.138179085504769</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07457578213445948</v>
+        <v>0.05685885879071187</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06649119866681645</v>
+        <v>0.13851562324667</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1180524390087301</v>
+        <v>0.09055481936348958</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06611342269249988</v>
+        <v>0.1385759346699498</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04785028283111478</v>
+        <v>0.01371459362785533</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05889442800221414</v>
+        <v>0.1388060720718437</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03062467471656728</v>
+        <v>0.02370373855759336</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06775579217720122</v>
+        <v>0.139824074617921</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07467227588432981</v>
+        <v>0.0573450183241615</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0672827605557071</v>
+        <v>0.1401646187615113</v>
       </c>
       <c r="N150" t="n">
-        <v>0.116677940786827</v>
+        <v>0.09079004926228346</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06690048724836298</v>
+        <v>0.1402256481779254</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04792578766591755</v>
+        <v>0.01574776616050886</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0595873036257696</v>
+        <v>0.1404390846844537</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03060812106390273</v>
+        <v>0.02384887511633807</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06855291914399182</v>
+        <v>0.1414690637310731</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07426573225327784</v>
+        <v>0.05754951937055022</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06807432244459778</v>
+        <v>0.1418136142763526</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1168062167025251</v>
+        <v>0.09055449011795741</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06768755180422607</v>
+        <v>0.141875361685901</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04799616403629565</v>
+        <v>0.01378517563828531</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06028017924932506</v>
+        <v>0.1420720972970636</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0303923748173798</v>
+        <v>0.0240009541359638</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06935004611078242</v>
+        <v>0.1431140528442251</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07365662086978569</v>
+        <v>0.05737120020369513</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06886588433348845</v>
+        <v>0.143462609791194</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1165385157464974</v>
+        <v>0.09184629674427414</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06847461636008915</v>
+        <v>0.1435250751938766</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04806133758772255</v>
+        <v>0.01482651563390948</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06097305487288052</v>
+        <v>0.1437051099096735</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03017772083741624</v>
+        <v>0.02395949843722384</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07014717307757302</v>
+        <v>0.1447590419573771</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07354541136233525</v>
+        <v>0.05810889909741335</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06965744622237913</v>
+        <v>0.1451116053060353</v>
       </c>
       <c r="N153" t="n">
-        <v>0.116376086909417</v>
+        <v>0.0920636239549964</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06926168091595226</v>
+        <v>0.1451747887018521</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04812123396567172</v>
+        <v>0.01587147972010615</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06166593049643598</v>
+        <v>0.1453381225222834</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03026444398442973</v>
+        <v>0.0240240308408714</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07094430004436364</v>
+        <v>0.1464040310705291</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0735325733594086</v>
+        <v>0.05826145432552218</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07044900811126981</v>
+        <v>0.1467606008208766</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1154201791819567</v>
+        <v>0.09190462656388687</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07004874547181535</v>
+        <v>0.1468245022098277</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04817577881561667</v>
+        <v>0.01391976146960011</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06235880611999143</v>
+        <v>0.1469711351348933</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03005282911883803</v>
+        <v>0.02389407416765983</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07174142701115423</v>
+        <v>0.1480490201836811</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07261857648948775</v>
+        <v>0.0577277041618387</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07124057000016047</v>
+        <v>0.1484095963357179</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1153720415547894</v>
+        <v>0.09176745938470837</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07083581002767844</v>
+        <v>0.1484742157178033</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04822489778303087</v>
+        <v>0.01597105445511616</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06305168174354689</v>
+        <v>0.1486041477475033</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02994316110105885</v>
+        <v>0.02426915123834229</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07253855397794483</v>
+        <v>0.1496940092968331</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07220389038105465</v>
+        <v>0.05860648688018016</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07203213188905115</v>
+        <v>0.1500585918505592</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1142329230185881</v>
+        <v>0.09295027723122362</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07162287458354154</v>
+        <v>0.1501239292257789</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04826851651338779</v>
+        <v>0.01603697119448289</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06374455736710236</v>
+        <v>0.1502371603601132</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02993572479150992</v>
+        <v>0.02404878487367212</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07333568094473544</v>
+        <v>0.1513389984099851</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07178898466259143</v>
+        <v>0.05829664075436364</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0728236937779418</v>
+        <v>0.1517075873654005</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1135040725640258</v>
+        <v>0.09215123491719535</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07240993913940463</v>
+        <v>0.1517736427337545</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04830656065216093</v>
+        <v>0.01515106376840496</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06443743299065781</v>
+        <v>0.1518701729727231</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02992914751446303</v>
+        <v>0.02416427290315583</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07413280791152604</v>
+        <v>0.1529839875231372</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07156161787203463</v>
+        <v>0.05833621628470095</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07361525566683248</v>
+        <v>0.1533565828802418</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1131833191167259</v>
+        <v>0.09242202651036985</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07319700369526771</v>
+        <v>0.1534233562417301</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04833895584482378</v>
+        <v>0.01630708117820668</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06513030861421328</v>
+        <v>0.1535031855853331</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0297207213555952</v>
+        <v>0.02435515584169649</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07492993487831665</v>
+        <v>0.1546289766362892</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07110069446545381</v>
+        <v>0.05885473629469001</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07440681755572316</v>
+        <v>0.1550055783950831</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1133648434960336</v>
+        <v>0.09387330587774168</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07398406825113082</v>
+        <v>0.1550730697497057</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04836562773684983</v>
+        <v>0.01549577312403794</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06582318423776874</v>
+        <v>0.155136198197943</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0296104193530398</v>
+        <v>0.02470756225589966</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07572706184510725</v>
+        <v>0.1562739657494412</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07100743647063693</v>
+        <v>0.05973162215534913</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07519837944461383</v>
+        <v>0.1566545739099245</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1125478197941566</v>
+        <v>0.09477855598673801</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07477113280699391</v>
+        <v>0.1567227832576813</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04838650197371253</v>
+        <v>0.01570788930604868</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06651605986132419</v>
+        <v>0.1567692108105529</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02939826220705648</v>
+        <v>0.02510708725601958</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07652418881189785</v>
+        <v>0.1579189548625932</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07088347839139952</v>
+        <v>0.06043180415714491</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07598994133350451</v>
+        <v>0.1583035694247658</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1119315212359175</v>
+        <v>0.09598207511837165</v>
       </c>
       <c r="O161" t="n">
-        <v>0.075558197362857</v>
+        <v>0.1583724967656569</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04840150420088538</v>
+        <v>0.0149341794243888</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06720893548487966</v>
+        <v>0.1584022234231628</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02928427061790483</v>
+        <v>0.02523932595231039</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07732131577868846</v>
+        <v>0.1595639439757452</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07053045473155722</v>
+        <v>0.06132021259054382</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07678150322239517</v>
+        <v>0.1599525649396071</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1124152210461393</v>
+        <v>0.09682816155365548</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07634526191872011</v>
+        <v>0.1600222102736325</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0484105600638419</v>
+        <v>0.01716539317920825</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06790181110843511</v>
+        <v>0.1600352360357728</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02926846528584442</v>
+        <v>0.02558987345502624</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07811844274547905</v>
+        <v>0.1612089330888972</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0697499999949254</v>
+        <v>0.06236177774601248</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07757306511128585</v>
+        <v>0.1616015604544484</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1117981924496446</v>
+        <v>0.09846111357360193</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07713232647458319</v>
+        <v>0.1616719237816081</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04841359520805549</v>
+        <v>0.01639228027065694</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06859468673199058</v>
+        <v>0.1616682486483827</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0291508669111349</v>
+        <v>0.02614432487442132</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07891556971226965</v>
+        <v>0.1628539222020492</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06914374868531981</v>
+        <v>0.06302142991401738</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07836462700017652</v>
+        <v>0.1632505559692897</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1115797086712563</v>
+        <v>0.100025229459224</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07791939103044629</v>
+        <v>0.1633216372895837</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04841359520805549</v>
+        <v>0.01660559039888477</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06859468673199058</v>
+        <v>0.1633012612609926</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02903149619403586</v>
+        <v>0.02628827532074984</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07971269667906027</v>
+        <v>0.1644989113152013</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06861333530655586</v>
+        <v>0.06366409938502504</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07915618888906718</v>
+        <v>0.164899551484131</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1107590429357971</v>
+        <v>0.1014648074915342</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07870645558630938</v>
+        <v>0.1649713507975593</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0475832181880647</v>
+        <v>0.01679607326404171</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06859441820352656</v>
+        <v>0.1649342738736025</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02881037383480689</v>
+        <v>0.02670731990426592</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08050982364585087</v>
+        <v>0.1661439004283533</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06776039436244916</v>
+        <v>0.06455471644950209</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07994775077795786</v>
+        <v>0.1665485469989723</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1099354684680898</v>
+        <v>0.1026241459515453</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07949352014217248</v>
+        <v>0.1666210643055349</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04676221926241728</v>
+        <v>0.0169613574984285</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06859414967506255</v>
+        <v>0.1665672864862125</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02858752053370761</v>
+        <v>0.02688705373522382</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08130695061264147</v>
+        <v>0.1677888895415053</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06758656035681523</v>
+        <v>0.06555821139791498</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08073931266684853</v>
+        <v>0.1681975425138136</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1093082584929573</v>
+        <v>0.1028475431202702</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08028058469803556</v>
+        <v>0.1682707778135104</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04595105702454035</v>
+        <v>0.01612062384806426</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06859388114659852</v>
+        <v>0.1682002990988224</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02866295699099759</v>
+        <v>0.02723601456711155</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08210407757943206</v>
+        <v>0.1694338786546573</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06689346779346966</v>
+        <v>0.06606998768718333</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08153087455573921</v>
+        <v>0.1698465380286549</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1092766862352222</v>
+        <v>0.104921849240991</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08106764925389867</v>
+        <v>0.169920491321486</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04515019006796669</v>
+        <v>0.01727605336965607</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06859361261813451</v>
+        <v>0.1698333117114323</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02863670390693646</v>
+        <v>0.02767862034774619</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08290120454622267</v>
+        <v>0.1710788677678093</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06648275117622796</v>
+        <v>0.06656118562722946</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08232243644462989</v>
+        <v>0.1714955335434962</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1094400249197074</v>
+        <v>0.105061023925789</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08185471380976175</v>
+        <v>0.1715702048294616</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04436007698612293</v>
+        <v>0.01842793951055662</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06859334408967049</v>
+        <v>0.1714663243240423</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02840878198178383</v>
+        <v>0.02781543236187516</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08369833151301327</v>
+        <v>0.1727238568809613</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06555604500890569</v>
+        <v>0.06693805572629064</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08311399833352055</v>
+        <v>0.1731445290583375</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1081975477712356</v>
+        <v>0.106477378341385</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08264177836562485</v>
+        <v>0.1732199183374372</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04358117637247126</v>
+        <v>0.01857657571811853</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06859307556120649</v>
+        <v>0.1730993369366522</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02827921191579932</v>
+        <v>0.02784690757595683</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08449545847980387</v>
+        <v>0.1743688459941133</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06471498379531843</v>
+        <v>0.06730171050110548</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08390556022241122</v>
+        <v>0.1747935245731788</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1075485280146298</v>
+        <v>0.1065726795139554</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08342884292148794</v>
+        <v>0.1748696318454128</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04281394682044071</v>
+        <v>0.01772225543969445</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06859280703274245</v>
+        <v>0.1747323495492621</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02814801440924249</v>
+        <v>0.02837350295644951</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08529258544659447</v>
+        <v>0.1760138351072653</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06416120203928169</v>
+        <v>0.0678532624684127</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08469712211130188</v>
+        <v>0.1764425200880202</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1079922388747124</v>
+        <v>0.1082486944696767</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08421590747735104</v>
+        <v>0.1765193453533884</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04205884692356024</v>
+        <v>0.01886527212263703</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06859253850427845</v>
+        <v>0.176365362161872</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02791521016237296</v>
+        <v>0.02829567546981154</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08608971241338507</v>
+        <v>0.1776588242204173</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06349633424461101</v>
+        <v>0.06899382414495078</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08548868400019256</v>
+        <v>0.1780915156028615</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1066279535763065</v>
+        <v>0.1087071902347251</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08500297203321412</v>
+        <v>0.178169058861364</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04131633527525838</v>
+        <v>0.01800591921429891</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06859226997581443</v>
+        <v>0.177998374774482</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02778081987545035</v>
+        <v>0.02851388208250127</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08688683938017569</v>
+        <v>0.1793038133335693</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06342201491512198</v>
+        <v>0.06922450804745856</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08628024588908324</v>
+        <v>0.1797405111177028</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1067549453442347</v>
+        <v>0.1096499338352772</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08579003658907723</v>
+        <v>0.1798187723693396</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04058687046899728</v>
+        <v>0.01714449016203275</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06859200144735041</v>
+        <v>0.1796313873870919</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02754486424873426</v>
+        <v>0.02892857976097703</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08768396634696629</v>
+        <v>0.1809488024467214</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06273987855463017</v>
+        <v>0.06974642669267456</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08707180777797391</v>
+        <v>0.1813895066325441</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1065724874033199</v>
+        <v>0.1101786922975091</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08657710114494031</v>
+        <v>0.1814684858773152</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03987091109820828</v>
+        <v>0.01728127841319117</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06859173291888639</v>
+        <v>0.1812643999997018</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02760736398248426</v>
+        <v>0.0289402254716972</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08848109331375688</v>
+        <v>0.1825937915598734</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06205155966695103</v>
+        <v>0.07026069259733744</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08786336966686459</v>
+        <v>0.1830385021473854</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1062798529783849</v>
+        <v>0.1110952326475975</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08736416570080341</v>
+        <v>0.1831181993852908</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03916891575641583</v>
+        <v>0.01841657741512685</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06859146439042237</v>
+        <v>0.1828974126123117</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02746833977695999</v>
+        <v>0.02934927618112003</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08927822028054749</v>
+        <v>0.1842387806730254</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06065869275590019</v>
+        <v>0.07046841827818584</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08865493155575525</v>
+        <v>0.1846874976622267</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1046763152942524</v>
+        <v>0.1123013219117187</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08815123025666652</v>
+        <v>0.1847679128932664</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03848134303705068</v>
+        <v>0.01855144767646026</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06859119586195836</v>
+        <v>0.1845304252249217</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02722781233242105</v>
+        <v>0.02945618885570395</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09007534724733809</v>
+        <v>0.1858837697861774</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06066291232529317</v>
+        <v>0.07127071625195838</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08944649344464592</v>
+        <v>0.186336493177068</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1046611475757452</v>
+        <v>0.113298727116049</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0889382948125296</v>
+        <v>0.186417626401242</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03780865153357502</v>
+        <v>0.01969366849103871</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06859092733349434</v>
+        <v>0.1861634378375316</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02718580234912706</v>
+        <v>0.02956618623787971</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0908724742141287</v>
+        <v>0.1875287588993294</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05976585287894554</v>
+        <v>0.07207473843979662</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0902380553335366</v>
+        <v>0.1879854886919093</v>
       </c>
       <c r="N179" t="n">
-        <v>0.104133623047686</v>
+        <v>0.1137975080386003</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0897253593683927</v>
+        <v>0.1880673399092175</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03715129983942268</v>
+        <v>0.01884121791726127</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06859065880503032</v>
+        <v>0.1877964504501415</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02694233052733758</v>
+        <v>0.02978846084612177</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0916696011809193</v>
+        <v>0.1891737480124814</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05926914892067286</v>
+        <v>0.07240827610014161</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09102961722242726</v>
+        <v>0.1896344842067506</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1038930149348977</v>
+        <v>0.1146426449271875</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09051242392425579</v>
+        <v>0.1897170534171931</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03650974654811313</v>
+        <v>0.01898905504717092</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0685903902765663</v>
+        <v>0.1894294630627514</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02679741756731222</v>
+        <v>0.03011598096473264</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0924667281477099</v>
+        <v>0.1908187371256334</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05857443495429063</v>
+        <v>0.07275845360694433</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09182117911131794</v>
+        <v>0.191283479721592</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1029385964622032</v>
+        <v>0.1158153093361152</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09129948848011889</v>
+        <v>0.1913667669251687</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03588445025307954</v>
+        <v>0.0191321389728106</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06859012174810229</v>
+        <v>0.1910624756753614</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02665108416931061</v>
+        <v>0.03024089671592277</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09326385511450051</v>
+        <v>0.1924637262387855</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05768334548361445</v>
+        <v>0.07310615988481217</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09261274100020861</v>
+        <v>0.1929324752364333</v>
       </c>
       <c r="N182" t="n">
-        <v>0.101969640854425</v>
+        <v>0.116785146872227</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09208655303598197</v>
+        <v>0.1930164804331443</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03527586954778412</v>
+        <v>0.01826542878622323</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06858985321963827</v>
+        <v>0.1926954882879713</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02660335103359235</v>
+        <v>0.0305553582219025</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0940609820812911</v>
+        <v>0.1941087153519375</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05659751501245983</v>
+        <v>0.07343228385835252</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09340430288909929</v>
+        <v>0.1945814707512745</v>
       </c>
       <c r="N183" t="n">
-        <v>0.101585421336386</v>
+        <v>0.1171218031423662</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09287361759184508</v>
+        <v>0.1946661939411199</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03468446302566365</v>
+        <v>0.01938388357945176</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06858958469117425</v>
+        <v>0.1943285009005812</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02635423886041703</v>
+        <v>0.03065151560488232</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0948581090480817</v>
+        <v>0.1957537044650895</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05611857804464232</v>
+        <v>0.07401771445217284</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09419586477798995</v>
+        <v>0.1962304662661159</v>
       </c>
       <c r="N184" t="n">
-        <v>0.100785211132909</v>
+        <v>0.1174949237533765</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09366068214770816</v>
+        <v>0.1963159074490955</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0341106892802318</v>
+        <v>0.01948246244453917</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06858931616271023</v>
+        <v>0.1959615135131912</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02630376835004426</v>
+        <v>0.03082151898707253</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09565523601487232</v>
+        <v>0.1973986935782415</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05524816908397753</v>
+        <v>0.07484334059088057</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09498742666688062</v>
+        <v>0.1978794617809572</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1007682834688168</v>
+        <v>0.1183741543121014</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09444774670357126</v>
+        <v>0.1979656209570711</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03355500690492461</v>
+        <v>0.02055612447352838</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06858904763424623</v>
+        <v>0.1975945261258011</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02605196020273365</v>
+        <v>0.0310575184906836</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09645236298166292</v>
+        <v>0.1990436826913935</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05498792263428093</v>
+        <v>0.07529005119908308</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0957789885557713</v>
+        <v>0.1995284572957985</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09973391156893219</v>
+        <v>0.1192291404253844</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09523481125943435</v>
+        <v>0.1996153344650467</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03301787449320426</v>
+        <v>0.01861058823193589</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0685887791057822</v>
+        <v>0.199227538738411</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02589883511874479</v>
+        <v>0.03135330859850896</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09724948994845352</v>
+        <v>0.2006886718045455</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05433947319936813</v>
+        <v>0.07553907636755941</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09657055044466197</v>
+        <v>0.2011774528106398</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09998136865807788</v>
+        <v>0.1195297036704737</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09602187581529745</v>
+        <v>0.2012650479730223</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03249975063851081</v>
+        <v>0.02066347786601763</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06858851057731818</v>
+        <v>0.2008605513510209</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0256444137983373</v>
+        <v>0.03113547929966019</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09804661691524412</v>
+        <v>0.2023336609176976</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05390445528305465</v>
+        <v>0.0753389646583548</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09736211233355264</v>
+        <v>0.2028264483254811</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0992099279610768</v>
+        <v>0.1194471424323947</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09680894037116054</v>
+        <v>0.2029147614809979</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03200109393435151</v>
+        <v>0.02071518689007638</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06858824204885416</v>
+        <v>0.2024935639636309</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02578871694177078</v>
+        <v>0.03131584088376298</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09884374388203472</v>
+        <v>0.2039786500308496</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05298450338915603</v>
+        <v>0.07613447221507155</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09815367422244332</v>
+        <v>0.2044754438403224</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0976188627027515</v>
+        <v>0.1204576299352458</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09759600492702364</v>
+        <v>0.2045644749889735</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03152049038419487</v>
+        <v>0.02076569675288876</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06858797352039014</v>
+        <v>0.2041265765762408</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02543176524930482</v>
+        <v>0.03129436446220488</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09964087084882534</v>
+        <v>0.2056236391440016</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05218125202148782</v>
+        <v>0.07562552870636624</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09894523611133399</v>
+        <v>0.2061244393551637</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09750744610792494</v>
+        <v>0.1199610544707527</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09838306948288672</v>
+        <v>0.2062141884969491</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03104716304167987</v>
+        <v>0.01881498890323135</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06858770499192614</v>
+        <v>0.2057595891888507</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02537357942119904</v>
+        <v>0.03157102114637336</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1004379978156159</v>
+        <v>0.2072686282571536</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05159633568386565</v>
+        <v>0.07611206380089536</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09973679800022466</v>
+        <v>0.207773434870005</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09667495140141991</v>
+        <v>0.120857304330641</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09917013403874982</v>
+        <v>0.2078639020049247</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03057969791027806</v>
+        <v>0.01886304478988076</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0685874364634621</v>
+        <v>0.2073926018014606</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02511418015771302</v>
+        <v>0.03174578204765598</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1012351247824065</v>
+        <v>0.2089136173703056</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05163138888010493</v>
+        <v>0.07609400716731543</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1005283598891153</v>
+        <v>0.2094224303848463</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09642065180805903</v>
+        <v>0.1208462678066365</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09995719859461291</v>
+        <v>0.2095136155129003</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03011855358349236</v>
+        <v>0.01990984586161358</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0685871679349981</v>
+        <v>0.2090256144140706</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0251511646203831</v>
+        <v>0.03161861827744021</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1020322517491971</v>
+        <v>0.2105586064834576</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05077536714423833</v>
+        <v>0.07667128847428289</v>
       </c>
       <c r="M193" t="n">
-        <v>0.101319921778006</v>
+        <v>0.2110714258996877</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09499105927466828</v>
+        <v>0.1217278331904649</v>
       </c>
       <c r="O193" t="n">
-        <v>0.100744263150476</v>
+        <v>0.2111633290208758</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02966418865476443</v>
+        <v>0.02095537356720641</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06858689940653408</v>
+        <v>0.2106586270266805</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02478184288318123</v>
+        <v>0.0315895009471136</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1028293787159877</v>
+        <v>0.2122035955966096</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05041289602113802</v>
+        <v>0.07694383739045429</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1021114836668967</v>
+        <v>0.212720421414529</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09462573720726153</v>
+        <v>0.1220018887738518</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1015313277063391</v>
+        <v>0.2128130425288514</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02921706171755645</v>
+        <v>0.01899960935543585</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06858663087807007</v>
+        <v>0.2122916396392904</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02480657924361786</v>
+        <v>0.03195840116806364</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1036265056827783</v>
+        <v>0.2138485847097616</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04924465294100677</v>
+        <v>0.07651158358448612</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1029030455557873</v>
+        <v>0.2143694169293703</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09313285487237477</v>
+        <v>0.1223683228485232</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1023183922622022</v>
+        <v>0.214462756036827</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02877763136531161</v>
+        <v>0.01904253467507849</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06858636234960604</v>
+        <v>0.2139246522519003</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02452574465821006</v>
+        <v>0.03172529005167786</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1044236326495689</v>
+        <v>0.2154935738229136</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04877138244398391</v>
+        <v>0.07707445672503491</v>
       </c>
       <c r="M196" t="n">
-        <v>0.103694607444678</v>
+        <v>0.2160184124442116</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09152077097328831</v>
+        <v>0.1218270237062046</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1031054568180653</v>
+        <v>0.2161124695448026</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02834635619153038</v>
+        <v>0.02108413097491094</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06858609382114203</v>
+        <v>0.2155576648645103</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02443971008347502</v>
+        <v>0.03209013870934373</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1052207596163595</v>
+        <v>0.2171385629360657</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0482938290702089</v>
+        <v>0.07753238648075708</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1044861693335687</v>
+        <v>0.2176674079590529</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09019784421328231</v>
+        <v>0.1227778796386218</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1038925213739284</v>
+        <v>0.2177621830527782</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0279236947896556</v>
+        <v>0.01912437970370978</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06858582529267801</v>
+        <v>0.2171906774771202</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02414884647592989</v>
+        <v>0.03195291825244879</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1060178865831501</v>
+        <v>0.2187835520492176</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04761273735982102</v>
+        <v>0.07688530252030923</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1052777312224594</v>
+        <v>0.2193164034738942</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08887243329563732</v>
+        <v>0.1223207789375004</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1046795859297915</v>
+        <v>0.2194118965607538</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02751010575314947</v>
+        <v>0.01916326231025162</v>
       </c>
       <c r="G199" t="n">
-        <v>0.068585556764214</v>
+        <v>0.2188236900897301</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02375352479209183</v>
+        <v>0.03201359979238057</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1068150135499407</v>
+        <v>0.2204285411623697</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04692885185295964</v>
+        <v>0.07703313451234778</v>
       </c>
       <c r="M199" t="n">
-        <v>0.10606929311135</v>
+        <v>0.2209653989887355</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08695289692363323</v>
+        <v>0.1228556098945663</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1054666504856546</v>
+        <v>0.2210616100687294</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02710604767545671</v>
+        <v>0.02120076024331306</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06858528823574997</v>
+        <v>0.2204567027023401</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02385411598847796</v>
+        <v>0.03207215444052657</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1076121405167313</v>
+        <v>0.2220735302755217</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04684291708976407</v>
+        <v>0.07747581212552929</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1068608550002407</v>
+        <v>0.2226143945035768</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08544759380055073</v>
+        <v>0.1225822608015451</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1062537150415177</v>
+        <v>0.222711323576705</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02671197915007477</v>
+        <v>0.01923685495167068</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06858501970728596</v>
+        <v>0.22208971531495</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02335099102160546</v>
+        <v>0.03212855330827427</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1084092674835219</v>
+        <v>0.2237185193886737</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04575567761037377</v>
+        <v>0.07801326502851025</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1076524168891314</v>
+        <v>0.2242633900184182</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0837648826296698</v>
+        <v>0.1228006199501625</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1070407795973808</v>
+        <v>0.2243610370846806</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02632835877044797</v>
+        <v>0.0202715278841011</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06858475117882194</v>
+        <v>0.2237227279275599</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02334452084799145</v>
+        <v>0.03208276750701124</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1092063944503126</v>
+        <v>0.2253635085018257</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04566787795492797</v>
+        <v>0.07784542288994711</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1084439787780221</v>
+        <v>0.2259123855332595</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08291312211427082</v>
+        <v>0.1231105756321443</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1078278441532439</v>
+        <v>0.2260107505926562</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02595564513003845</v>
+        <v>0.0203047604893809</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06858448265035792</v>
+        <v>0.2253557405401698</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02323507642415309</v>
+        <v>0.03223476814812493</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1100035214171032</v>
+        <v>0.2270084976149777</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04508026266356613</v>
+        <v>0.07837221537849645</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1092355406669127</v>
+        <v>0.2275613810481008</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08060067095763412</v>
+        <v>0.1240120161392161</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1086149087091069</v>
+        <v>0.2276604641006318</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02559429682229294</v>
+        <v>0.02133653421628669</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0685842141218939</v>
+        <v>0.2269887531527797</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02292302870660755</v>
+        <v>0.03228452634300288</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1108006483838938</v>
+        <v>0.2286534867281297</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04439357627642751</v>
+        <v>0.07809357216281473</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1100271025558034</v>
+        <v>0.2292103765629421</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07903588786303989</v>
+        <v>0.1233048297631039</v>
       </c>
       <c r="O204" t="n">
-        <v>0.10940197326497</v>
+        <v>0.2293101776086074</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02524477244070508</v>
+        <v>0.01936683051359506</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06858394559342988</v>
+        <v>0.2286217657653896</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02270874865187197</v>
+        <v>0.03253201320303264</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1115977753506844</v>
+        <v>0.2302984758412817</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04350856333365155</v>
+        <v>0.07810942291155842</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1108186644446941</v>
+        <v>0.2308593720777834</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07622713153376853</v>
+        <v>0.1237889047955331</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1101890378208331</v>
+        <v>0.2309598911165829</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02490753057872105</v>
+        <v>0.0203956308300826</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06858367706496588</v>
+        <v>0.2302547783779996</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02249260721646351</v>
+        <v>0.03237719983960168</v>
       </c>
       <c r="K206" t="n">
-        <v>0.112394902317475</v>
+        <v>0.2319434649544337</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04272596837537751</v>
+        <v>0.07831969729338409</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1116102263335847</v>
+        <v>0.2325083675926247</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07448276067310028</v>
+        <v>0.1244641295282295</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1109761023766962</v>
+        <v>0.2326096046245585</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02458302982980301</v>
+        <v>0.02142291661452593</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06858340853650186</v>
+        <v>0.2318877909906095</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0220749753568993</v>
+        <v>0.03252005736409751</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1131920292842656</v>
+        <v>0.2335884540675858</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04264653594174481</v>
+        <v>0.07842432497694821</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1124017882224754</v>
+        <v>0.234157363107466</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07321113398431534</v>
+        <v>0.1248303922529189</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1117631669325593</v>
+        <v>0.2342593181325341</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02427172878739986</v>
+        <v>0.01944866931570162</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06858314000803784</v>
+        <v>0.2335208036032194</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0218562240296965</v>
+        <v>0.03246055688790764</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1139891562510562</v>
+        <v>0.2352334431807378</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04237101057289278</v>
+        <v>0.07832323563090726</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1131933501113661</v>
+        <v>0.2358063586223073</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07082061017069419</v>
+        <v>0.1242875812613269</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1125502314884224</v>
+        <v>0.2359090316405097</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02397408604500091</v>
+        <v>0.01947287038238629</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06858287147957381</v>
+        <v>0.2351538162158294</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02193672419137226</v>
+        <v>0.0324986695224196</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1147862832178468</v>
+        <v>0.2368784322938898</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04150013680896078</v>
+        <v>0.0789163589239178</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1139849120002567</v>
+        <v>0.2374553541371486</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06851954793551684</v>
+        <v>0.1248355848451794</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1133372960442855</v>
+        <v>0.2375587451484853</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02369056019605448</v>
+        <v>0.01949550126335652</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06858260295110981</v>
+        <v>0.2367868288284393</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02161684679844372</v>
+        <v>0.0326343663790209</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1155834101846374</v>
+        <v>0.2385234214070418</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04123465919008815</v>
+        <v>0.07900362452463627</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1147764738891474</v>
+        <v>0.23910434965199</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06681630598206384</v>
+        <v>0.1251742912962019</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1141243606001486</v>
+        <v>0.2392084586564609</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02342160983402269</v>
+        <v>0.02051654340738893</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06858233442264579</v>
+        <v>0.2384198414410492</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02139696280742805</v>
+        <v>0.03256761856909905</v>
       </c>
       <c r="K211" t="n">
-        <v>0.116380537151428</v>
+        <v>0.2401684105201938</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04007532225641425</v>
+        <v>0.07888496210171916</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1155680357780381</v>
+        <v>0.2407533451668313</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06491924301361518</v>
+        <v>0.1244035889061202</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1149114251560117</v>
+        <v>0.2408581721644365</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02316769355235704</v>
+        <v>0.02153597826326009</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06858206589418177</v>
+        <v>0.2400528540536591</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02117744317484241</v>
+        <v>0.03279839720404157</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1171776641182186</v>
+        <v>0.2418133996333458</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04012287054807845</v>
+        <v>0.07896030132382306</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1163595976669288</v>
+        <v>0.2424023406816726</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06293671773345139</v>
+        <v>0.1256233659666602</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1156984897118748</v>
+        <v>0.2425078856724121</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02292926994454178</v>
+        <v>0.02055378727974661</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06858179736571775</v>
+        <v>0.2416858666662691</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02095865885720391</v>
+        <v>0.03272667339523597</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1179747910850092</v>
+        <v>0.2434583887464978</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03947804860522006</v>
+        <v>0.07862957185960434</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1171511595558195</v>
+        <v>0.2440513361965139</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06047708884485276</v>
+        <v>0.1246335107695474</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1164855542677379</v>
+        <v>0.2441575991803877</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02270679760402775</v>
+        <v>0.0195699519056251</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06858152883725373</v>
+        <v>0.243318879278879</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02074098081102974</v>
+        <v>0.03275241825406973</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1187719180517998</v>
+        <v>0.2451033778596499</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03824160096797849</v>
+        <v>0.07929270337771965</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1179427214447101</v>
+        <v>0.2457003317113552</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05954871505109938</v>
+        <v>0.1259339116065075</v>
       </c>
       <c r="O214" t="n">
-        <v>0.117272618823601</v>
+        <v>0.2458073126883633</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02270679760402775</v>
+        <v>0.02058445358967213</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06858152883725373</v>
+        <v>0.2449518918914889</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02042477999283704</v>
+        <v>0.03277560289193041</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1195690450185904</v>
+        <v>0.2467483669728019</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0379142721764931</v>
+        <v>0.07914962554682539</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1187342833336008</v>
+        <v>0.2473493272261965</v>
       </c>
       <c r="N215" t="n">
-        <v>0.05655995505547168</v>
+        <v>0.1258244567692664</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1180596833794641</v>
+        <v>0.2474570261963389</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02212694198862045</v>
+        <v>0.02159727378066431</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06848569354482965</v>
+        <v>0.2465849045040989</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02011042735914295</v>
+        <v>0.03269619842020546</v>
       </c>
       <c r="K216" t="n">
-        <v>0.120366171985381</v>
+        <v>0.2483933560859539</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03749680677090311</v>
+        <v>0.07880026803557807</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1195258452224915</v>
+        <v>0.2489983227410378</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0550191675612498</v>
+        <v>0.1260050345495496</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1188467479353272</v>
+        <v>0.2491067397043145</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02155369915568852</v>
+        <v>0.01960839392737825</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06838985825240558</v>
+        <v>0.2482179171167088</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01999829386646458</v>
+        <v>0.03281417595028246</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1211632989521716</v>
+        <v>0.2500383451991059</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03728994929134805</v>
+        <v>0.07884456051263425</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1203174071113821</v>
+        <v>0.2506473182558791</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05303471127171427</v>
+        <v>0.1258755332390831</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1196338124911902</v>
+        <v>0.2507564532122901</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02098740895716706</v>
+        <v>0.01961779547859053</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06829402295998151</v>
+        <v>0.2498509297293187</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0196887504713192</v>
+        <v>0.03262950659354891</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1219604259189622</v>
+        <v>0.2516833343122579</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03659444427796715</v>
+        <v>0.0793824326466504</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1211089690002728</v>
+        <v>0.2522963137707204</v>
       </c>
       <c r="N218" t="n">
-        <v>0.05181494489014515</v>
+        <v>0.1261358411295923</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1204208770470534</v>
+        <v>0.2524061667202657</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02042841124499131</v>
+        <v>0.01962545988307776</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06819818766755743</v>
+        <v>0.2514839423419286</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01958216813022383</v>
+        <v>0.03284216146139228</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1227575528857528</v>
+        <v>0.25332832342541</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03591103627089984</v>
+        <v>0.07921381410628298</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1219005308891635</v>
+        <v>0.2539453092855617</v>
       </c>
       <c r="N219" t="n">
-        <v>0.05036822711982281</v>
+        <v>0.1262858465128031</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1212079416029165</v>
+        <v>0.2540558802282413</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01987704587109636</v>
+        <v>0.02163136858961653</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06810235237513336</v>
+        <v>0.2531169549545386</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0195789177996957</v>
+        <v>0.03285211166520012</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1235546798525434</v>
+        <v>0.254973312538562</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03604046981028541</v>
+        <v>0.07943863456018857</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1226920927780541</v>
+        <v>0.255594304800403</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04890291666402752</v>
+        <v>0.1255254376804412</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1219950061587795</v>
+        <v>0.2557055937362169</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01933365268741728</v>
+        <v>0.02063550304698344</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06800651708270927</v>
+        <v>0.2547499675671485</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01907937043625194</v>
+        <v>0.03285932831635992</v>
       </c>
       <c r="K221" t="n">
-        <v>0.124351806819334</v>
+        <v>0.256618301651714</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03528348943626328</v>
+        <v>0.07895682367702359</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1234836546669448</v>
+        <v>0.2572433003152443</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04692737222603954</v>
+        <v>0.1255545029242323</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1227820707146426</v>
+        <v>0.2573553072441925</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01879857154588932</v>
+        <v>0.01963784470395508</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0679106817902852</v>
+        <v>0.2563829801797584</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01908389699640969</v>
+        <v>0.03276378252625922</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1251489337861246</v>
+        <v>0.258263290764866</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03454083968897273</v>
+        <v>0.0795683111254446</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1242752165558355</v>
+        <v>0.2588922958300857</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04574995250913921</v>
+        <v>0.1258729305359021</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1235691352705057</v>
+        <v>0.259005020752168</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01827214229844757</v>
+        <v>0.01963716478634409</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06781484649786113</v>
+        <v>0.2580159927923684</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01889286843668612</v>
+        <v>0.0328654454062855</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1259460607529152</v>
+        <v>0.259908279878018</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03441326510855316</v>
+        <v>0.07947302657410807</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1250667784447262</v>
+        <v>0.2605412913449269</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04387901621660678</v>
+        <v>0.1263806088071764</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1243561998263688</v>
+        <v>0.2606547342601436</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01775470479702715</v>
+        <v>0.02059790470606901</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06771901120543705</v>
+        <v>0.2596490054049783</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01870665571359836</v>
+        <v>0.03262970198291588</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1267431877197058</v>
+        <v>0.26155326899117</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03410151023514391</v>
+        <v>0.07880403863657226</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1258583403336168</v>
+        <v>0.2621902868597683</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04352292205172253</v>
+        <v>0.1256758203658043</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1251432643822319</v>
+        <v>0.2623044477681192</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01724659889356314</v>
+        <v>0.02050785075445564</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06762317591301296</v>
+        <v>0.2612820180175882</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01842562978366358</v>
+        <v>0.03261317536717789</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1275403146864964</v>
+        <v>0.263198258104322</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03350631960888431</v>
+        <v>0.07853969210387474</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1266499022225075</v>
+        <v>0.2638392823746096</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04219002871776678</v>
+        <v>0.1246614645204476</v>
       </c>
       <c r="O225" t="n">
-        <v>0.125930328938095</v>
+        <v>0.2639541612760948</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0167481644399908</v>
+        <v>0.01937278615263716</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06752734062058889</v>
+        <v>0.2629150306301981</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0182501616033989</v>
+        <v>0.03262450976326177</v>
       </c>
       <c r="K226" t="n">
-        <v>0.128337441653287</v>
+        <v>0.264843247217474</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03332843776991376</v>
+        <v>0.07809806735108538</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1274414641113982</v>
+        <v>0.2654882778894509</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04168869491801963</v>
+        <v>0.1245650666039474</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1267173934939581</v>
+        <v>0.2656038747840704</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01625974128824521</v>
+        <v>0.02019849412174677</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06743150532816482</v>
+        <v>0.2645480432428081</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0179806221293215</v>
+        <v>0.03207271100494036</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1291345686200776</v>
+        <v>0.266488236330626</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03266860925837156</v>
+        <v>0.07750108970912264</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1282330260002889</v>
+        <v>0.2671372734042922</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04052727935576173</v>
+        <v>0.1233214509315826</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1275044580498212</v>
+        <v>0.267253588292046</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0157816692902615</v>
+        <v>0.01899075788291763</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06733567003574074</v>
+        <v>0.266181055855418</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01791738231794852</v>
+        <v>0.03206678492598658</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1299316955868682</v>
+        <v>0.268133225443778</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03272757861439718</v>
+        <v>0.07677068450890509</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1290245878891795</v>
+        <v>0.2687862689191335</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04041414073427302</v>
+        <v>0.1226654418186317</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1282915226056843</v>
+        <v>0.2689033018000216</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01531428829797476</v>
+        <v>0.01975536065728294</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06723983474331666</v>
+        <v>0.2678140684680279</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01796081312579714</v>
+        <v>0.03141573736017331</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1307288225536588</v>
+        <v>0.26977821455693</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03210609037812978</v>
+        <v>0.07632877708135125</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1298161497780702</v>
+        <v>0.2704352644339748</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03995763775683392</v>
+        <v>0.1214318635803735</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1290785871615474</v>
+        <v>0.2705530153079972</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01485793816332022</v>
+        <v>0.01849808566597586</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06714399945089258</v>
+        <v>0.2694470810806379</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01761124846629966</v>
+        <v>0.03132857414127344</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1315259495204494</v>
+        <v>0.271423203670082</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03190477727987126</v>
+        <v>0.07509729275737959</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1306077116669609</v>
+        <v>0.2720842599488161</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03926525781242379</v>
+        <v>0.1200555405320868</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1298656517174105</v>
+        <v>0.2722027288159728</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01441295873823298</v>
+        <v>0.01922471613012958</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06704816415846851</v>
+        <v>0.2710800936932478</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01736529810850698</v>
+        <v>0.03091430110305986</v>
       </c>
       <c r="K231" t="n">
-        <v>0.13232307648724</v>
+        <v>0.2730681927832341</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0317127421913056</v>
+        <v>0.07459815686790869</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1313992735558515</v>
+        <v>0.2737332554636575</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03904423954923159</v>
+        <v>0.1186712969890501</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1306527162732736</v>
+        <v>0.2738524423239483</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01397968987464816</v>
+        <v>0.01994103527087728</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06695232886604444</v>
+        <v>0.2727131063058577</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01752059849726643</v>
+        <v>0.03038192407930547</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1331202034540306</v>
+        <v>0.274713181896386</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03142262377542021</v>
+        <v>0.07365329474385701</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1321908354447422</v>
+        <v>0.2753822509784987</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03852797543114883</v>
+        <v>0.1158139572665424</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1314397808291367</v>
+        <v>0.2755021558319239</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01355847142450085</v>
+        <v>0.01765282630935214</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06685649357362035</v>
+        <v>0.2743461189184676</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01727719486738671</v>
+        <v>0.02984044890378314</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1339173304208212</v>
+        <v>0.2763581710095381</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03073472462773608</v>
+        <v>0.07198463171614303</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1329823973336329</v>
+        <v>0.27703124649334</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03831657890778128</v>
+        <v>0.115018345679842</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1322268453849998</v>
+        <v>0.2771518693398995</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01314964323972629</v>
+        <v>0.01836587246668734</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06676065828119628</v>
+        <v>0.2759791315310776</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01703513245367651</v>
+        <v>0.02959888141026579</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1347144573876118</v>
+        <v>0.2780031601226901</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0303493473437742</v>
+        <v>0.07081409311568534</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1337739592225236</v>
+        <v>0.2786802420081814</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03901016342873465</v>
+        <v>0.113619286544228</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1330139099408628</v>
+        <v>0.2788015828478752</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01275354517225957</v>
+        <v>0.01708595696401605</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0666648229887722</v>
+        <v>0.2776121441436875</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01689445649094452</v>
+        <v>0.02886622743252629</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1355115843544024</v>
+        <v>0.2796481492358421</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02996679451905579</v>
+        <v>0.06976360427340242</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1345655211114142</v>
+        <v>0.2803292375230227</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03880884244361449</v>
+        <v>0.1109516041749789</v>
       </c>
       <c r="O235" t="n">
-        <v>0.133800974496726</v>
+        <v>0.2804512963558508</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01237051707403578</v>
+        <v>0.01781886302247147</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06656898769634811</v>
+        <v>0.2792451567562974</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01685521221399944</v>
+        <v>0.02865149280433751</v>
       </c>
       <c r="K236" t="n">
-        <v>0.136308711321193</v>
+        <v>0.2812931383489941</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02998736874910185</v>
+        <v>0.0695550905202128</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1353570830003049</v>
+        <v>0.281978233037864</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03831272940202646</v>
+        <v>0.1099501228873734</v>
       </c>
       <c r="O236" t="n">
-        <v>0.134588039052589</v>
+        <v>0.2821010098638263</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01200089879699014</v>
+        <v>0.01757037386318677</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06647315240392404</v>
+        <v>0.2808781693689073</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01671744485764994</v>
+        <v>0.02826368335947238</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1371058382879836</v>
+        <v>0.2829381274621461</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02971137262943341</v>
+        <v>0.06861047718703497</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1361486448891956</v>
+        <v>0.2836272285527053</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03792193775357638</v>
+        <v>0.1083496669966903</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1353751036084521</v>
+        <v>0.2837507233718019</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01164503019305773</v>
+        <v>0.01834176023231687</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06637731711149997</v>
+        <v>0.2825111819815172</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01638119965670472</v>
+        <v>0.02770885735389235</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1379029652547742</v>
+        <v>0.2845831165752982</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02923910875557156</v>
+        <v>0.06714683941173272</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1369402067780862</v>
+        <v>0.2852762240675466</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03793658094786989</v>
+        <v>0.1066779391531241</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1361621681643152</v>
+        <v>0.2854004368797775</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01130325111417371</v>
+        <v>0.01611491376445751</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06628148181907589</v>
+        <v>0.2841441945941272</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01644652184597245</v>
+        <v>0.02736097429160714</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1387000922215648</v>
+        <v>0.2862281056884502</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02897087972303736</v>
+        <v>0.06680420255147945</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1377317686669769</v>
+        <v>0.2869252195823879</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03745677243451268</v>
+        <v>0.1055407881070074</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1369492327201783</v>
+        <v>0.2870501503877531</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01097451368353803</v>
+        <v>0.01588720508638854</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06618564652665182</v>
+        <v>0.285777207206737</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01611345666026189</v>
+        <v>0.02721176222420198</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1394972191883554</v>
+        <v>0.2878730948016022</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02860698812735191</v>
+        <v>0.06545834115156299</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1385233305558676</v>
+        <v>0.2885742150972292</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03698262566311022</v>
+        <v>0.1043985186053099</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1377362972760414</v>
+        <v>0.2886998638957287</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01065083138067507</v>
+        <v>0.01565862049744461</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06608981123422775</v>
+        <v>0.287410219819347</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01618204933438167</v>
+        <v>0.02686119981652275</v>
       </c>
       <c r="K241" t="n">
-        <v>0.140294346155146</v>
+        <v>0.2895180839147542</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02874773656403617</v>
+        <v>0.06490920327006139</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1393148924447583</v>
+        <v>0.2902232106120706</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03711425408326852</v>
+        <v>0.1027510481479372</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1385233618319045</v>
+        <v>0.2903495774037043</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01033115632878478</v>
+        <v>0.01542914629696039</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06599397594180367</v>
+        <v>0.289043232431957</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01615234510314048</v>
+        <v>0.02630926573341526</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1410914731219367</v>
+        <v>0.2911630730279062</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02809342762861133</v>
+        <v>0.06405673696505265</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1401064543336489</v>
+        <v>0.2918722061269118</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03755177114459296</v>
+        <v>0.1011982942347951</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1393104263877676</v>
+        <v>0.2919992909116799</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0100158283798023</v>
+        <v>0.01619876878427056</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0658981406493796</v>
+        <v>0.2906762450445668</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01582438920134704</v>
+        <v>0.02605593863972532</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1418886000887273</v>
+        <v>0.2928080621410582</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0282443639165984</v>
+        <v>0.06290089029461468</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1408980162225396</v>
+        <v>0.2935212016417532</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0361952902966895</v>
+        <v>0.09974017436578919</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1400974909436307</v>
+        <v>0.2936490044196555</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009705187385662721</v>
+        <v>0.0149674742587098</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06580230535695551</v>
+        <v>0.2923092576571768</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01569822686381003</v>
+        <v>0.02570119720029874</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1426857270555179</v>
+        <v>0.2944530512542102</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02770084802351844</v>
+        <v>0.06224161131682548</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1416895781114303</v>
+        <v>0.2951701971565945</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03674492498916354</v>
+        <v>0.09827660604082528</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1408845554994938</v>
+        <v>0.2952987179276311</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009399573198301266</v>
+        <v>0.01473524901961277</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06570647006453144</v>
+        <v>0.2939422702697867</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01547390332533816</v>
+        <v>0.02554502007998138</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1434828540223085</v>
+        <v>0.2960980403673623</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02756318254489254</v>
+        <v>0.06157884808976311</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1424811400003209</v>
+        <v>0.2968191926714358</v>
       </c>
       <c r="N245" t="n">
-        <v>0.035900788671621</v>
+        <v>0.09800750675980902</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1416716200553569</v>
+        <v>0.2969484314356066</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009099325669653019</v>
+        <v>0.01650207936631416</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06561063477210737</v>
+        <v>0.2955752828823967</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01545146382074006</v>
+        <v>0.02508738594361906</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1442799809890991</v>
+        <v>0.2977430294805142</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0271316700762417</v>
+        <v>0.06021254867150547</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1432727018892116</v>
+        <v>0.2984681881862771</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03656299479366731</v>
+        <v>0.09543279402264604</v>
       </c>
       <c r="O246" t="n">
-        <v>0.14245868461122</v>
+        <v>0.2985981449435822</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008804784651653137</v>
+        <v>0.01526795159814861</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06551479947968329</v>
+        <v>0.2972082954950066</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01533095358482449</v>
+        <v>0.02462827345605759</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1450771079558897</v>
+        <v>0.2993880185936663</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02720661321308709</v>
+        <v>0.05964266112013059</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1440642637781023</v>
+        <v>0.3001171837011184</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03583165680490841</v>
+        <v>0.0951523853292422</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1432457491670831</v>
+        <v>0.3002478584515578</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008516289996236708</v>
+        <v>0.01403285201445083</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0654189641872592</v>
+        <v>0.2988413081076165</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01541241785240013</v>
+        <v>0.02446766128214277</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1458742349226803</v>
+        <v>0.3010330077068183</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02708831455094965</v>
+        <v>0.05836913349371653</v>
       </c>
       <c r="M248" t="n">
-        <v>0.144855825666993</v>
+        <v>0.3017661792159597</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03660688815494983</v>
+        <v>0.09286619817950303</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1440328137229462</v>
+        <v>0.3018975719595334</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008234181555338935</v>
+        <v>0.01479676691455549</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06532312889483513</v>
+        <v>0.3004743207202265</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01519590185827563</v>
+        <v>0.02390552808672049</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1466713618894709</v>
+        <v>0.3026779968199703</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02687707668535055</v>
+        <v>0.05829191385034113</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1456473875558836</v>
+        <v>0.303415174730801</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03618880229339722</v>
+        <v>0.09147415007333426</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1448198782788093</v>
+        <v>0.303547285467509</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.00795879918089492</v>
+        <v>0.01455968259779725</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06522729360241106</v>
+        <v>0.3021073333328363</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01518145083725972</v>
+        <v>0.02344185253463651</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1474684888562615</v>
+        <v>0.3043229859331223</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02687320221181078</v>
+        <v>0.05711095024808244</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1464389494447743</v>
+        <v>0.3050641702456424</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0357775126698564</v>
+        <v>0.09037615851064168</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1456069428346724</v>
+        <v>0.3051969989754846</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00769048272483977</v>
+        <v>0.01332158536351077</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06513145830998697</v>
+        <v>0.3037403459454463</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01486911002416107</v>
+        <v>0.02337661329073669</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1482656158230521</v>
+        <v>0.3059679750462743</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02627699372585143</v>
+        <v>0.05592619074501848</v>
       </c>
       <c r="M251" t="n">
-        <v>0.147230511333665</v>
+        <v>0.3067131657604836</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03567313273393291</v>
+        <v>0.08957214099133093</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1463940073905354</v>
+        <v>0.3068467124834602</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007429572039108705</v>
+        <v>0.01508246151103077</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0650356230175629</v>
+        <v>0.3053733585580562</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01475892465378838</v>
+        <v>0.02300978901986685</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1490627427898427</v>
+        <v>0.3076129641594263</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02618875382299357</v>
+        <v>0.05493758339922716</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1480220732225556</v>
+        <v>0.308362161275325</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03587577593523245</v>
+        <v>0.08796201501530765</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1471810719463985</v>
+        <v>0.3084964259914358</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007176406975636797</v>
+        <v>0.01284229733969187</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06493978772513882</v>
+        <v>0.3070063711706661</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01485093996095035</v>
+        <v>0.02264135838687278</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1498598697566333</v>
+        <v>0.3092579532725783</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02650878509875831</v>
+        <v>0.05464507626878656</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1488136351114463</v>
+        <v>0.3100111567901663</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03558555572336075</v>
+        <v>0.08684569808247766</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1479681365022616</v>
+        <v>0.3101461394994114</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006931327386359196</v>
+        <v>0.01260107914882878</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06484395243271475</v>
+        <v>0.3086393837832761</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01444520118045567</v>
+        <v>0.02217130005660037</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1506569967234239</v>
+        <v>0.3109029423857304</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0263373901486666</v>
+        <v>0.05374861741177464</v>
       </c>
       <c r="M254" t="n">
-        <v>0.149605197000337</v>
+        <v>0.3116601523050076</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03530258554792343</v>
+        <v>0.08532310769274665</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1487552010581247</v>
+        <v>0.311795853007387</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006694673123211016</v>
+        <v>0.01435879323777616</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06474811714029066</v>
+        <v>0.310272396395886</v>
       </c>
       <c r="J255" t="n">
-        <v>0.014441753547113</v>
+        <v>0.02169959269389538</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1514541236902145</v>
+        <v>0.3125479314988824</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02587487156823962</v>
+        <v>0.05264815488626931</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1503967588892277</v>
+        <v>0.3133091478198489</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03582697885852631</v>
+        <v>0.08329416134602013</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1495422656139878</v>
+        <v>0.3134455665153625</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006466784038127435</v>
+        <v>0.01211542590586869</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06465228184786659</v>
+        <v>0.3119054090084959</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01424064229573108</v>
+        <v>0.02142621496360368</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1522512506570051</v>
+        <v>0.3141929206120344</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02552153195299833</v>
+        <v>0.05194363675034863</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1511883207781183</v>
+        <v>0.3149581433346902</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03595884910477481</v>
+        <v>0.082558776542204</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1503293301698509</v>
+        <v>0.3150952800233381</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006247999983043574</v>
+        <v>0.01387096345244104</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06455644655544251</v>
+        <v>0.3135384216211058</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01414191266111854</v>
+        <v>0.02115114553057108</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1530483776237957</v>
+        <v>0.3158379097251864</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02527767389846391</v>
+        <v>0.0510350110620906</v>
       </c>
       <c r="M257" t="n">
-        <v>0.151979882667009</v>
+        <v>0.3166071388495315</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03469830973627486</v>
+        <v>0.08101687078120395</v>
       </c>
       <c r="O257" t="n">
-        <v>0.151116394725714</v>
+        <v>0.3167449935313137</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006038660809894569</v>
+        <v>0.01262539217682786</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06446061126301844</v>
+        <v>0.3151714342337158</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01424560987808414</v>
+        <v>0.02067436305964339</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1538455045905863</v>
+        <v>0.3174828988383384</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02514360000015733</v>
+        <v>0.04982222587957316</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1527714445558997</v>
+        <v>0.3182561343643728</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03534547420263201</v>
+        <v>0.0790683615629254</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1519034592815771</v>
+        <v>0.3183947070392894</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005839106370615521</v>
+        <v>0.01237869837836388</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06436477597059435</v>
+        <v>0.3168044468463257</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01405177918143652</v>
+        <v>0.02039584621566644</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1546426315573769</v>
+        <v>0.3191278879514904</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02551961285359969</v>
+        <v>0.0488052292608743</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1535630064447903</v>
+        <v>0.3199051298792141</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03480045595345194</v>
+        <v>0.07731316638727442</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1526905238374402</v>
+        <v>0.320044420547265</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005649676517141634</v>
+        <v>0.01213086835638371</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06426894067817028</v>
+        <v>0.3184374594589356</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0141604658059844</v>
+        <v>0.02001557366348607</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1554397585241675</v>
+        <v>0.3207728770646424</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02500601505431202</v>
+        <v>0.04838396926407204</v>
       </c>
       <c r="M260" t="n">
-        <v>0.154354568333681</v>
+        <v>0.3215541253940554</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03486336843834037</v>
+        <v>0.0766512027541566</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1534775883933033</v>
+        <v>0.3216941340552406</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005470711101407996</v>
+        <v>0.01188188841022206</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06417310538574621</v>
+        <v>0.3200704720715455</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01397171498653646</v>
+        <v>0.01963352406794808</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1562368854909581</v>
+        <v>0.3224178661777944</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02540310919781544</v>
+        <v>0.04725839394724432</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1551461302225717</v>
+        <v>0.3232031209088967</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03503432510690307</v>
+        <v>0.07528238816347754</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1542646529491664</v>
+        <v>0.3233438475632162</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005302549975349763</v>
+        <v>0.01063174483921361</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06407727009332213</v>
+        <v>0.3217034846841555</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01388557195790138</v>
+        <v>0.01924967609389833</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1570340124577487</v>
+        <v>0.3240628552909465</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02491119787963098</v>
+        <v>0.04652845136846917</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1559376921114624</v>
+        <v>0.324852116423738</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03511343940874551</v>
+        <v>0.07370664011514294</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1550517175050295</v>
+        <v>0.3249935610711918</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005145532990902035</v>
+        <v>0.011380423942693</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06398143480089806</v>
+        <v>0.3233364972967654</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01370208195488787</v>
+        <v>0.0186640084061826</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1578311394245393</v>
+        <v>0.3257078444040984</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02473058369527972</v>
+        <v>0.0454940895858246</v>
       </c>
       <c r="M263" t="n">
-        <v>0.156729254000353</v>
+        <v>0.3265011119385793</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03550082479347344</v>
+        <v>0.07212387610905863</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1558387820608926</v>
+        <v>0.3266432745791674</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01112791201999494</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06388559950847399</v>
+        <v>0.3249695099093753</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01372129021230463</v>
+        <v>0.01847649966964676</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1586282663913299</v>
+        <v>0.3273528335172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02456156924028277</v>
+        <v>0.04415525665738848</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1575208158892437</v>
+        <v>0.3281501074534207</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03539659471069262</v>
+        <v>0.07063401364513017</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1566258466167557</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06387244161373713</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005618059481098177</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06387271014220115</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006232542467001743</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06387297867066516</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006843405783465865</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06387324719912919</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007450606256166031</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0638735157275932</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008054100710857541</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06387378425605722</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008653845973269063</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06387405278452123</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009249798869155092</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06387432131298526</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009841916224192421</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06387458984144927</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01043015486413572</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06387485836991329</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01101447161471365</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06387512689837731</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01159482330168002</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06387539542684133</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01217116675071297</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06387566395530535</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01274345878756651</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06387593248376935</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.0133116562379693</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06387620101223337</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01387571592767442</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06387646954069739</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01443559468236146</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06387673806916142</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01499124932778369</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06387700659762542</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01554263668966978</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06387727512608944</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01608971359377209</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06387754365455346</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01663243686577166</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06387781218301748</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01717076333142105</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06387808071148149</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0177046498164489</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06387834923994551</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01823405314660682</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06387861776840953</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01875893014757739</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06387888629687355</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01927941394005369</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06387915482533757</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01979651911941238</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06387942335380158</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02031037880634575</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06387969188226561</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02082094982653771</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06387996041072962</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02132818900573936</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06388022893919364</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02183205316967934</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06388049746765764</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02233249914410804</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06388076599612168</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02282948375471053</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06388103452458568</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02332296382723732</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0638813030530497</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02381289618741707</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06388157158151371</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02429923766099952</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06388184010997774</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02478194507367099</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06388210863844175</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02526097525118137</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06388237716690577</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02573628501925931</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06388264569536979</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02620783120365393</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06388291422383381</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02667557063005284</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06388318275229783</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02713946012420526</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06388345128076184</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02759945651183988</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06388371980922586</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02805551661870509</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06388398833768988</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02850759727048988</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0638842568661539</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02895565529294281</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06388452539461791</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02939964751179254</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06388479392308193</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02983953075278677</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06388506245154595</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03027526184161587</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06388533098000997</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03070679760402774</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06388559950847399</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03070679760402775</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06387244161373713</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0311754151169614</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06396881396308925</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03163961887541383</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06406518631244136</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03209928534161761</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06416155866179346</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03255429097780549</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06425793101114557</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03300451224621008</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06435430336049769</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03344982560906402</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.0644506757098498</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03389010752859989</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.0645470480592019</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03432523446705045</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06464342040855402</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03475508288664829</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06473979275790613</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03517952924962606</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06483616510725825</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03559845001821633</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06493253745661036</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03601172165465186</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06502890980596247</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03641922062116526</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06512528215531459</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03682082337998917</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0652216545046667</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03721640639335615</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0653180268540188</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03760584612349897</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06541439920337092</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03798901903265023</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06551077155272303</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03836580158304258</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06560714390207514</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.0387360702369086</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06570351625142724</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03909970145648102</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06579988860077936</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03945657170399244</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06589626095013147</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03980655744167554</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06599263329948359</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04014953513176289</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06608900564883569</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04048538123648722</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0661853779981878</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04081447666396451</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06628175034753991</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04113972455172761</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06637812269689203</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.0414615058078925</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06647449504624413</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04177969689469191</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06657086739559624</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04209417427435844</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06666723974494836</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04240481440912471</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06676361209430047</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04271149376122337</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06685998444365257</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04301408879288708</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06695635679300468</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04331247596634852</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0670527291423568</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04360653174384028</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06714910149170891</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04389613258759502</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06724547384106101</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04418115495984538</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06734184619041313</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04446147532282405</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06743821853976524</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04473697013876361</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06753459088911735</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04500751586989671</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06763096323846947</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04527298897845605</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06772733558782158</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04553326592667423</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0678237079371737</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.0457882231767839</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06792008028652581</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04603773719101768</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06801645263587791</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04628168443160828</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06811282498523002</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.0465199413607883</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06820919733458214</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.0467523844407904</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06830556968393425</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04697889013384718</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06840194203328637</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04719933490219132</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06849831438263847</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04741359520805548</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06859468673199058</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04027573013870367</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06859468673199058</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04752204962150337</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07051237260907428</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04762236452782016</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07243005848615797</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04771485743141426</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07434774436324167</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.047799845836694</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07626543024032535</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.0478776472480677</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07818311611740905</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04794857916994374</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08010080199449275</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04801295910673045</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08201848787157644</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04807110456283623</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08393617374866014</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04812333304266932</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08585385962574384</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04816996205063816</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08777154550282752</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04821130909115107</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08968923137991122</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04824769166861639</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09160691725699492</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04827942728744247</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09352460313407861</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04830683345203766</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09544228901116231</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04833022766681032</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09735997488824599</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04834992743616877</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09927766076532969</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04836625026452139</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1011953466424134</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.0483795136562765</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1031130325194971</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04839003511584247</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1050307183965808</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04839813214762764</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1069484042736645</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04840412225604034</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1088660901507481</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04840832294548895</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1107837760278318</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04841105172038178</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1127014619049155</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04841262608512722</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1146191477819992</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04841336354413359</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1165368336590829</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04841358160180924</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1184545195361666</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04840900681304679</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1203722054132503</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04835069039135959</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.122289891290334</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04822914936479315</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1242075771674177</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04804920636905412</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1261252630445014</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04781568403984918</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1280429489215851</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04753340501288499</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1299606347986688</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04720719192386821</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1318783206757525</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04684186740850554</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1337960065528362</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04644225410250362</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1357136924299199</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04601317464156912</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1376313783070036</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04555945166140873</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1395490641840873</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.0450859077977291</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.141466750061171</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04459736568623689</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1433844359382546</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04409864796263879</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1453021218153384</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04359457726264147</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.147219807692422</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04308997622195158</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04258966747627581</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1510551794465894</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04209847366132081</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1529728653236731</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04162121741279326</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1548905512007568</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04116272136639983</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1568082370778405</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04072780815784718</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1587259229549242</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04032130042284199</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1606436088320079</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03994802079709092</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1625612947090916</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03961279191630064</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1644789805861753</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03931144890450261</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.166396666463259</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03902167761148313</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1683143523403427</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03874137735336206</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1702320382174264</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03846973833664169</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1721497240945101</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03820595076782425</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1740674099715938</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03794920485341201</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1759850958486775</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03769869079990724</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1779027817257612</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03745359881381216</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1798204676028448</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03721311910162906</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1817381534799286</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03697644186986018</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1836558393570122</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03674275732500776</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1855735252340959</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03651125567357408</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1874912111111796</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03628112712206139</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1894088969882633</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03605156187697192</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.191326582865347</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03582175014480798</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1932442687424307</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03559088213207177</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1951619546195144</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03535814804526559</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1970796404965981</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03512273809089167</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1989973263736818</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03488384247545226</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2009150122507655</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03464065140544961</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2028326981278492</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03439235508738603</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2047503840049329</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03413814372776371</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2066680698820166</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03387720753308493</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2085857557591003</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03360873670985196</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.210503441636184</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03333192146456701</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2124211275132677</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03304597516824394</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2143388133903514</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03275316638066461</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.216256499267435</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03245547421998544</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2181741851445188</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03215298880434189</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2200918710216024</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03184580025186939</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2220095568986861</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03153399868070333</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2239272427757698</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0312176742089792</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2258449286528535</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03089691695483235</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2277626145299372</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03057181703639826</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2296803004070209</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03024246457181233</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2315979862841046</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02990894967920998</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2335156721611883</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02957136247672666</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.235433358038272</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02922979308249779</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2373510439153557</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02888433161465877</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2392687297924394</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02853506819134505</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2411864156695231</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02818209293069203</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2431041015466068</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02782549595083518</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2450217874236905</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02746536736990987</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2469394733007741</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02710179730605156</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2488571591778579</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02673487587739566</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2507748450549416</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02636469320207763</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2526925309320253</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02599133939823282</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2546102168091089</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02561490458399675</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2565279026861926</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02523547887750477</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2584455885632763</v>
-      </c>
-    </row>
+        <v>0.3282929880871429</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1095.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003391735298283488</v>
+        <v>0.001089307850045129</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001633012612609926</v>
+        <v>0.0005058313271931802</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003261301229794962</v>
+        <v>0.001589327474048455</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001644989113152012</v>
+        <v>0.000864574207843685</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009238602084163522</v>
+        <v>0.005928335772817678</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00164899551484131</v>
+        <v>0.0008443866216319208</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01536273997237514</v>
+        <v>0.008040879786826105</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001649713507975592</v>
+        <v>0.0008523933521032516</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.002153968429159013</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003369100464041611</v>
+        <v>0.00101166265438636</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006178135198963042</v>
+        <v>0.003529404903794164</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003289978226304025</v>
+        <v>0.00172914841568737</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01786816424625431</v>
+        <v>0.01136075623904956</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00329799102968262</v>
+        <v>0.001688773243263842</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02936893731187207</v>
+        <v>0.01604850814891257</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003299427015951185</v>
+        <v>0.001704786704206503</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007547314749509905</v>
+        <v>0.003169334466410385</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004899037837829779</v>
+        <v>0.00151749398157954</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004843185908185818</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004163541666666662</v>
+        <v>0.002593722623531055</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01660499122311365</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004429299645390068</v>
+        <v>0.002533159864895762</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02282641021458526</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004476926523297488</v>
+        <v>0.002557180056309755</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007805772313576848</v>
+        <v>0.004110758690868029</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006532050450439705</v>
+        <v>0.002023325308772721</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01055857528437129</v>
+        <v>0.006353624106172087</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00657995645260805</v>
+        <v>0.00345829683137474</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02749148728686768</v>
+        <v>0.01996877054942783</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00659598205936524</v>
+        <v>0.003377546486527683</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.044884840993832</v>
+        <v>0.02967811111217022</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00659885403190237</v>
+        <v>0.003409573408413006</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007839284095989205</v>
+        <v>0.004953593831600676</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008165063063049632</v>
+        <v>0.002529156635965901</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01235895170938393</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008224945565760063</v>
+        <v>0.004163541666666662</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03112542634626983</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008244977574206549</v>
+        <v>0.003819762996941894</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05072238178627381</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008248567539877964</v>
+        <v>0.00457532051282051</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.00567319261767707</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01010730139212483</v>
+        <v>0.003034987963159081</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01397142700507413</v>
+        <v>0.008552209177444661</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009869934678912074</v>
+        <v>0.00518744524706211</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03417279657454333</v>
+        <v>0.02587897862735727</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00989397308904786</v>
+        <v>0.005066319729791525</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05487464594990482</v>
+        <v>0.03904875934054863</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009898281047853555</v>
+        <v>0.005114360112619509</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01164448315021056</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01143108828826948</v>
+        <v>0.003369100464041611</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01550852930639311</v>
+        <v>0.009431101359239878</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01151492379206409</v>
+        <v>0.006052019454905795</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03689550730040009</v>
+        <v>0.0281729948741738</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01154296860388917</v>
+        <v>0.005910706351423445</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05910775426673348</v>
+        <v>0.04292372904296898</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01154799455582915</v>
+        <v>0.005966753464722761</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01052082486862366</v>
+        <v>0.006781977318139558</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01306410090087941</v>
+        <v>0.004046650617545442</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01664249654985295</v>
+        <v>0.01003582731900462</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01249062499999999</v>
+        <v>0.00691659366274948</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0402227136168154</v>
+        <v>0.03071407565904197</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0132878989361702</v>
+        <v>0.006755092973055366</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06380293068377785</v>
+        <v>0.04558425700884811</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01343077956989247</v>
+        <v>0.006819146816826013</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01337760251769846</v>
+        <v>0.007287850036880171</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01469711351348934</v>
+        <v>0.004552481944738621</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0183408779626776</v>
+        <v>0.01077762025135583</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01480490201836811</v>
+        <v>0.007781167870593165</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04238015037892018</v>
+        <v>0.03186360943310382</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01484095963357179</v>
+        <v>0.007599479594687287</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06715653290267692</v>
+        <v>0.04851277411272786</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01484742157178033</v>
+        <v>0.007671540168929264</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0142084868701571</v>
+        <v>0.007769462017617156</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01633012612609926</v>
+        <v>0.005058313271931802</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01986352478828134</v>
+        <v>0.01166771335091042</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01644989113152013</v>
+        <v>0.008645742078436849</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04547353194564921</v>
+        <v>0.03358298464750151</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0164899551484131</v>
+        <v>0.008443866216319209</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07199298377905516</v>
+        <v>0.05129171122915027</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01649713507975593</v>
+        <v>0.008523933521032517</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01400714869872171</v>
+        <v>0.00822533774005238</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01796313873870919</v>
+        <v>0.005564144599124981</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02085232622162138</v>
+        <v>0.01231733981228537</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01809488024467214</v>
+        <v>0.009510316286280534</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04869522060087852</v>
+        <v>0.03573358975337715</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01813895066325441</v>
+        <v>0.009288252837951129</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07612277658658095</v>
+        <v>0.0531034992326575</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01814684858773152</v>
+        <v>0.009376326873135768</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01376725877611444</v>
+        <v>0.00865400168388767</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01959615135131912</v>
+        <v>0.006069975926318162</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02239703297143758</v>
+        <v>0.01293773283009758</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01973986935782415</v>
+        <v>0.01037489049412422</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05160516702907683</v>
+        <v>0.03687681320187278</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01978794617809572</v>
+        <v>0.01013263945958305</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08117579943060693</v>
+        <v>0.0552305689977915</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01979656209570711</v>
+        <v>0.01022872022523902</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01448248787505745</v>
+        <v>0.009053978328824874</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02122916396392904</v>
+        <v>0.006575807253511342</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02348739574646987</v>
+        <v>0.01364012559896401</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02138485847097616</v>
+        <v>0.01123946470196791</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05456332191471286</v>
+        <v>0.0402227136168154</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02143694169293703</v>
+        <v>0.01138083208222981</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08638194041648567</v>
+        <v>0.05825535139909432</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0214462756036827</v>
+        <v>0.01108111357734227</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01514650676827285</v>
+        <v>0.009423792154565853</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02286217657653897</v>
+        <v>0.007081638580704522</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02461316525545812</v>
+        <v>0.01423575131350162</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02302984758412817</v>
+        <v>0.01210403890981159</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05752963594225532</v>
+        <v>0.04067860420482636</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02308593720777834</v>
+        <v>0.01182141270284689</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09067108764957005</v>
+        <v>0.05996027731110798</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02309598911165829</v>
+        <v>0.01193350692944552</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01575298622848279</v>
+        <v>0.00976196764081242</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0244951891891489</v>
+        <v>0.007587469907897704</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02556409220714222</v>
+        <v>0.01483584316832727</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02467483669728019</v>
+        <v>0.01296861311765527</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0597640597961728</v>
+        <v>0.0422784851522047</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02473493272261965</v>
+        <v>0.01266579932447881</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09477312923521264</v>
+        <v>0.06380293068377785</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02474570261963389</v>
+        <v>0.01297417144602463</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01829559702840943</v>
+        <v>0.01006702926726643</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02612820180175882</v>
+        <v>0.008093301235090883</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02672992731026205</v>
+        <v>0.01525163435805799</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0263198258104322</v>
+        <v>0.01383318732549896</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06282654416093411</v>
+        <v>0.04435604516850228</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02638392823746096</v>
+        <v>0.01351018594611073</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09921795327876609</v>
+        <v>0.06561312377083295</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02639541612760948</v>
+        <v>0.01363829363365203</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0187680099407749</v>
+        <v>0.01033750151362975</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02776121441436875</v>
+        <v>0.008599132562284062</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02740042127355753</v>
+        <v>0.01609435807731067</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02796481492358421</v>
+        <v>0.01469776153334264</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06537703972100786</v>
+        <v>0.04629755451433751</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02803292375230227</v>
+        <v>0.01435457256774265</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1027354478855833</v>
+        <v>0.06788194610282805</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02804512963558507</v>
+        <v>0.01449068698575528</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01816389573830134</v>
+        <v>0.01057190885960418</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02939422702697867</v>
+        <v>0.009104963889477243</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02826532480576852</v>
+        <v>0.01664249654985295</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02960980403673622</v>
+        <v>0.01539816173837089</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06697549716086276</v>
+        <v>0.04868928345032877</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02968191926714358</v>
+        <v>0.01519895918937457</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1060555011610168</v>
+        <v>0.0710079618131732</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02969484314356066</v>
+        <v>0.01534308033785853</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01947692519371089</v>
+        <v>0.01076877578489159</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0310272396395886</v>
+        <v>0.009610795216670423</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02871438861563494</v>
+        <v>0.01720553244101322</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03125479314988824</v>
+        <v>0.01642690994903001</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06898186716496751</v>
+        <v>0.05111750223709449</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03133091478198489</v>
+        <v>0.0160433458110065</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1089080012104192</v>
+        <v>0.07476619751039448</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03134455665153626</v>
+        <v>0.01619547368996178</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01973780000768984</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03266025225219853</v>
+        <v>0.01010730139212483</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02943736341189664</v>
+        <v>0.0181820179253737</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03289978226304025</v>
+        <v>0.0172914841568737</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07065610041779083</v>
+        <v>0.05336848113525311</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0329799102968262</v>
+        <v>0.01688773243263842</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1114228361391434</v>
+        <v>0.07753167980301806</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03299427015951185</v>
+        <v>0.01704786704206503</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01999115221756934</v>
+        <v>0.01106431457903639</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03429326486480845</v>
+        <v>0.01062245787105678</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02994968816277434</v>
+        <v>0.01879799560953418</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03454477137619226</v>
+        <v>0.01815605836471738</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0713649380887873</v>
+        <v>0.05492849040542286</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03462890581166751</v>
+        <v>0.01773211905427034</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1128337690928823</v>
+        <v>0.08127943529956994</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03464398366748744</v>
+        <v>0.01790026039416828</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02023548037638946</v>
+        <v>0.01120022887125764</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03592627747741838</v>
+        <v>0.01112828919824996</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03024215945491063</v>
+        <v>0.01964664874209539</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03618976048934427</v>
+        <v>0.01902063257256107</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07292760871664258</v>
+        <v>0.05738380030822229</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03627790132650882</v>
+        <v>0.01857650567590226</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1152646198235116</v>
+        <v>0.08448449060857655</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03629369717546303</v>
+        <v>0.01875265374627154</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01846908793053205</v>
+        <v>0.01133437655968204</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755929009002831</v>
+        <v>0.01163412052544315</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03062146236028578</v>
+        <v>0.02062116057165807</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03783474960249628</v>
+        <v>0.01988520678040475</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07376106387958914</v>
+        <v>0.05962068110426977</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03792689684135013</v>
+        <v>0.01942089229753418</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1161498743941391</v>
+        <v>0.08772187233856382</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03794341068343863</v>
+        <v>0.01960504709837478</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01869027832637891</v>
+        <v>0.01146675798081089</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03919230270263823</v>
+        <v>0.01213995185263632</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03098495494639877</v>
+        <v>0.02171471434682298</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0394797387156483</v>
+        <v>0.02074978098824844</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0740588716085489</v>
+        <v>0.06202540305418361</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03957589235619144</v>
+        <v>0.0202652789191661</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1184793168166975</v>
+        <v>0.09126660709805789</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03959312419141422</v>
+        <v>0.02045744045047804</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02089735501031188</v>
+        <v>0.01159737347114551</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04082531531524815</v>
+        <v>0.0126457831798295</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03112999528074868</v>
+        <v>0.02242049331619084</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04112472782880031</v>
+        <v>0.02161435519609213</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07551459993444404</v>
+        <v>0.06338423641858229</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04122488787103275</v>
+        <v>0.02110966554079802</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1196427311031197</v>
+        <v>0.09509372149558498</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04124283769938981</v>
+        <v>0.02130983380258129</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02008862142871279</v>
+        <v>0.01172622336718721</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04245832792785808</v>
+        <v>0.01315161450702268</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03155394143083451</v>
+        <v>0.02343168072836239</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04276971694195233</v>
+        <v>0.02247892940393581</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07642181688819649</v>
+        <v>0.06528345145808423</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04287388338587406</v>
+        <v>0.02195405216242994</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1208299012653384</v>
+        <v>0.09847824213967116</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0428925512073654</v>
+        <v>0.02216222715468454</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02026238102796345</v>
+        <v>0.01185330800543727</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04409134054046801</v>
+        <v>0.01365744583421587</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03195415146415528</v>
+        <v>0.0241414598319384</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04441470605510434</v>
+        <v>0.02334350361177949</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07667409050072843</v>
+        <v>0.06740931843330777</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04452287890071537</v>
+        <v>0.02279843878406186</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1211306113152865</v>
+        <v>0.1013951956388426</v>
       </c>
       <c r="O92" t="n">
-        <v>0.044542264715341</v>
+        <v>0.02301462050678779</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0204169372544457</v>
+        <v>0.01197862772239702</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04572435315307793</v>
+        <v>0.01416327716140904</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03202798344821003</v>
+        <v>0.02514301387551958</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04605969516825634</v>
+        <v>0.02420807781962318</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07766498880296194</v>
+        <v>0.06934810760487131</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04617187441555668</v>
+        <v>0.02364282540569378</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1228346452648966</v>
+        <v>0.1052196086016254</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04619197822331659</v>
+        <v>0.02386701385889104</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01955059355454135</v>
+        <v>0.01210218285456775</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04735736576568786</v>
+        <v>0.01466910848860222</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03237279545049776</v>
+        <v>0.0260295261077067</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04770468428140836</v>
+        <v>0.02507265202746686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07848807982581901</v>
+        <v>0.07148608923339328</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04782086993039799</v>
+        <v>0.02448721202732571</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1244317871261018</v>
+        <v>0.1071265076365457</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04784169173129218</v>
+        <v>0.02471940721099429</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02066165337463222</v>
+        <v>0.01222397373845076</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04899037837829779</v>
+        <v>0.01517493981579541</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03258594553851753</v>
+        <v>0.0267941797771005</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04934967339456037</v>
+        <v>0.02593722623531055</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07893693160022175</v>
+        <v>0.07250953357949205</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04946986544523929</v>
+        <v>0.02533159864895762</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1250118209108345</v>
+        <v>0.1109909193521297</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04949140523926778</v>
+        <v>0.02557180056309755</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01974842016110018</v>
+        <v>0.01234400071054738</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05062339099090771</v>
+        <v>0.01568077114298859</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03276479177976833</v>
+        <v>0.0276301581323017</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05099466250771239</v>
+        <v>0.02680180044315423</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07930511215709216</v>
+        <v>0.07440471090378603</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05111886096008061</v>
+        <v>0.02617598527058955</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1252645306310279</v>
+        <v>0.1136878703569036</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05114111874724337</v>
+        <v>0.0264241939152008</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02080919736032701</v>
+        <v>0.01246226410735889</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05225640360351764</v>
+        <v>0.01618660247018177</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03300669224174919</v>
+        <v>0.02873064442191103</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0526396516208644</v>
+        <v>0.02766637465099792</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07978618952735236</v>
+        <v>0.07565789146689356</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05276785647492192</v>
+        <v>0.02702037189222146</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1264797002986147</v>
+        <v>0.1154923872593934</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05279083225521896</v>
+        <v>0.02727658726730405</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02184815712483326</v>
+        <v>0.0125787642653866</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05388941621612757</v>
+        <v>0.01669243379737494</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03300900499195916</v>
+        <v>0.02928882189452928</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05428464073401642</v>
+        <v>0.02853094885884161</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0794737317419244</v>
+        <v>0.07645534552943317</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05441685198976322</v>
+        <v>0.02786475851385339</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1267471139255275</v>
+        <v>0.1178794966681252</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05444054576319455</v>
+        <v>0.0281289806194073</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01984711349048805</v>
+        <v>0.01269350152113181</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05552242882873749</v>
+        <v>0.01719826512456812</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0332849930997059</v>
+        <v>0.02989787379875716</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05592962984716842</v>
+        <v>0.02939552306668529</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0804454272336308</v>
+        <v>0.0778833433520231</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05606584750460454</v>
+        <v>0.02870914513548531</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1276058613675556</v>
+        <v>0.1200242251916252</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05609025927117015</v>
+        <v>0.02898137397151055</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02183443129489631</v>
+        <v>0.01280647621109584</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05715544144134741</v>
+        <v>0.01770409645176131</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03328465546151611</v>
+        <v>0.0307509833831954</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05757461896032044</v>
+        <v>0.03026009727452898</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08024248282769222</v>
+        <v>0.07842815519528187</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05771484301944585</v>
+        <v>0.02955353175711723</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1266978091050627</v>
+        <v>0.1224015994384196</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05773997277914573</v>
+        <v>0.0298337673236138</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02180805815530595</v>
+        <v>0.01291768867177999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05878845405395735</v>
+        <v>0.01820992777895449</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03316954086461965</v>
+        <v>0.03144133389644475</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05921960807347244</v>
+        <v>0.03112467148237266</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08002897163075037</v>
+        <v>0.07947605131982785</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05936383853428716</v>
+        <v>0.03039791837874915</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1265843032933479</v>
+        <v>0.1244866460170345</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05938968628712132</v>
+        <v>0.03068616067571706</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02076888820439961</v>
+        <v>0.01302713923968556</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06042146666656727</v>
+        <v>0.01871575910614767</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03313299132905555</v>
+        <v>0.03176210858710599</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06086459718662446</v>
+        <v>0.03198924569021635</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07996057148598751</v>
+        <v>0.07971330198627935</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06101283404912847</v>
+        <v>0.03124230500038107</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1268815762161055</v>
+        <v>0.1251543915359959</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06103939979509692</v>
+        <v>0.0315385540278203</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02171781557485999</v>
+        <v>0.01313482825131385</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0620544792791772</v>
+        <v>0.01922159043334085</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03297639922944094</v>
+        <v>0.03210649070377981</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06250958629977647</v>
+        <v>0.03285381989806003</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0797421606497391</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06266182956396978</v>
+        <v>0.03208669162201299</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1262990714030368</v>
+        <v>0.1263798626038302</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06268911330307252</v>
+        <v>0.03239094737992356</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01965573439936974</v>
+        <v>0.01324075604316617</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06368749189178713</v>
+        <v>0.01972742176053403</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03310115694039299</v>
+        <v>0.03276766349506699</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06415457541292849</v>
+        <v>0.03371839410590372</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07937712895519694</v>
+        <v>0.07974542723363079</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06431082507881108</v>
+        <v>0.03293107824364491</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1267421729744659</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06433882681104812</v>
+        <v>0.03324334073202682</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02158353881061156</v>
+        <v>0.01334492295174383</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06532050450439705</v>
+        <v>0.02023325308772721</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03290865683652877</v>
+        <v>0.03293881020956825</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0657995645260805</v>
+        <v>0.03458296831374739</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07946886623555277</v>
+        <v>0.07984542723363081</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06595982059365239</v>
+        <v>0.03377546486527683</v>
       </c>
       <c r="N105" t="n">
-        <v>0.125616265050717</v>
+        <v>0.1268058613675556</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06598854031902371</v>
+        <v>0.03409573408413007</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02050212294126809</v>
+        <v>0.01344732931354813</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06695351711700698</v>
+        <v>0.02073908441492038</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03260029129246543</v>
+        <v>0.03321311409588433</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0674445536392325</v>
+        <v>0.03544754252159108</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0793207623239984</v>
+        <v>0.0796454272336308</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0676088161084937</v>
+        <v>0.03461985148690875</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1255267317521143</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0676382538269993</v>
+        <v>0.03494812743623332</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02041238092402203</v>
+        <v>0.01354797546508037</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0685865297296169</v>
+        <v>0.02124491574211356</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03267745268282006</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06908954275238452</v>
+        <v>0.03631211672943477</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07913620705372559</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06925781162333501</v>
+        <v>0.03546423810854067</v>
       </c>
       <c r="N107" t="n">
-        <v>0.124878957198982</v>
+        <v>0.1264058613675557</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06928796733497489</v>
+        <v>0.03580052078833657</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02031520689155604</v>
+        <v>0.01364686174284187</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07021954234222683</v>
+        <v>0.02175074706930675</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03234153338220982</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07073453186553653</v>
+        <v>0.03717669093727845</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07841859025792619</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07090680713817632</v>
+        <v>0.03630862473017259</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1246783255116442</v>
+        <v>0.1268058613675556</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07093768084295048</v>
+        <v>0.03665291414043982</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01921149497655279</v>
+        <v>0.01374398848333391</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07185255495483675</v>
+        <v>0.02225657839649993</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03229392576525182</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07237952097868855</v>
+        <v>0.03804126514512213</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07837130176979187</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07255580265301764</v>
+        <v>0.03715301135180452</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1238302208104251</v>
+        <v>0.1272058613675556</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07258739435092607</v>
+        <v>0.03750530749254307</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02010213931169495</v>
+        <v>0.01383935602305782</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07348556756744667</v>
+        <v>0.02276240972369311</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03213602220656318</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07402451009184056</v>
+        <v>0.03890583935296582</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07799773142251443</v>
+        <v>0.07984542723363081</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07420479816785895</v>
+        <v>0.03799739797343643</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1241400272156489</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07423710785890165</v>
+        <v>0.03835770084464632</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0199880340296652</v>
+        <v>0.01393296469851489</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07511858018005661</v>
+        <v>0.02326824105088629</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03216921508076104</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07566949920499257</v>
+        <v>0.03977041356080951</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07760126904928569</v>
+        <v>0.0796454272336308</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07585379368270026</v>
+        <v>0.03884178459506835</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1225131288476397</v>
+        <v>0.1269058613675557</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07588682136687726</v>
+        <v>0.03921009419674957</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01987007326314619</v>
+        <v>0.01402481484620643</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07675159279266654</v>
+        <v>0.02377407237807947</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03189489676246249</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07731448831814458</v>
+        <v>0.04063498776865319</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07698530448329738</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07750278919754157</v>
+        <v>0.03968617121670028</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1217549098267218</v>
+        <v>0.1265058613675556</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07753653487485285</v>
+        <v>0.04006248754885283</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01874915114482063</v>
+        <v>0.01411490680263373</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07838460540527646</v>
+        <v>0.02427990370527265</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03151445962628469</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0789594774312966</v>
+        <v>0.04149956197649688</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0762532275577413</v>
+        <v>0.07994542723363079</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07915178471238288</v>
+        <v>0.0405305578383322</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1220707542732193</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07918624838282844</v>
+        <v>0.04091488090095607</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01862616180737116</v>
+        <v>0.01420324090429812</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08001761801788639</v>
+        <v>0.02478573503246583</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03142929604684473</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08060446654444861</v>
+        <v>0.04236413618434056</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07590842810580925</v>
+        <v>0.07984542723363081</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08080078022722419</v>
+        <v>0.04137494445996412</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1212660463074564</v>
+        <v>0.1269058613675557</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08083596189080404</v>
+        <v>0.04176727425305933</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01950199938348047</v>
+        <v>0.01428981748770089</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08165063063049631</v>
+        <v>0.02529156635965901</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03124079839875976</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08224945565760063</v>
+        <v>0.04322871039218425</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07605429596069296</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0824497757420655</v>
+        <v>0.04221933108159604</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1207461700497573</v>
+        <v>0.1272058613675556</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08248567539877963</v>
+        <v>0.04261966760516258</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02037755800583122</v>
+        <v>0.01437463688934335</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08328364324310623</v>
+        <v>0.02579739768685219</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03095035905664689</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08389444477075263</v>
+        <v>0.04409328460002793</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07499422095558425</v>
+        <v>0.0796454272336308</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0840987712569068</v>
+        <v>0.04306371770322796</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1194165096204461</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08413538890675522</v>
+        <v>0.04347206095726584</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01825373180710609</v>
+        <v>0.0144576994457268</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08491665585571616</v>
+        <v>0.02630322901404537</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03095937039512325</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08553943388390466</v>
+        <v>0.04495785880787162</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07453159292367484</v>
+        <v>0.07974542723363079</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08574776677174811</v>
+        <v>0.04390810432485988</v>
       </c>
       <c r="N117" t="n">
-        <v>0.119082449139847</v>
+        <v>0.1269058613675557</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08578510241473081</v>
+        <v>0.04432445430936909</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01813129146569695</v>
+        <v>0.01453900549335254</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0865496684683261</v>
+        <v>0.02680906034123855</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03066922478880596</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08718442299705666</v>
+        <v>0.0458224330157153</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0746698016981566</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08739676228658942</v>
+        <v>0.0447524909464918</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1185493727282843</v>
+        <v>0.1266058613675556</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08743481592270641</v>
+        <v>0.04517684766147233</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01799792293339008</v>
+        <v>0.01461855536872188</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08818268108093602</v>
+        <v>0.02731489166843173</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03068128620880087</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08882941211020867</v>
+        <v>0.04668700722355899</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0739122371122212</v>
+        <v>0.07994542723363079</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08904575780143073</v>
+        <v>0.04559687756812372</v>
       </c>
       <c r="N119" t="n">
-        <v>0.117122664506082</v>
+        <v>0.1273058613675556</v>
       </c>
       <c r="O119" t="n">
-        <v>0.089084529430682</v>
+        <v>0.04602924101357558</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01784704330087573</v>
+        <v>0.01469634940833613</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08981569369354594</v>
+        <v>0.02782072299562491</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03017836353342603</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09047440122336069</v>
+        <v>0.04755158143140267</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07334225894867255</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09069475331627204</v>
+        <v>0.04644126418975564</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1170814169808219</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09073424293865759</v>
+        <v>0.04688163436567884</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01968156575931439</v>
+        <v>0.0147723879486966</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09144870630615587</v>
+        <v>0.02832655432281809</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03004811787303296</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09211939033651269</v>
+        <v>0.04841615563924636</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07280631878624169</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09234374883111336</v>
+        <v>0.04728565081138756</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1151373665027789</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09238395644663318</v>
+        <v>0.04773402771778209</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01750440349986656</v>
+        <v>0.01484667132630457</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09308171891876579</v>
+        <v>0.02883238565001127</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02979508575056214</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09376437944966472</v>
+        <v>0.04928072984709004</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07211120095679713</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09399274434595467</v>
+        <v>0.04813003743301949</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1151982724354063</v>
+        <v>0.1271058613675556</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09403366995460877</v>
+        <v>0.04858642106988534</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01731846971369273</v>
+        <v>0.01491919987766136</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09471473153137572</v>
+        <v>0.02933821697720445</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02942380368895398</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09540936856281672</v>
+        <v>0.05014530405493373</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07136794994208212</v>
+        <v>0.08034542723363081</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09564173986079598</v>
+        <v>0.04897442405465141</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1143816768863123</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09568338346258436</v>
+        <v>0.04943881442198859</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0181266775919534</v>
+        <v>0.01498997393926828</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09634774414398566</v>
+        <v>0.02984404830439763</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02943880821114879</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09705435767596873</v>
+        <v>0.05100987826277741</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07128761022384</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09729073537563727</v>
+        <v>0.04981881067628333</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1121051219631051</v>
+        <v>0.1265058613675556</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09733309697055996</v>
+        <v>0.05029120777409185</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01793194032580906</v>
+        <v>0.01505899384762664</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09798075675659558</v>
+        <v>0.03034987963159081</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02894463584008702</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09869934678912075</v>
+        <v>0.0518744524706211</v>
       </c>
       <c r="L125" t="n">
-        <v>0.070281226283814</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09893973089047858</v>
+        <v>0.05066319729791525</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1121861497733929</v>
+        <v>0.1274058613675557</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09898281047853556</v>
+        <v>0.0511436011261951</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01873717110642021</v>
+        <v>0.01512625993923772</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0996137693692055</v>
+        <v>0.03085571095878399</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02864582309870911</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1003443359022728</v>
+        <v>0.05273902667846478</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06955984260374742</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1005887264053199</v>
+        <v>0.05150758391954717</v>
       </c>
       <c r="N126" t="n">
-        <v>0.110042302424784</v>
+        <v>0.1274058613675557</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1006325239865112</v>
+        <v>0.05199599447829835</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01854528312494735</v>
+        <v>0.01519177255060284</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1012467819818154</v>
+        <v>0.03136154228597717</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02834690650995539</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1019893250154248</v>
+        <v>0.05360360088630847</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06863450366538359</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1022377219201612</v>
+        <v>0.05235197054117909</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1092911220248864</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1022822374944867</v>
+        <v>0.0528483878304016</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01835918957255096</v>
+        <v>0.01525553201822331</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1028797945944254</v>
+        <v>0.03186737361317035</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02795242259676632</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1036343141285768</v>
+        <v>0.05446817509415216</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06821625395046568</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1038867174350025</v>
+        <v>0.05319635716281101</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1086501506813085</v>
+        <v>0.1271058613675556</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1039319510024623</v>
+        <v>0.05370078118250485</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01718180046255058</v>
+        <v>0.01531753867860042</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1045128072070353</v>
+        <v>0.03237320494036353</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02786690788208225</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1052793032417288</v>
+        <v>0.05533274930199584</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06781613794073701</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1055357129498438</v>
+        <v>0.05404074378444293</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1066369305016583</v>
+        <v>0.1276058613675556</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1055816645104379</v>
+        <v>0.0545531745346081</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01599968569991266</v>
+        <v>0.01537779286823548</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1061458198196452</v>
+        <v>0.03287903626755671</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02769487486285728</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1069242923548808</v>
+        <v>0.05619732350983952</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0668452001179409</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1071847084646851</v>
+        <v>0.05488513040607485</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1065690035935442</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1072313780184135</v>
+        <v>0.05540556788671136</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01780114872523672</v>
+        <v>0.0154362949236298</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1077788324322551</v>
+        <v>0.03338486759474989</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02711480522995192</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1085692814680328</v>
+        <v>0.05706189771768321</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06618465567373266</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1088337039795264</v>
+        <v>0.05572951702770677</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1055240148279451</v>
+        <v>0.1266058613675556</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1088810915263891</v>
+        <v>0.0562579612388146</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01759035977252241</v>
+        <v>0.01549304518128469</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1094118450448651</v>
+        <v>0.03389069892194307</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02710950699942226</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1102142705811848</v>
+        <v>0.05792647192552689</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0651630015968612</v>
+        <v>0.0796454272336308</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1104826994943678</v>
+        <v>0.0565739036493387</v>
       </c>
       <c r="N132" t="n">
-        <v>0.10398419516745</v>
+        <v>0.1266058613675556</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1105308050343647</v>
+        <v>0.05711035459091787</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01537148907576942</v>
+        <v>0.01554804397770144</v>
       </c>
       <c r="G133" t="n">
-        <v>0.111044857657475</v>
+        <v>0.03439653024913625</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02658547420518649</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1118592596943368</v>
+        <v>0.05879104613337058</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06439077729161649</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1121316950092091</v>
+        <v>0.05741829027097061</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1024626464078089</v>
+        <v>0.1264058613675557</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1121805185423403</v>
+        <v>0.05796274794302111</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01614870686897741</v>
+        <v>0.01560129164938137</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1126778702700849</v>
+        <v>0.03490236157632944</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02634920088116278</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1135042488074888</v>
+        <v>0.05965562034121426</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06368379293684959</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1137806905240504</v>
+        <v>0.05826267689260253</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1017844800812018</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1138302320503159</v>
+        <v>0.05881514129512436</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01492618338614606</v>
+        <v>0.01565278853282576</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1143108828826948</v>
+        <v>0.03540819290352262</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02580718106126929</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1151492379206409</v>
+        <v>0.06052019454905795</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06325785871141143</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1154296860388917</v>
+        <v>0.05910706351423445</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09957480771980881</v>
+        <v>0.1274058613675557</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1154799455582915</v>
+        <v>0.05966753464722761</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01470808886127503</v>
+        <v>0.01570253496453594</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1159438954953048</v>
+        <v>0.03591402423071579</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02566590877942417</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1167942270337929</v>
+        <v>0.06138476875690163</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06172878479415311</v>
+        <v>0.07984542723363081</v>
       </c>
       <c r="M136" t="n">
-        <v>0.117078681553733</v>
+        <v>0.05995145013586638</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09855874085581012</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1171296590662671</v>
+        <v>0.06051992799933087</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01449859352836402</v>
+        <v>0.0157505312810132</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1175769081079147</v>
+        <v>0.03641985555790897</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0254318780695456</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1184392161469449</v>
+        <v>0.06224934296474532</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06141238136392554</v>
+        <v>0.07994542723363079</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1187276770685743</v>
+        <v>0.0607958367574983</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09766139102138571</v>
+        <v>0.1266058613675556</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1187793725742426</v>
+        <v>0.06137232135143411</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01630186762141268</v>
+        <v>0.01579677781875885</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1192099207205246</v>
+        <v>0.03692568688510215</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02501158296555171</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1200842052600969</v>
+        <v>0.063113917172589</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06052445859957978</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1203766725834156</v>
+        <v>0.06164022337913022</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0964078697487159</v>
+        <v>0.1275058613675557</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1204290860822183</v>
+        <v>0.06222471470353737</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01412208137442068</v>
+        <v>0.01584127491427421</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1208429333331345</v>
+        <v>0.03743151821229533</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02481151750136069</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1217291943732489</v>
+        <v>0.0639784913804327</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05948082667996679</v>
+        <v>0.07994542723363079</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1220256680982569</v>
+        <v>0.06248461000076214</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09522328856998069</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1220787995901938</v>
+        <v>0.06307710805564061</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01596340502138772</v>
+        <v>0.01588402290406056</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1224759459457445</v>
+        <v>0.03793734953948851</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0243381757108907</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1233741834864009</v>
+        <v>0.06484306558827638</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0590972957839376</v>
+        <v>0.0801454272336308</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1236746636130982</v>
+        <v>0.06332899662239405</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09343275901736015</v>
+        <v>0.1268058613675556</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1237285130981695</v>
+        <v>0.06392950140774387</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01483000879631345</v>
+        <v>0.01592502212461921</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1241089585583544</v>
+        <v>0.03844318086668169</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0242980516280599</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1250191725995529</v>
+        <v>0.06570763979612006</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05838967609034321</v>
+        <v>0.07994542723363079</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1253236591279396</v>
+        <v>0.06417338324402598</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09266139262303447</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O141" t="n">
-        <v>0.125378226606145</v>
+        <v>0.06478189475984712</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01472606293319755</v>
+        <v>0.01596427291245147</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1257419711709643</v>
+        <v>0.03894901219387487</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02399763928678646</v>
+        <v>0.0329849930997059</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126664161712705</v>
+        <v>0.06657221400396374</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0578737777780346</v>
+        <v>0.07984542723363081</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1269726546427808</v>
+        <v>0.0650177698656579</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09263430091918384</v>
+        <v>0.1265058613675556</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1270279401141206</v>
+        <v>0.06563428811195038</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01465573766603968</v>
+        <v>0.01600177560405864</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1273749837835743</v>
+        <v>0.03945484352106805</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02394343272098853</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K143" t="n">
-        <v>0.128309150825857</v>
+        <v>0.06743678821180743</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05716541102586276</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1286216501576222</v>
+        <v>0.06586215648728982</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09077659543798822</v>
+        <v>0.1270058613675557</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1286776536220962</v>
+        <v>0.06648668146405363</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01562320322883952</v>
+        <v>0.01603753053594204</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1290079963961842</v>
+        <v>0.03996067484826123</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02364192596458425</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K144" t="n">
-        <v>0.129954139939009</v>
+        <v>0.06830136241965111</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05718038601267869</v>
+        <v>0.08024542723363079</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1302706456724635</v>
+        <v>0.06670654310892174</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09051338771162781</v>
+        <v>0.1272058613675556</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1303273671300718</v>
+        <v>0.06733907481615688</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01562301009606412</v>
+        <v>0.01607153804460296</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1306410090087941</v>
+        <v>0.04046650617545441</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02379961305149182</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131599129052161</v>
+        <v>0.06916593662749479</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05733451291733341</v>
+        <v>0.08034542723363081</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1319196411873048</v>
+        <v>0.06755092973055367</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0911697892722827</v>
+        <v>0.1274058613675557</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1319770806380474</v>
+        <v>0.06819146816826013</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0156304014939748</v>
+        <v>0.0161037984665427</v>
       </c>
       <c r="G146" t="n">
-        <v>0.132274021621404</v>
+        <v>0.04097233750264759</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02350216051635956</v>
+        <v>0.03318499309970589</v>
       </c>
       <c r="K146" t="n">
-        <v>0.133244118165313</v>
+        <v>0.07003051083533848</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0567220465298254</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1335686367021461</v>
+        <v>0.06839531635218558</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09054284727076095</v>
+        <v>0.1272058613675556</v>
       </c>
       <c r="O146" t="n">
-        <v>0.133626794146023</v>
+        <v>0.06904386152036338</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01564356197338448</v>
+        <v>0.01613431213826257</v>
       </c>
       <c r="G147" t="n">
-        <v>0.133907034234014</v>
+        <v>0.04147816882984077</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02351475543911279</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K147" t="n">
-        <v>0.134889107278465</v>
+        <v>0.07089508504318216</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05714621116736096</v>
+        <v>0.0804454272336308</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1352176322169874</v>
+        <v>0.0692397029738175</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09057937318149106</v>
+        <v>0.1267058613675556</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1352765076539986</v>
+        <v>0.06989625487246663</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01466218510701793</v>
+        <v>0.01616307939626389</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1355400468466239</v>
+        <v>0.04198400015703395</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02363620153973396</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K148" t="n">
-        <v>0.136534096391617</v>
+        <v>0.07175965925102586</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05719220249638407</v>
+        <v>0.0803451387262567</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1368666277318287</v>
+        <v>0.07008408959544943</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09135064560781303</v>
+        <v>0.1272058613675556</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1369262211619742</v>
+        <v>0.07074864822456987</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01468596446759996</v>
+        <v>0.01619010057704794</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1371730594592338</v>
+        <v>0.04248983148422713</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02366602163897641</v>
+        <v>0.0332849930997059</v>
       </c>
       <c r="K149" t="n">
-        <v>0.138179085504769</v>
+        <v>0.07262423345886954</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05685885879071187</v>
+        <v>0.07984083827844449</v>
       </c>
       <c r="M149" t="n">
-        <v>0.13851562324667</v>
+        <v>0.07092847621708134</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09055481936348958</v>
+        <v>0.1272056189574508</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1385759346699498</v>
+        <v>0.07160104157667313</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01371459362785533</v>
+        <v>0.01621537601711603</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1388060720718437</v>
+        <v>0.04299566281142032</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02370373855759336</v>
+        <v>0.03308499309970589</v>
       </c>
       <c r="K150" t="n">
-        <v>0.139824074617921</v>
+        <v>0.07348880766671323</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0573450183241615</v>
+        <v>0.08043153871990827</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1401646187615113</v>
+        <v>0.07177286283871327</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09079004926228346</v>
+        <v>0.1271994338817294</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1402256481779254</v>
+        <v>0.07245343492877639</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01574776616050886</v>
+        <v>0.01623890605296949</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1404390846844537</v>
+        <v>0.0435014941386135</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02384887511633807</v>
+        <v>0.03308456413601935</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1414690637310731</v>
+        <v>0.07435338187455691</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05754951937055022</v>
+        <v>0.08041743715583885</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1418136142763526</v>
+        <v>0.07261724946034519</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09055449011795741</v>
+        <v>0.1263851421093073</v>
       </c>
       <c r="O151" t="n">
-        <v>0.141875361685901</v>
+        <v>0.07330582828087964</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01378517563828531</v>
+        <v>0.0162606910211096</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1420720972970636</v>
+        <v>0.04400732546580668</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0240009541359638</v>
+        <v>0.03298207619408362</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1431140528442251</v>
+        <v>0.07521795608240059</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05737120020369513</v>
+        <v>0.08039873069142717</v>
       </c>
       <c r="M152" t="n">
-        <v>0.143462609791194</v>
+        <v>0.07346163608197712</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09184629674427414</v>
+        <v>0.1269630652752963</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1435250751938766</v>
+        <v>0.0741582216329829</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01482651563390948</v>
+        <v>0.01628073125803767</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1437051099096735</v>
+        <v>0.04451315679299985</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02395949843722384</v>
+        <v>0.03327744729781</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1447590419573771</v>
+        <v>0.07608253029024427</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05810889909741335</v>
+        <v>0.08037561643186406</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1451116053060353</v>
+        <v>0.07430602270360903</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0920636239549964</v>
+        <v>0.1275335250148082</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1451747887018521</v>
+        <v>0.07501061498508614</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01587147972010615</v>
+        <v>0.016299027100255</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1453381225222834</v>
+        <v>0.04501898812019303</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0240240308408714</v>
+        <v>0.03317076499151685</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1464040310705291</v>
+        <v>0.07694710449808796</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05826145432552218</v>
+        <v>0.08024829148234036</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1467606008208766</v>
+        <v>0.07515040932524095</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09190462656388687</v>
+        <v>0.1264968429629551</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1468245022098277</v>
+        <v>0.0758630083371894</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01391976146960011</v>
+        <v>0.0163155788842629</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1469711351348933</v>
+        <v>0.04552481944738621</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02389407416765983</v>
+        <v>0.03296211681952252</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1480490201836811</v>
+        <v>0.07781167870593164</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0577277041618387</v>
+        <v>0.08031695294804692</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1484095963357179</v>
+        <v>0.07599479594687286</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09176745938470837</v>
+        <v>0.1272533407548488</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1484742157178033</v>
+        <v>0.07671540168929264</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01597105445511616</v>
+        <v>0.01633038694656268</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1486041477475033</v>
+        <v>0.04603065077457939</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02426915123834229</v>
+        <v>0.03325159032614534</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1496940092968331</v>
+        <v>0.07867625291377534</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05860648688018016</v>
+        <v>0.07998179793417459</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1500585918505592</v>
+        <v>0.07683918256850479</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09295027723122362</v>
+        <v>0.1272033400256014</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1501239292257789</v>
+        <v>0.0775677950413959</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01603697119448289</v>
+        <v>0.01634345162365564</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1502371603601132</v>
+        <v>0.04653648210177258</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02404878487367212</v>
+        <v>0.03323927305570369</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1513389984099851</v>
+        <v>0.07954082712161901</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05829664075436364</v>
+        <v>0.07964302354591432</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1517075873654005</v>
+        <v>0.07768356919013671</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09215123491719535</v>
+        <v>0.1265471624103245</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1517736427337545</v>
+        <v>0.07842018839349914</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01515106376840496</v>
+        <v>0.01635477325204308</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1518701729727231</v>
+        <v>0.04704231342896575</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02416427290315583</v>
+        <v>0.03322525255251589</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1529839875231372</v>
+        <v>0.08040540132946271</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05833621628470095</v>
+        <v>0.08020082688845687</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1533565828802418</v>
+        <v>0.07852795581176863</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09242202651036985</v>
+        <v>0.1263851295441302</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1534233562417301</v>
+        <v>0.07927258174560241</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01630708117820668</v>
+        <v>0.01636435216822631</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1535031855853331</v>
+        <v>0.04754814475615893</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02435515584169649</v>
+        <v>0.03290961636090031</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1546289766362892</v>
+        <v>0.08126997553730639</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05885473629469001</v>
+        <v>0.07935540506699312</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1550055783950831</v>
+        <v>0.07937234243340056</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09387330587774168</v>
+        <v>0.1267175630621306</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1550730697497057</v>
+        <v>0.08012497509770565</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01549577312403794</v>
+        <v>0.01637218870870663</v>
       </c>
       <c r="G160" t="n">
-        <v>0.155136198197943</v>
+        <v>0.04805397608335212</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02470756225589966</v>
+        <v>0.03309245202517527</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1562739657494412</v>
+        <v>0.08213454974515007</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05973162215534913</v>
+        <v>0.07970695518671397</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1566545739099245</v>
+        <v>0.08021672905503248</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09477855598673801</v>
+        <v>0.1270447845994373</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1567227832576813</v>
+        <v>0.08097736844980891</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01570788930604868</v>
+        <v>0.01637828320998536</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1567692108105529</v>
+        <v>0.0485598074105453</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02510708725601958</v>
+        <v>0.03317384708965915</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1579189548625932</v>
+        <v>0.08299912395299376</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06043180415714491</v>
+        <v>0.08005567435281027</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1583035694247658</v>
+        <v>0.08106111567666439</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09598207511837165</v>
+        <v>0.1264671157911624</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1583724967656569</v>
+        <v>0.08182976180191215</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0149341794243888</v>
+        <v>0.01638263600856377</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1584022234231628</v>
+        <v>0.04906563873773848</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02523932595231039</v>
+        <v>0.03295388909867025</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1595639439757452</v>
+        <v>0.08386369816083744</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06132021259054382</v>
+        <v>0.07920175967047283</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1599525649396071</v>
+        <v>0.08190550229829631</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09682816155365548</v>
+        <v>0.1265848782724178</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1600222102736325</v>
+        <v>0.0826821551540154</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01716539317920825</v>
+        <v>0.0163852474409432</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1600352360357728</v>
+        <v>0.04957147006493166</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02558987345502624</v>
+        <v>0.03293266559652698</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1612089330888972</v>
+        <v>0.08472827236868112</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06236177774601248</v>
+        <v>0.07944540824489257</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1616015604544484</v>
+        <v>0.08274988891992824</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09846111357360193</v>
+        <v>0.1268983936783153</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1616719237816081</v>
+        <v>0.08353454850611866</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01639228027065694</v>
+        <v>0.01638611784362495</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1616682486483827</v>
+        <v>0.05007730139212483</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02614432487442132</v>
+        <v>0.03281026412754766</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1628539222020492</v>
+        <v>0.08559284657652481</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06302142991401738</v>
+        <v>0.07978681718126032</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1632505559692897</v>
+        <v>0.08359427554156015</v>
       </c>
       <c r="N164" t="n">
-        <v>0.100025229459224</v>
+        <v>0.1259079836439671</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1633216372895837</v>
+        <v>0.0843869418582219</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01660559039888477</v>
+        <v>0.01638611784362495</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1633012612609926</v>
+        <v>0.05007730139212483</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02628827532074984</v>
+        <v>0.03288677223605063</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1644989113152013</v>
+        <v>0.08645742078436851</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06366409938502504</v>
+        <v>0.07942618358476689</v>
       </c>
       <c r="M165" t="n">
-        <v>0.164899551484131</v>
+        <v>0.08443866216319208</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1014648074915342</v>
+        <v>0.1260139698044849</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1649713507975593</v>
+        <v>0.08523933521032516</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01679607326404171</v>
+        <v>0.01597816158949458</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1649342738736025</v>
+        <v>0.05007703286366082</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02670731990426592</v>
+        <v>0.03296227746635423</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1661439004283533</v>
+        <v>0.08732199499221219</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06455471644950209</v>
+        <v>0.07906370456060324</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1665485469989723</v>
+        <v>0.085283048784824</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1026241459515453</v>
+        <v>0.1264166737949806</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1666210643055349</v>
+        <v>0.08609172856242842</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0169613574984285</v>
+        <v>0.01557479001949325</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1665672864862125</v>
+        <v>0.0500767643351968</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02688705373522382</v>
+        <v>0.03273686736277685</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1677888895415053</v>
+        <v>0.08818656920005587</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06555821139791498</v>
+        <v>0.07969957721396015</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1681975425138136</v>
+        <v>0.08612743540645593</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1028475431202702</v>
+        <v>0.1259164172505662</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1682707778135104</v>
+        <v>0.08694412191453167</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01612062384806426</v>
+        <v>0.01517657218890603</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1682002990988224</v>
+        <v>0.05007649580673278</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02723601456711155</v>
+        <v>0.03281062946963678</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1694338786546573</v>
+        <v>0.08905114340789955</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06606998768718333</v>
+        <v>0.07913399865002854</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1698465380286549</v>
+        <v>0.08697182202808784</v>
       </c>
       <c r="N168" t="n">
-        <v>0.104921849240991</v>
+        <v>0.1255135218063537</v>
       </c>
       <c r="O168" t="n">
-        <v>0.169920491321486</v>
+        <v>0.08779651526663491</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01727605336965607</v>
+        <v>0.01478407715298308</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1698333117114323</v>
+        <v>0.05007622727826876</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02767862034774619</v>
+        <v>0.03268365133125242</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1710788677678093</v>
+        <v>0.08991571761574324</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06656118562722946</v>
+        <v>0.07926716597399924</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1714955335434962</v>
+        <v>0.08781620864971976</v>
       </c>
       <c r="N169" t="n">
-        <v>0.105061023925789</v>
+        <v>0.1251083090974549</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1715702048294616</v>
+        <v>0.08864890861873817</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01842793951055662</v>
+        <v>0.014397873967009</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1714663243240423</v>
+        <v>0.05007595874980475</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02781543236187516</v>
+        <v>0.03295602049194209</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1727238568809613</v>
+        <v>0.09078029182358692</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06693805572629064</v>
+        <v>0.07879927629106309</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1731445290583375</v>
+        <v>0.08866059527135169</v>
       </c>
       <c r="N170" t="n">
-        <v>0.106477378341385</v>
+        <v>0.1256011007589817</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1732199183374372</v>
+        <v>0.08950130197084141</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01857657571811853</v>
+        <v>0.01401853168623451</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1730993369366522</v>
+        <v>0.05007569022134073</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02784690757595683</v>
+        <v>0.03292782449602415</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1743688459941133</v>
+        <v>0.0916448660314306</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06730171050110548</v>
+        <v>0.07933052670641097</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1747935245731788</v>
+        <v>0.0895049818929836</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1065726795139554</v>
+        <v>0.1260922184260461</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1748696318454128</v>
+        <v>0.09035369532294467</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01772225543969445</v>
+        <v>0.0136466193659436</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1747323495492621</v>
+        <v>0.05007542169287672</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02837350295644951</v>
+        <v>0.03259915088781694</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1760138351072653</v>
+        <v>0.09250944023927428</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0678532624684127</v>
+        <v>0.07916111432523373</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1764425200880202</v>
+        <v>0.09034936851461553</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1082486944696767</v>
+        <v>0.1255819837337598</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1765193453533884</v>
+        <v>0.09120608867504792</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01886527212263703</v>
+        <v>0.01328270606138762</v>
       </c>
       <c r="G173" t="n">
-        <v>0.176365362161872</v>
+        <v>0.0500751531644127</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02829567546981154</v>
+        <v>0.03267008721163879</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1776588242204173</v>
+        <v>0.09337401444711797</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06899382414495078</v>
+        <v>0.07919123625272229</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1780915156028615</v>
+        <v>0.09119375513624745</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1087071902347251</v>
+        <v>0.1248707183172351</v>
       </c>
       <c r="O173" t="n">
-        <v>0.178169058861364</v>
+        <v>0.09205848202715117</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01800591921429891</v>
+        <v>0.01292736082784989</v>
       </c>
       <c r="G174" t="n">
-        <v>0.177998374774482</v>
+        <v>0.05007488463594868</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02851388208250127</v>
+        <v>0.03274072101180808</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1793038133335693</v>
+        <v>0.09423858865496167</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06922450804745856</v>
+        <v>0.07852048011342741</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1797405111177028</v>
+        <v>0.09203814175787937</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1096499338352772</v>
+        <v>0.1245587438115838</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1798187723693396</v>
+        <v>0.09291087537925442</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01714449016203275</v>
+        <v>0.01258115272058248</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1796313873870919</v>
+        <v>0.05007461610748466</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02892857976097703</v>
+        <v>0.03281113983264315</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1809488024467214</v>
+        <v>0.09510316286280535</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06974642669267456</v>
+        <v>0.07893626307553436</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1813895066325441</v>
+        <v>0.09288252837951129</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1101786922975091</v>
+        <v>0.1244438555084606</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1814684858773152</v>
+        <v>0.09376326873135768</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01728127841319117</v>
+        <v>0.01224465079486796</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1812643999997018</v>
+        <v>0.05007434757902065</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0289402254716972</v>
+        <v>0.03248134407684813</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1825937915598734</v>
+        <v>0.09596773707064903</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07026069259733744</v>
+        <v>0.07853506381704975</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1830385021473854</v>
+        <v>0.0937269150011432</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1110952326475975</v>
+        <v>0.1249044081864489</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1831181993852908</v>
+        <v>0.09461566208346094</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01841657741512685</v>
+        <v>0.01191842410595918</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1828974126123117</v>
+        <v>0.05007407905055663</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02934927618112003</v>
+        <v>0.03254637234689037</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1842387806730254</v>
+        <v>0.09683231127849272</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07046841827818584</v>
+        <v>0.07861893258433492</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1846874976622267</v>
+        <v>0.09457130162277512</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1123013219117187</v>
+        <v>0.1252380583578144</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1847679128932664</v>
+        <v>0.09546805543556418</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01855144767646026</v>
+        <v>0.01160304170913787</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1845304252249217</v>
+        <v>0.05007381052209261</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02945618885570395</v>
+        <v>0.0327039629346695</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1858837697861774</v>
+        <v>0.0976968854863364</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07127071625195838</v>
+        <v>0.0782899196237512</v>
       </c>
       <c r="M178" t="n">
-        <v>0.186336493177068</v>
+        <v>0.09541568824440705</v>
       </c>
       <c r="N178" t="n">
-        <v>0.113298727116049</v>
+        <v>0.1250481516027269</v>
       </c>
       <c r="O178" t="n">
-        <v>0.186417626401242</v>
+        <v>0.09632044878766743</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01969366849103871</v>
+        <v>0.01129907265965781</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1861634378375316</v>
+        <v>0.05007354199362859</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02956618623787971</v>
+        <v>0.03245502645760438</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1875287588993294</v>
+        <v>0.09856145969418008</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07207473843979662</v>
+        <v>0.07855007518165999</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1879854886919093</v>
+        <v>0.09626007486603898</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1137975080386003</v>
+        <v>0.1239380335013561</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1880673399092175</v>
+        <v>0.09717284213977068</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01884121791726127</v>
+        <v>0.01100708601279972</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1877964504501415</v>
+        <v>0.05007327346516458</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02978846084612177</v>
+        <v>0.03260047353311396</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1891737480124814</v>
+        <v>0.09942603390202377</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07240827610014161</v>
+        <v>0.07810144950442258</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1896344842067506</v>
+        <v>0.09710446148767089</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1146426449271875</v>
+        <v>0.1238110496338719</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1897170534171931</v>
+        <v>0.09802523549187393</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01898905504717092</v>
+        <v>0.01072765082381842</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1894294630627514</v>
+        <v>0.05007300493670055</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03011598096473264</v>
+        <v>0.03234121477861708</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1908187371256334</v>
+        <v>0.1002906081098675</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07275845360694433</v>
+        <v>0.07774609283840039</v>
       </c>
       <c r="M181" t="n">
-        <v>0.191283479721592</v>
+        <v>0.09794884810930282</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1158153093361152</v>
+        <v>0.123470545580444</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1913667669251687</v>
+        <v>0.09887762884397717</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0191321389728106</v>
+        <v>0.01046133614799357</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1910624756753614</v>
+        <v>0.05007273640823654</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03024089671592277</v>
+        <v>0.03237816081153266</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1924637262387855</v>
+        <v>0.1011551823177111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07310615988481217</v>
+        <v>0.07808605542995478</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1929324752364333</v>
+        <v>0.09879323473093474</v>
       </c>
       <c r="N182" t="n">
-        <v>0.116785146872227</v>
+        <v>0.1232198669212421</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1930164804331443</v>
+        <v>0.09973002219608045</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01826542878622323</v>
+        <v>0.01020871104058645</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1926954882879713</v>
+        <v>0.05007246787977253</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0305553582219025</v>
+        <v>0.0324122222492796</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1941087153519375</v>
+        <v>0.1020197565255548</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07343228385835252</v>
+        <v>0.07762338752544704</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1945814707512745</v>
+        <v>0.09963762135256665</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1171218031423662</v>
+        <v>0.1236623592364361</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1946661939411199</v>
+        <v>0.1005824155481837</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01938388357945176</v>
+        <v>0.009970344556859523</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1943285009005812</v>
+        <v>0.05007219935130851</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03065151560488232</v>
+        <v>0.03234430970927676</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1957537044650895</v>
+        <v>0.1028843307333985</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07401771445217284</v>
+        <v>0.0772601393712386</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1962304662661159</v>
+        <v>0.1004820079741986</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1174949237533765</v>
+        <v>0.1237013681061959</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1963159074490955</v>
+        <v>0.1014348089002869</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01948246244453917</v>
+        <v>0.009746805752090651</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1959615135131912</v>
+        <v>0.05007193082284449</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03082151898707253</v>
+        <v>0.03207533380894305</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1973986935782415</v>
+        <v>0.1037489049412422</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07484334059088057</v>
+        <v>0.07709836121369079</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1978794617809572</v>
+        <v>0.1013263945958305</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1183741543121014</v>
+        <v>0.123040239110691</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1979656209570711</v>
+        <v>0.1022872022523902</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02055612447352838</v>
+        <v>0.009538663681537642</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1975945261258011</v>
+        <v>0.05007166229438047</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0310575184906836</v>
+        <v>0.03200620516569737</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1990436826913935</v>
+        <v>0.1046134791490859</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07529005119908308</v>
+        <v>0.07714010329916493</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1995284572957985</v>
+        <v>0.1021707812174624</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1192291404253844</v>
+        <v>0.1227823178300912</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1996153344650467</v>
+        <v>0.1031395956044934</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01861058823193589</v>
+        <v>0.009346487400477034</v>
       </c>
       <c r="G187" t="n">
-        <v>0.199227538738411</v>
+        <v>0.05007139376591646</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03135330859850896</v>
+        <v>0.0321378343969586</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2006886718045455</v>
+        <v>0.1054780533569296</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07553907636755941</v>
+        <v>0.07688741587402245</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2011774528106398</v>
+        <v>0.1030151678390943</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1195297036704737</v>
+        <v>0.1219309498445665</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2012650479730223</v>
+        <v>0.1039919889565967</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02066347786601763</v>
+        <v>0.009170845964168006</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2008605513510209</v>
+        <v>0.05007112523745244</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03113547929966019</v>
+        <v>0.03177113212014562</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2023336609176976</v>
+        <v>0.1063426275647732</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0753389646583548</v>
+        <v>0.07704234918462469</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2028264483254811</v>
+        <v>0.1038595544607263</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1194471424323947</v>
+        <v>0.1215894807342866</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2029147614809979</v>
+        <v>0.1048443823086999</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02071518689007638</v>
+        <v>0.009012308427885682</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2024935639636309</v>
+        <v>0.05007085670898842</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03131584088376298</v>
+        <v>0.03190700895267733</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2039786500308496</v>
+        <v>0.1072072017726169</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07613447221507155</v>
+        <v>0.07710695347733296</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2044754438403224</v>
+        <v>0.1047039410823582</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1204576299352458</v>
+        <v>0.1220612560794211</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2045644749889735</v>
+        <v>0.1056967756608032</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02076569675288876</v>
+        <v>0.008869264383004678</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2041265765762408</v>
+        <v>0.0500705881805244</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03129436446220488</v>
+        <v>0.03174637551197264</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2056236391440016</v>
+        <v>0.1080717759804606</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07562552870636624</v>
+        <v>0.07628327899850865</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2061244393551637</v>
+        <v>0.1055483277039901</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1199610544707527</v>
+        <v>0.1214496214601401</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2062141884969491</v>
+        <v>0.1065491690129065</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01881498890323135</v>
+        <v>0.008729152034562496</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2057595891888507</v>
+        <v>0.05007031965206039</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03157102114637336</v>
+        <v>0.0317901424154504</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2072686282571536</v>
+        <v>0.1089363501883043</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07611206380089536</v>
+        <v>0.07667337599451307</v>
       </c>
       <c r="M191" t="n">
-        <v>0.207773434870005</v>
+        <v>0.106392714325622</v>
       </c>
       <c r="N191" t="n">
-        <v>0.120857304330641</v>
+        <v>0.1219579224566131</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2078639020049247</v>
+        <v>0.1074015623650097</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01886304478988076</v>
+        <v>0.008590222802913938</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2073926018014606</v>
+        <v>0.05007005112359637</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03174578204765598</v>
+        <v>0.03163922028052954</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2089136173703056</v>
+        <v>0.109800924396148</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07609400716731543</v>
+        <v>0.07627929471170766</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2094224303848463</v>
+        <v>0.107237100947254</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1208462678066365</v>
+        <v>0.1212895046490099</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2095136155129003</v>
+        <v>0.108253955717113</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01990984586161358</v>
+        <v>0.008452901564876124</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2090256144140706</v>
+        <v>0.05006978259513235</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03161861827744021</v>
+        <v>0.03179451972462895</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2105586064834576</v>
+        <v>0.1106654986039917</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07667128847428289</v>
+        <v>0.07620308012824839</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2110714258996877</v>
+        <v>0.1080814875688859</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1217278331904649</v>
+        <v>0.1208477136175004</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2111633290208758</v>
+        <v>0.1091063490692162</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02095537356720641</v>
+        <v>0.008317613197254124</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2106586270266805</v>
+        <v>0.05006951406666833</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0315895009471136</v>
+        <v>0.0317569513651675</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2122035955966096</v>
+        <v>0.1115300728118354</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07694383739045429</v>
+        <v>0.07663712852349475</v>
       </c>
       <c r="M194" t="n">
-        <v>0.212720421414529</v>
+        <v>0.1089258741905178</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1220018887738518</v>
+        <v>0.1213340423176162</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2128130425288514</v>
+        <v>0.1099587424213194</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01899960935543585</v>
+        <v>0.008184782576864884</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2122916396392904</v>
+        <v>0.05006924553820432</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03195840116806364</v>
+        <v>0.03152690373221274</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2138485847097616</v>
+        <v>0.112394647019679</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07651158358448612</v>
+        <v>0.07587327446159087</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2143694169293703</v>
+        <v>0.1097702608121497</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1223683228485232</v>
+        <v>0.1206295921693711</v>
       </c>
       <c r="O195" t="n">
-        <v>0.214462756036827</v>
+        <v>0.1108111357734227</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01904253467507849</v>
+        <v>0.008054834580513662</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2139246522519003</v>
+        <v>0.0500689770097403</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03172529005167786</v>
+        <v>0.03169928839215913</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2154935738229136</v>
+        <v>0.1132592212275227</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07707445672503491</v>
+        <v>0.07571145224466277</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2160184124442116</v>
+        <v>0.1106146474337816</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1218270237062046</v>
+        <v>0.1205284959136387</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2161124695448026</v>
+        <v>0.111663529125526</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02108413097491094</v>
+        <v>0.007928194085017187</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2155576648645103</v>
+        <v>0.05006870848127629</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03209013870934373</v>
+        <v>0.03137257225737215</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2171385629360657</v>
+        <v>0.1141237954353664</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07753238648075708</v>
+        <v>0.07635159617483639</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2176674079590529</v>
+        <v>0.1114590340554135</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1227778796386218</v>
+        <v>0.1208306463450075</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2177621830527782</v>
+        <v>0.1125159224776292</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01912437970370978</v>
+        <v>0.007805285967183627</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2171906774771202</v>
+        <v>0.05006843995281227</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03195291825244879</v>
+        <v>0.03154672614812512</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2187835520492176</v>
+        <v>0.1149883696432101</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07688530252030923</v>
+        <v>0.07609364055423776</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2193164034738942</v>
+        <v>0.1123034206770455</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1223207789375004</v>
+        <v>0.1211359362580662</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2194118965607538</v>
+        <v>0.1133683158297325</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01916326231025162</v>
+        <v>0.007686535103821487</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2188236900897301</v>
+        <v>0.05006817142434825</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03201359979238057</v>
+        <v>0.03152172088469138</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2204285411623697</v>
+        <v>0.1158529438510538</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07703313451234778</v>
+        <v>0.07583751968499283</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2209653989887355</v>
+        <v>0.1131478072986774</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1228556098945663</v>
+        <v>0.1206442584474035</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2210616100687294</v>
+        <v>0.1142207091818357</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02120076024331306</v>
+        <v>0.007572366371746984</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2204567027023401</v>
+        <v>0.05006790289588423</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03207215444052657</v>
+        <v>0.03139752728734425</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2220735302755217</v>
+        <v>0.1167175180588975</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07747581212552929</v>
+        <v>0.07578316786922767</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2226143945035768</v>
+        <v>0.1139921939203093</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1225822608015451</v>
+        <v>0.1206555057076081</v>
       </c>
       <c r="O200" t="n">
-        <v>0.222711323576705</v>
+        <v>0.115073102533939</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01923685495167068</v>
+        <v>0.007463204647766217</v>
       </c>
       <c r="G201" t="n">
-        <v>0.22208971531495</v>
+        <v>0.05006763436742021</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03212855330827427</v>
+        <v>0.03147411617635701</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2237185193886737</v>
+        <v>0.1175820922667412</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07801326502851025</v>
+        <v>0.0754305194090682</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2242633900184182</v>
+        <v>0.1148365805419412</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1228006199501625</v>
+        <v>0.1209695708332688</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2243610370846806</v>
+        <v>0.1159254958860422</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0202715278841011</v>
+        <v>0.007359474808694977</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2237227279275599</v>
+        <v>0.0500673658389562</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03208276750701124</v>
+        <v>0.03145145837200304</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2253635085018257</v>
+        <v>0.1184466664745848</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07784542288994711</v>
+        <v>0.07567950860664041</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2259123855332595</v>
+        <v>0.1156809671635732</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1231105756321443</v>
+        <v>0.1200863466189741</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2260107505926562</v>
+        <v>0.1167778892381455</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0203047604893809</v>
+        <v>0.007261601731339815</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2253557405401698</v>
+        <v>0.05006709731049218</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03223476814812493</v>
+        <v>0.03122952469455559</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2270084976149777</v>
+        <v>0.1193112406824285</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07837221537849645</v>
+        <v>0.07603006976407034</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2275613810481008</v>
+        <v>0.1165253537852051</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1240120161392161</v>
+        <v>0.1197057258593127</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2276604641006318</v>
+        <v>0.1176302825902487</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02133653421628669</v>
+        <v>0.00717001029251603</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2269887531527797</v>
+        <v>0.05006682878202817</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03228452634300288</v>
+        <v>0.03120828596428804</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2286534867281297</v>
+        <v>0.1201758148902722</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07809357216281473</v>
+        <v>0.07578213718348395</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2292103765629421</v>
+        <v>0.117369740406837</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1233048297631039</v>
+        <v>0.1205276013488734</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2293101776086074</v>
+        <v>0.118482675942352</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01936683051359506</v>
+        <v>0.007085125369030706</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2286217657653896</v>
+        <v>0.05006656025356414</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03253201320303264</v>
+        <v>0.03128771300147365</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2302984758412817</v>
+        <v>0.1210403890981159</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07810942291155842</v>
+        <v>0.07543564516700724</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2308593720777834</v>
+        <v>0.1182141270284689</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1237889047955331</v>
+        <v>0.1198518658822447</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2309598911165829</v>
+        <v>0.1193350692944552</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0203956308300826</v>
+        <v>0.007007371837698576</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2302547783779996</v>
+        <v>0.05006629172510013</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03237719983960168</v>
+        <v>0.03146777662638577</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2319434649544337</v>
+        <v>0.1219049633059596</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07831969729338409</v>
+        <v>0.07589052801676616</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2325083675926247</v>
+        <v>0.1190585136501008</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1244641295282295</v>
+        <v>0.1193784122540154</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2326096046245585</v>
+        <v>0.1201874626465585</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02142291661452593</v>
+        <v>0.006937174575327332</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2318877909906095</v>
+        <v>0.05006602319663611</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03252005736409751</v>
+        <v>0.0314484476592977</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2335884540675858</v>
+        <v>0.1227695375138033</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07842432497694821</v>
+        <v>0.07534672003488679</v>
       </c>
       <c r="M207" t="n">
-        <v>0.234157363107466</v>
+        <v>0.1199029002717328</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1248303922529189</v>
+        <v>0.1202071332587741</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2342593181325341</v>
+        <v>0.1210398559986617</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01944866931570162</v>
+        <v>0.006874958458731061</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2335208036032194</v>
+        <v>0.0500657546681721</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03246055688790764</v>
+        <v>0.03122969692048279</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2352334431807378</v>
+        <v>0.123634111721647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07832323563090726</v>
+        <v>0.07580415552349506</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2358063586223073</v>
+        <v>0.1207472868933647</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1242875812613269</v>
+        <v>0.1201379216911095</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2359090316405097</v>
+        <v>0.121892249350765</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01947287038238629</v>
+        <v>0.006821148364718123</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2351538162158294</v>
+        <v>0.05006548613970808</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0324986695224196</v>
+        <v>0.03121149523021431</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2368784322938898</v>
+        <v>0.1244986859294906</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0789163589239178</v>
+        <v>0.07536276878471695</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2374553541371486</v>
+        <v>0.1215916735149966</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1248355848451794</v>
+        <v>0.1197706703456105</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2375587451484853</v>
+        <v>0.1227446427028682</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01949550126335652</v>
+        <v>0.00677616917010191</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2367868288284393</v>
+        <v>0.05006521761124406</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0326343663790209</v>
+        <v>0.03109381340876563</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2385234214070418</v>
+        <v>0.1253632601373343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07900362452463627</v>
+        <v>0.07552249412067852</v>
       </c>
       <c r="M210" t="n">
-        <v>0.23910434965199</v>
+        <v>0.1224360601366285</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1251742912962019</v>
+        <v>0.1196052720168655</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2392084586564609</v>
+        <v>0.1235970360549715</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02051654340738893</v>
+        <v>0.006740445751691526</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2384198414410492</v>
+        <v>0.05006494908278004</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03256761856909905</v>
+        <v>0.03117662227641001</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2401684105201938</v>
+        <v>0.126227834345178</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07888496210171916</v>
+        <v>0.07528326583350567</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2407533451668313</v>
+        <v>0.1232804467582604</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1244035889061202</v>
+        <v>0.1196416194994632</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2408581721644365</v>
+        <v>0.1244494294070747</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02153597826326009</v>
+        <v>0.006714402986299571</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2400528540536591</v>
+        <v>0.05006468055431603</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03279839720404157</v>
+        <v>0.03135989265342083</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2418133996333458</v>
+        <v>0.1270924085530217</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07896030132382306</v>
+        <v>0.07534501822532441</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2424023406816726</v>
+        <v>0.1241248333798924</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1256233659666602</v>
+        <v>0.1189796055879924</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2425078856724121</v>
+        <v>0.125301822759178</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02055378727974661</v>
+        <v>0.006698465750735981</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2416858666662691</v>
+        <v>0.05006441202585201</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03272667339523597</v>
+        <v>0.03124359536007135</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2434583887464978</v>
+        <v>0.1279569827608654</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07862957185960434</v>
+        <v>0.07500768559826082</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2440513361965139</v>
+        <v>0.1249692200015243</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1246335107695474</v>
+        <v>0.1189191230770417</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2441575991803877</v>
+        <v>0.1261542161112812</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0195699519056251</v>
+        <v>0.006693058921812475</v>
       </c>
       <c r="G214" t="n">
-        <v>0.243318879278879</v>
+        <v>0.05006414349738799</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03275241825406973</v>
+        <v>0.03102770121663492</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2451033778596499</v>
+        <v>0.1288215569687091</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07929270337771965</v>
+        <v>0.0753712022544408</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2457003317113552</v>
+        <v>0.1258136066231562</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1259339116065075</v>
+        <v>0.1194600647611998</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2458073126883633</v>
+        <v>0.1270066094633845</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02058445358967213</v>
+        <v>0.006693058921812475</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2449518918914889</v>
+        <v>0.05006414349738799</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03277560289193041</v>
+        <v>0.03121218104338484</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2467483669728019</v>
+        <v>0.1296861311765528</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07914962554682539</v>
+        <v>0.07503550249599036</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2473493272261965</v>
+        <v>0.1266579932447881</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1258244567692664</v>
+        <v>0.1200023234350553</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2474570261963389</v>
+        <v>0.1278590028154877</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02159727378066431</v>
+        <v>0.00647200679304747</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2465849045040989</v>
+        <v>0.05004133984530148</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03269619842020546</v>
+        <v>0.03099700566059445</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2483933560859539</v>
+        <v>0.1305507053843964</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07880026803557807</v>
+        <v>0.0756005206250355</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2489983227410378</v>
+        <v>0.12750237986642</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1260050345495496</v>
+        <v>0.119945791893197</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2491067397043145</v>
+        <v>0.128711396167591</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01960839392737825</v>
+        <v>0.006256193918567722</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2482179171167088</v>
+        <v>0.05001853619321495</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03281417595028246</v>
+        <v>0.03108214588853704</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2500383451991059</v>
+        <v>0.1314152795922401</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07884456051263425</v>
+        <v>0.07516619094370219</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2506473182558791</v>
+        <v>0.128346766488052</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1258755332390831</v>
+        <v>0.1197903629302137</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2507564532122901</v>
+        <v>0.1295637895196942</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01961779547859053</v>
+        <v>0.006045965676694652</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2498509297293187</v>
+        <v>0.04999573254112843</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03262950659354891</v>
+        <v>0.03096757254748596</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2516833343122579</v>
+        <v>0.1322798538000838</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0793824326466504</v>
+        <v>0.07553244775411647</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2522963137707204</v>
+        <v>0.1291911531096839</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1261358411295923</v>
+        <v>0.1198359293406937</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2524061667202657</v>
+        <v>0.1304161828717975</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01962545988307776</v>
+        <v>0.005841667445749509</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2514839423419286</v>
+        <v>0.04997292888904192</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03284216146139228</v>
+        <v>0.0312532564577145</v>
       </c>
       <c r="K219" t="n">
-        <v>0.25332832342541</v>
+        <v>0.1331444280079275</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07921381410628298</v>
+        <v>0.07469922535840431</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2539453092855617</v>
+        <v>0.1300355397313158</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1262858465128031</v>
+        <v>0.119782383919226</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2540558802282413</v>
+        <v>0.1312685762239008</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02163136858961653</v>
+        <v>0.005643644604053602</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2531169549545386</v>
+        <v>0.0499501252369554</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03285211166520012</v>
+        <v>0.03103916843949597</v>
       </c>
       <c r="K220" t="n">
-        <v>0.254973312538562</v>
+        <v>0.1340090022157712</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07943863456018857</v>
+        <v>0.07486645805869171</v>
       </c>
       <c r="M220" t="n">
-        <v>0.255594304800403</v>
+        <v>0.1308799263529477</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1255254376804412</v>
+        <v>0.1192296194603991</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2557055937362169</v>
+        <v>0.132120969576004</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02063550304698344</v>
+        <v>0.005452242529928202</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2547499675671485</v>
+        <v>0.04992732158486888</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03285932831635992</v>
+        <v>0.03112527931310373</v>
       </c>
       <c r="K221" t="n">
-        <v>0.256618301651714</v>
+        <v>0.1348735764236149</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07895682367702359</v>
+        <v>0.07493408015710459</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2572433003152443</v>
+        <v>0.1317243129745796</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1255545029242323</v>
+        <v>0.1184775287588018</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2573553072441925</v>
+        <v>0.1329733629281073</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01963784470395508</v>
+        <v>0.005267806601694694</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2563829801797584</v>
+        <v>0.04990451793278236</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03276378252625922</v>
+        <v>0.03111155989881105</v>
       </c>
       <c r="K222" t="n">
-        <v>0.258263290764866</v>
+        <v>0.1357381506314586</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0795683111254446</v>
+        <v>0.07470202595576902</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2588922958300857</v>
+        <v>0.1325686995962116</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1258729305359021</v>
+        <v>0.1194260046090226</v>
       </c>
       <c r="O222" t="n">
-        <v>0.259005020752168</v>
+        <v>0.1338257562802105</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01963716478634409</v>
+        <v>0.005090682197674334</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2580159927923684</v>
+        <v>0.04988171428069584</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0328654454062855</v>
+        <v>0.03089798101689128</v>
       </c>
       <c r="K223" t="n">
-        <v>0.259908279878018</v>
+        <v>0.1366027248393022</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07947302657410807</v>
+        <v>0.07517022975681101</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2605412913449269</v>
+        <v>0.1334130862178435</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1263806088071764</v>
+        <v>0.1192749398056504</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2606547342601436</v>
+        <v>0.1346781496323138</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02059790470606901</v>
+        <v>0.004921214696188413</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2596490054049783</v>
+        <v>0.04985891062860932</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03262970198291588</v>
+        <v>0.03088451348761773</v>
       </c>
       <c r="K224" t="n">
-        <v>0.26155326899117</v>
+        <v>0.1374672990471459</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07880403863657226</v>
+        <v>0.07493862586235644</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2621902868597683</v>
+        <v>0.1342574728394754</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1256758203658043</v>
+        <v>0.1191242271432738</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2623044477681192</v>
+        <v>0.135530542984417</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02050785075445564</v>
+        <v>0.004759749475558309</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2612820180175882</v>
+        <v>0.0498361069765228</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03261317536717789</v>
+        <v>0.03107112813126368</v>
       </c>
       <c r="K225" t="n">
-        <v>0.263198258104322</v>
+        <v>0.1383318732549896</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07853969210387474</v>
+        <v>0.07470714857453142</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2638392823746096</v>
+        <v>0.1351018594611073</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1246614645204476</v>
+        <v>0.1192737594164814</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2639541612760948</v>
+        <v>0.1363829363365203</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01937278615263716</v>
+        <v>0.004606631914105278</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2629150306301981</v>
+        <v>0.04981330332443629</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03262450976326177</v>
+        <v>0.03115779576810251</v>
       </c>
       <c r="K226" t="n">
-        <v>0.264843247217474</v>
+        <v>0.1391964474628333</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07809806735108538</v>
+        <v>0.07467573219546192</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2654882778894509</v>
+        <v>0.1359462460827393</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1245650666039474</v>
+        <v>0.1194234294198619</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2656038747840704</v>
+        <v>0.1372353296886235</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02019849412174677</v>
+        <v>0.004462207390150637</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2645480432428081</v>
+        <v>0.04979049967234977</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03207271100494036</v>
+        <v>0.0308444872184075</v>
       </c>
       <c r="K227" t="n">
-        <v>0.266488236330626</v>
+        <v>0.140061021670677</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07750108970912264</v>
+        <v>0.07444431102727384</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2671372734042922</v>
+        <v>0.1367906327043712</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1233214509315826</v>
+        <v>0.1192731299480042</v>
       </c>
       <c r="O227" t="n">
-        <v>0.267253588292046</v>
+        <v>0.1380877230407268</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01899075788291763</v>
+        <v>0.004326821282015655</v>
       </c>
       <c r="G228" t="n">
-        <v>0.266181055855418</v>
+        <v>0.04976769602026324</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03206678492598658</v>
+        <v>0.03113117330245198</v>
       </c>
       <c r="K228" t="n">
-        <v>0.268133225443778</v>
+        <v>0.1409255958785207</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07677068450890509</v>
+        <v>0.07461281937209327</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2687862689191335</v>
+        <v>0.1376350193260031</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1226654418186317</v>
+        <v>0.1190227537954966</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2689033018000216</v>
+        <v>0.13894011639283</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01975536065728294</v>
+        <v>0.00420081896802172</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2678140684680279</v>
+        <v>0.04974489236817672</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03141573736017331</v>
+        <v>0.03111782484050926</v>
       </c>
       <c r="K229" t="n">
-        <v>0.26977821455693</v>
+        <v>0.1417901700863643</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07632877708135125</v>
+        <v>0.0747811915320461</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2704352644339748</v>
+        <v>0.138479405947635</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1214318635803735</v>
+        <v>0.1188721937569281</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2705530153079972</v>
+        <v>0.1397925097449333</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01849808566597586</v>
+        <v>0.004084545826490087</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2694470810806379</v>
+        <v>0.04972208871609021</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03132857414127344</v>
+        <v>0.03110441265285264</v>
       </c>
       <c r="K230" t="n">
-        <v>0.271423203670082</v>
+        <v>0.142654744294208</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07509729275737959</v>
+        <v>0.07454936180925847</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2720842599488161</v>
+        <v>0.1393237925692669</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1200555405320868</v>
+        <v>0.1181213426268872</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2722027288159728</v>
+        <v>0.1406449030970365</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01922471613012958</v>
+        <v>0.003978347235742051</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2710800936932478</v>
+        <v>0.04969928506400369</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03091430110305986</v>
+        <v>0.0307909075597555</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2730681927832341</v>
+        <v>0.1435193185020517</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07459815686790869</v>
+        <v>0.07481726450585627</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2737332554636575</v>
+        <v>0.1401681791908989</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1186712969890501</v>
+        <v>0.1186700931999626</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2738524423239483</v>
+        <v>0.1414972964491397</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01994103527087728</v>
+        <v>0.003882568574098966</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2727131063058577</v>
+        <v>0.04967648141191717</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03038192407930547</v>
+        <v>0.03077728038149108</v>
       </c>
       <c r="K232" t="n">
-        <v>0.274713181896386</v>
+        <v>0.1443838927098954</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07365329474385701</v>
+        <v>0.07468483392396547</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2753822509784987</v>
+        <v>0.1410125658125308</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1158139572665424</v>
+        <v>0.119018338270743</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2755021558319239</v>
+        <v>0.142349689801243</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01765282630935214</v>
+        <v>0.003797555219882114</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2743461189184676</v>
+        <v>0.04965367775983065</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02984044890378314</v>
+        <v>0.03106350342816178</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2763581710095381</v>
+        <v>0.1452484669177391</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07198463171614303</v>
+        <v>0.07435225607032639</v>
       </c>
       <c r="M233" t="n">
-        <v>0.27703124649334</v>
+        <v>0.1418569524341627</v>
       </c>
       <c r="N233" t="n">
-        <v>0.115018345679842</v>
+        <v>0.1184661383879732</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2771518693398995</v>
+        <v>0.1432020831533463</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01836587246668734</v>
+        <v>0.003723652551412805</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2759791315310776</v>
+        <v>0.04963087410774413</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02959888141026579</v>
+        <v>0.03084973051078786</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2780031601226901</v>
+        <v>0.1461130411255827</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07081409311568534</v>
+        <v>0.07491995317521119</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2786802420081814</v>
+        <v>0.1427013390557946</v>
       </c>
       <c r="N234" t="n">
-        <v>0.113619286544228</v>
+        <v>0.1187142801691644</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2788015828478752</v>
+        <v>0.1440544765054495</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01708595696401605</v>
+        <v>0.003661205947012323</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2776121441436875</v>
+        <v>0.04960807045565761</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02886622743252629</v>
+        <v>0.0310360812078161</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2796481492358421</v>
+        <v>0.1469776153334265</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06976360427340242</v>
+        <v>0.07478793933994385</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2803292375230227</v>
+        <v>0.1435457256774265</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1109516041749789</v>
+        <v>0.1181628865842178</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2804512963558508</v>
+        <v>0.1449068698575528</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01781886302247147</v>
+        <v>0.00361056078500202</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2792451567562974</v>
+        <v>0.04958526680357109</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02865149280433751</v>
+        <v>0.03072255805149296</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2812931383489941</v>
+        <v>0.1478421895412701</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0695550905202128</v>
+        <v>0.07435622026585298</v>
       </c>
       <c r="M236" t="n">
-        <v>0.281978233037864</v>
+        <v>0.1443901122990584</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1099501228873734</v>
+        <v>0.1189119669365282</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2821010098638263</v>
+        <v>0.145759263209656</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01757037386318677</v>
+        <v>0.003572062443703165</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2808781693689073</v>
+        <v>0.04956246315148458</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02826368335947238</v>
+        <v>0.0307091635740649</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2829381274621461</v>
+        <v>0.1487067637491138</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06861047718703497</v>
+        <v>0.0744248016542671</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2836272285527053</v>
+        <v>0.1452344989206904</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1083496669966903</v>
+        <v>0.1179615305294909</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2837507233718019</v>
+        <v>0.1466116565617593</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01834176023231687</v>
+        <v>0.003546056301437082</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2825111819815172</v>
+        <v>0.04953965949939805</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02770885735389235</v>
+        <v>0.03099590030777839</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2845831165752982</v>
+        <v>0.1495713379569575</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06714683941173272</v>
+        <v>0.07449368920651483</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2852762240675466</v>
+        <v>0.1460788855423223</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1066779391531241</v>
+        <v>0.1183115866665008</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2854004368797775</v>
+        <v>0.1474640499138625</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01611491376445751</v>
+        <v>0.003532887736525089</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2841441945941272</v>
+        <v>0.04951685584731153</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02736097429160714</v>
+        <v>0.03088277078487994</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2862281056884502</v>
+        <v>0.1504359121648012</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06680420255147945</v>
+        <v>0.07426288862392486</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2869252195823879</v>
+        <v>0.1469232721639542</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1055407881070074</v>
+        <v>0.118562144650953</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2870501503877531</v>
+        <v>0.1483164432659658</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01588720508638854</v>
+        <v>0.003531491832476474</v>
       </c>
       <c r="G240" t="n">
-        <v>0.285777207206737</v>
+        <v>0.04949405219522501</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02721176222420198</v>
+        <v>0.03086977753761601</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2878730948016022</v>
+        <v>0.1513004863726449</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06545834115156299</v>
+        <v>0.07463240560782566</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2885742150972292</v>
+        <v>0.1477676587855861</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1043985186053099</v>
+        <v>0.1185132137862426</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2886998638957287</v>
+        <v>0.149168836618069</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01565862049744461</v>
+        <v>0.003533752198740518</v>
       </c>
       <c r="G241" t="n">
-        <v>0.287410219819347</v>
+        <v>0.0494712485431385</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02686119981652275</v>
+        <v>0.03065692309823309</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2895180839147542</v>
+        <v>0.1521650605804885</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06490920327006139</v>
+        <v>0.07450224585954585</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2902232106120706</v>
+        <v>0.1486120454072181</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1027510481479372</v>
+        <v>0.1186648033757646</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2903495774037043</v>
+        <v>0.1500212299701723</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01542914629696039</v>
+        <v>0.003538603918826509</v>
       </c>
       <c r="G242" t="n">
-        <v>0.289043232431957</v>
+        <v>0.04944844489105198</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02630926573341526</v>
+        <v>0.03084420999897762</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2911630730279062</v>
+        <v>0.1530296347883323</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06405673696505265</v>
+        <v>0.07407241508041407</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2918722061269118</v>
+        <v>0.14945643202885</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1011982942347951</v>
+        <v>0.1179169227229142</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2919992909116799</v>
+        <v>0.1508736233222755</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01619876878427056</v>
+        <v>0.003546392371055772</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2906762450445668</v>
+        <v>0.04942564123896546</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02605593863972532</v>
+        <v>0.03093164077209613</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2928080621410582</v>
+        <v>0.1538942089961759</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06290089029461468</v>
+        <v>0.07474291897175883</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2935212016417532</v>
+        <v>0.1503008186504819</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09974017436578919</v>
+        <v>0.1174695811310864</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2936490044196555</v>
+        <v>0.1517260166743788</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0149674742587098</v>
+        <v>0.003557462933749596</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2923092576571768</v>
+        <v>0.04940283758687894</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02570119720029874</v>
+        <v>0.03091921794983507</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2944530512542102</v>
+        <v>0.1547587832040196</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06224161131682548</v>
+        <v>0.07411376323490881</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2951701971565945</v>
+        <v>0.1511452052721138</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09827660604082528</v>
+        <v>0.1173227879036761</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2952987179276311</v>
+        <v>0.152578410026482</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01473524901961277</v>
+        <v>0.003572160985229327</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2939422702697867</v>
+        <v>0.04938003393479242</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02554502007998138</v>
+        <v>0.0309069440644409</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2960980403673623</v>
+        <v>0.1556233574118633</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06157884808976311</v>
+        <v>0.07468495357119251</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2968191926714358</v>
+        <v>0.1519895918937457</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09800750675980902</v>
+        <v>0.1183765523440785</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2969484314356066</v>
+        <v>0.1534308033785853</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01650207936631416</v>
+        <v>0.003590831903816219</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2955752828823967</v>
+        <v>0.0493572302827059</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02508738594361906</v>
+        <v>0.03069482164816011</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2977430294805142</v>
+        <v>0.156487931619707</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06021254867150547</v>
+        <v>0.07385649568193856</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2984681881862771</v>
+        <v>0.1528339785153777</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09543279402264604</v>
+        <v>0.1180308837556887</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2985981449435822</v>
+        <v>0.1542831967306885</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01526795159814861</v>
+        <v>0.003613821067831618</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2972082954950066</v>
+        <v>0.04933442663061938</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02462827345605759</v>
+        <v>0.0307828532332392</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2993880185936663</v>
+        <v>0.1573525058275507</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05964266112013059</v>
+        <v>0.07392839526847558</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3001171837011184</v>
+        <v>0.1536783651370096</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0951523853292422</v>
+        <v>0.1178857914419018</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3002478584515578</v>
+        <v>0.1551355900827918</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01403285201445083</v>
+        <v>0.003641473855596808</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2988413081076165</v>
+        <v>0.04931162297853287</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02446766128214277</v>
+        <v>0.03057104135192464</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3010330077068183</v>
+        <v>0.1582170800353943</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05836913349371653</v>
+        <v>0.07390065803213217</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3017661792159597</v>
+        <v>0.1545227517586415</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09286619817950303</v>
+        <v>0.1177412847061126</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3018975719595334</v>
+        <v>0.155987983434895</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01479676691455549</v>
+        <v>0.003674135645433126</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3004743207202265</v>
+        <v>0.04928881932644634</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02390552808672049</v>
+        <v>0.03075938853646284</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3026779968199703</v>
+        <v>0.159081654243238</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05829191385034113</v>
+        <v>0.07417328967423681</v>
       </c>
       <c r="M249" t="n">
-        <v>0.303415174730801</v>
+        <v>0.1553671383802734</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09147415007333426</v>
+        <v>0.1180973728517165</v>
       </c>
       <c r="O249" t="n">
-        <v>0.303547285467509</v>
+        <v>0.1568403767869983</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01455968259779725</v>
+        <v>0.003712151815661847</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3021073333328363</v>
+        <v>0.04926601567435982</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02344185253463651</v>
+        <v>0.03074789731910038</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3043229859331223</v>
+        <v>0.1599462284510817</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05711095024808244</v>
+        <v>0.07414629589611824</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3050641702456424</v>
+        <v>0.1562115250019053</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09037615851064168</v>
+        <v>0.1180540651821084</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3051969989754846</v>
+        <v>0.1576927701391015</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01332158536351077</v>
+        <v>0.003755867744604298</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3037403459454463</v>
+        <v>0.04924321202227331</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02337661329073669</v>
+        <v>0.03073657023208368</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3059679750462743</v>
+        <v>0.1608108026589254</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05592619074501848</v>
+        <v>0.07381968239910497</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3067131657604836</v>
+        <v>0.1570559116235373</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08957214099133093</v>
+        <v>0.1174113710006832</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3068467124834602</v>
+        <v>0.1585451634912048</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01508246151103077</v>
+        <v>0.003805628810581788</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3053733585580562</v>
+        <v>0.04922040837018678</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02300978901986685</v>
+        <v>0.03052540980765923</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3076129641594263</v>
+        <v>0.1616753768667691</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05493758339922716</v>
+        <v>0.07369345488452561</v>
       </c>
       <c r="M252" t="n">
-        <v>0.308362161275325</v>
+        <v>0.1579002982451692</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08796201501530765</v>
+        <v>0.1175692996108363</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3084964259914358</v>
+        <v>0.1593975568433081</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01284229733969187</v>
+        <v>0.003861780391915613</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3070063711706661</v>
+        <v>0.04919760471810027</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02264135838687278</v>
+        <v>0.03051441857807349</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3092579532725783</v>
+        <v>0.1625399510746128</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05464507626878656</v>
+        <v>0.07396761905370869</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3100111567901663</v>
+        <v>0.1587446848668011</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08684569808247766</v>
+        <v>0.1177278603159625</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3101461394994114</v>
+        <v>0.1602499501954113</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01260107914882878</v>
+        <v>0.003924667866927072</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3086393837832761</v>
+        <v>0.04917480106601375</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02217130005660037</v>
+        <v>0.03070359907557296</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3109029423857304</v>
+        <v>0.1634045252824564</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05374861741177464</v>
+        <v>0.07414218060798289</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3116601523050076</v>
+        <v>0.159589071488433</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08532310769274665</v>
+        <v>0.1172870624194571</v>
       </c>
       <c r="O254" t="n">
-        <v>0.311795853007387</v>
+        <v>0.1611023435475146</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01435879323777616</v>
+        <v>0.003994636613937487</v>
       </c>
       <c r="G255" t="n">
-        <v>0.310272396395886</v>
+        <v>0.04915199741392723</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02169959269389538</v>
+        <v>0.03059295383240411</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3125479314988824</v>
+        <v>0.1642690994903001</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05264815488626931</v>
+        <v>0.07421714524867673</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3133091478198489</v>
+        <v>0.160433458110065</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08329416134602013</v>
+        <v>0.1180469152247149</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3134455665153625</v>
+        <v>0.1619547368996178</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01211542590586869</v>
+        <v>0.004072032011268191</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3119054090084959</v>
+        <v>0.04912919376184071</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02142621496360368</v>
+        <v>0.03078248538081342</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3141929206120344</v>
+        <v>0.1651336736981438</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05194363675034863</v>
+        <v>0.07389251867711888</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3149581433346902</v>
+        <v>0.1612778447316969</v>
       </c>
       <c r="N256" t="n">
-        <v>0.082558776542204</v>
+        <v>0.1174074280351311</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3150952800233381</v>
+        <v>0.1628071302517211</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01387096345244104</v>
+        <v>0.004157199437240439</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3135384216211058</v>
+        <v>0.04910639010975419</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02115114553057108</v>
+        <v>0.03057219625304734</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3158379097251864</v>
+        <v>0.1659982479059875</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0510350110620906</v>
+        <v>0.07436830659463789</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3166071388495315</v>
+        <v>0.1621222313533288</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08101687078120395</v>
+        <v>0.1176686101541007</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3167449935313137</v>
+        <v>0.1636595236038243</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01262539217682786</v>
+        <v>0.004250484270175561</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3151714342337158</v>
+        <v>0.04908358645766767</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02067436305964339</v>
+        <v>0.03046208898135241</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3174828988383384</v>
+        <v>0.1668628221138312</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04982222587957316</v>
+        <v>0.07364451470256231</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3182561343643728</v>
+        <v>0.1629666179749607</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0790683615629254</v>
+        <v>0.117230470885019</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3183947070392894</v>
+        <v>0.1645119169559276</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01237869837836388</v>
+        <v>0.004352231888394897</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3168044468463257</v>
+        <v>0.04906078280558115</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02039584621566644</v>
+        <v>0.03045216609797502</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3191278879514904</v>
+        <v>0.1677273963216749</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0488052292608743</v>
+        <v>0.07392114870222077</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3199051298792141</v>
+        <v>0.1638110045965926</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07731316638727442</v>
+        <v>0.1173930195312806</v>
       </c>
       <c r="O259" t="n">
-        <v>0.320044420547265</v>
+        <v>0.1653643103080308</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01213086835638371</v>
+        <v>0.004462787670219702</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3184374594589356</v>
+        <v>0.04903797915349464</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02001557366348607</v>
+        <v>0.03054243013516172</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3207728770646424</v>
+        <v>0.1685919705295186</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04838396926407204</v>
+        <v>0.07419821429494189</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3215541253940554</v>
+        <v>0.1646553912182246</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0766512027541566</v>
+        <v>0.117756265396281</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3216941340552406</v>
+        <v>0.1662167036601341</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01188188841022206</v>
+        <v>0.004582496993971306</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3200704720715455</v>
+        <v>0.04901517550140812</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01963352406794808</v>
+        <v>0.03053288362515895</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3224178661777944</v>
+        <v>0.1694565447373622</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04725839394724432</v>
+        <v>0.07387571718205418</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3232031209088967</v>
+        <v>0.1654997778398565</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07528238816347754</v>
+        <v>0.1173202177834151</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3233438475632162</v>
+        <v>0.1670690970122373</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01063174483921361</v>
+        <v>0.004711705237971001</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3217034846841555</v>
+        <v>0.0489923718493216</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01924967609389833</v>
+        <v>0.03052352910021321</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3240628552909465</v>
+        <v>0.1703211189452059</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04652845136846917</v>
+        <v>0.07375366306488637</v>
       </c>
       <c r="M262" t="n">
-        <v>0.324852116423738</v>
+        <v>0.1663441644614884</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07370664011514294</v>
+        <v>0.1170848859960779</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3249935610711918</v>
+        <v>0.1679214903643406</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.011380423942693</v>
+        <v>0.004850757780540151</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3233364972967654</v>
+        <v>0.04896956819723507</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0186640084061826</v>
+        <v>0.03051436909257096</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3257078444040984</v>
+        <v>0.1711856931530496</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0454940895858246</v>
+        <v>0.0742320576447669</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3265011119385793</v>
+        <v>0.1671885510831203</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07212387610905863</v>
+        <v>0.1176502793376645</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3266432745791674</v>
+        <v>0.1687738837164438</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01112791201999494</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3249695099093753</v>
+        <v>0.04894676454514856</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01847649966964676</v>
+        <v>0.03040540613447869</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3273528335172505</v>
+        <v>0.1720502673608933</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04415525665738848</v>
+        <v>0.07361090662302441</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3281501074534207</v>
+        <v>0.1680329377047522</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07063401364513017</v>
+        <v>0.1174164071115701</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3282929880871429</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.169626277068547</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04893360665041172</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005278607497257184</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04893387517887573</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005554473370072109</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04893414370733975</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005827512402052912</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04893441223580377</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006097639376831679</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04893468076426779</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006364769078016821</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0489349492927318</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006628816289240134</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04893521782119582</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006889695794110307</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04893548634965984</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007147322376258862</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04893575487812386</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.00740161081929476</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04893602340658787</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007652475906849261</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04893629193505189</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007899832422531602</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0489365604635159</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008143595149972732</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04893682899197992</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.00838367887278222</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04893709752044394</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008619998374590675</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04893736604890796</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008852468439008013</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04893763457737197</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.00908100384966451</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04893790310583599</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009305519390170387</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04893817163430001</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009525929844150863</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04893844016276402</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009742149995230751</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04893870869122804</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009954094627020828</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04893897721969206</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0101616785231505</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04893924574815608</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01036481646723089</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04893951427662009</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01056342324289103</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04893978280508411</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01075741363374244</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04894005133354812</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01094705039029804</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04894031986201215</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01113433609747545</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04894058839047616</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01131953350578726</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04894085691894018</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01150255739884559</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0489411254474042</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01168332256027857</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04894139397586822</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01186174377369852</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04894166250433223</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01203773582273337</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04894193103279625</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01221121349099564</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04894219956126027</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01238209156210936</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04894246808972428</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01255028481969836</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0489427366181883</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01271570804737547</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04894300514665231</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01287827602876808</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04894327367511633</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01303790354748928</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04894354220358035</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0131945053871662</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04894381073204437</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0133479963314122</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04894407926050839</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01349829116385413</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04894434778897241</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01364530466810562</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04894461631743642</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01378895162779326</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04894488484590044</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01392914682653097</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04894515337436445</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.014065805047945</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04894542190282847</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01419884107564962</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04894569043129249</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01432816969327076</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04894595895975651</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01445370568442299</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04894622748822052</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01457536383273193</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04894649601668454</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01469305892181247</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04894676454514856</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01469305892181247</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04893360665041172</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01479651836414952</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04895694735942627</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01489729264033827</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04898028806844082</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01499524036869149</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04900362877745538</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01509022016752189</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04902696948646993</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01518209065514223</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04905031019548448</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01527071044986526</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04907365090449903</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01535593817000376</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04909699161351359</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01543763243387044</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04912033232252815</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01551565185977804</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0491436730315427</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01558985506603933</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04916701374055725</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01566010067096707</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0491903544495718</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01572624729287399</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04921369515858636</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01578815355007283</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04923703586760091</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01584567806087635</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04926037657661547</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0158986794435973</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04928371728563002</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01594701631654845</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04930705799464458</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01599054729804249</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04933039870365913</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01602913100639221</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04935373941267368</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01606262605991034</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04937708012168823</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01609089107690966</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04940042083070278</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01611378467570288</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04942376153971734</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01613116547460276</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04944710224873189</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01614289209192206</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04947044295774644</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01614882314597352</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04949378366676099</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01614939456362616</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04951712437577555</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01614792881453041</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0495404650847901</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01614486182555529</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04956380579380466</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01614005221501356</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04958714650281921</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01613335860121794</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04961048721183377</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01612463960248121</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04963382792084832</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01611375383711611</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04965716862986287</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01610055992343538</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04968050933887742</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01608491647975177</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04970385004789198</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01606668212437802</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04972719075690653</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01604571547562689</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04975053146592109</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01602187515181114</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04977387217493564</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0159950197712435</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04979721288395019</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01596500795223672</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04982055359296475</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01593169831310354</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0498438943019793</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01589494947215673</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04986723501099385</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01585462004770902</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04989057572000841</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01581056865807317</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04991391642902296</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01576265392156191</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04993725713803752</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01571073445648801</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04996059784705207</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01565466888116421</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04998393855606662</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01559431581390326</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05000727926508117</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01552953387301789</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05003061997409573</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01546018167682087</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05005396068311028</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01538611784362494</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05007730139212483</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01538611784362495</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05007730139212483</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01570225273720851</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05165964589336244</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01601210936014458</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05324199039460004</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01631555210656349</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05482433489583763</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01661244537059561</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05640667939707524</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01690265354637131</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05798902389831283</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01718604102802095</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05957136839955044</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01746247220967487</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06115371290078803</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01773181148546345</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06273605740202563</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01799392324951705</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06431840190326324</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01824867189596603</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06590074640450083</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01849592181894075</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06748309090573844</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01873553741257156</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06906543540697603</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01896738307098884</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07064777990821364</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01919132318832295</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07223012440945124</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01940722215870423</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07381246891068884</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01961494437626305</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07539481341192644</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01981435423512979</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07697715791316403</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02000531612943478</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07855950241440164</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02018769445330841</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08014184691563923</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02036135360088102</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08172419141687683</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02052615796628298</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08330653591811445</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02068197194364465</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08488888041935204</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02082865992709639</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08647122492058963</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02096608631076857</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08805356942182724</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02109411548879155</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08963591392306483</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02121261185529565</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09121825842430245</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02132143980441129</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09280060292554004</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02142046373026879</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09438294742677764</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02150954802699853</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09596529192801524</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02158855708873089</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09754763642925283</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02165735530959617</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09912998093049044</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02171580708372481</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.100712325431728</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0217637768052471</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1022946699329656</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02180112886829344</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1038770144342032</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02182772766699418</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1054593589354408</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02184815712483326</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1070417034366784</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02184814182009169</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.108624047937916</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02184531396697077</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1102063924391536</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02183784768000594</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1117887369403913</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02182609524132024</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1133710814416288</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02181040893303668</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1149534259428664</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02179114103727829</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.116535770444104</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02176864383616809</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1181181149453417</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02174326961182911</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1197004594465792</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02171537064638437</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1212828039478168</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0216852992219569</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1228651484490545</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02165340762066971</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.124447492950292</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02162004812464584</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1260298374515296</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0215855730160083</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1276121819527672</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02155033457688013</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1291945264540048</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02151444750706506</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1307768709552424</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0214673548966721</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1323592154564801</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02140587237077046</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1339415599577176</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02133366429323485</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1355239044589552</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02125439502793994</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1371062489601929</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02117172893876046</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1386885934614304</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02108933038957109</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.140270937962668</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02101086374424656</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1418532824639056</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02093999336666153</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1434356269651433</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02088038362069074</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1450179714663808</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02083569887020887</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1466003159676184</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0208022917186826</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1481826604688561</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02077092608138582</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0207414019679962</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1513473494713312</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02071360195803163</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1529296939725688</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02068740863101005</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1545120384738065</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02066270456644934</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.156094382975044</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02063937234386742</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1576767274762816</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02061729454278219</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1592590719775193</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02059635374271155</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1608414164787568</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02057643252317341</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1624237609799944</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02055741346368568</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1640061054812321</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02053917914376626</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1655884499824697</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02052161214293306</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1671707944837072</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02050459504070399</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1687531389849448</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02048801041659695</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1703354834861825</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02047174085012984</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.17191782798742</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02045566892082058</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1735001724886577</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02043967720818705</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1750825169898953</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02042364829174718</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1766648614911328</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02040746475101889</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1782472059923705</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02039100916552004</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.179829550493608</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02037450803731095</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1814118949948456</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02035828267130447</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1829942394960832</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02034234327562819</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1845765839973209</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02032670004015143</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1861589284985585</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02031136315474355</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.187741272999796</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02029634280927388</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1893236175010337</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02028164919361174</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1909059620022713</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02026729249762648</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1924883065035088</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02025328291118742</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1940706510047464</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02023963062416392</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1956529955059841</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02022634582642528</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1972353400072216</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02021343870784086</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1988176845084592</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02020091945828</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2004000290096969</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.020188798267612</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2019823735109345</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02017708532570623</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.203564718012172</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02016579082243201</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2051470625134097</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02015492494765869</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2067294070146473</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
